--- a/未管制品种增补目录.xlsx
+++ b/未管制品种增补目录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13151" windowHeight="10500"/>
+    <workbookView windowWidth="11520" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1336,42 +1336,13 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="ID_138500CB75F94E3DBCC824AEDC25A2EE"/>
+        <xdr:cNvPr id="50" name="ID_292A425AA21B444F80B74593B048F053"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId46"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3924300" y="8983980"/>
-          <a:ext cx="1695450" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="ID_292A425AA21B444F80B74593B048F053"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId47"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1400,7 +1371,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId48"/>
+        <a:blip r:embed="rId47"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1429,7 +1400,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId49"/>
+        <a:blip r:embed="rId48"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1458,7 +1429,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId50"/>
+        <a:blip r:embed="rId49"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1487,7 +1458,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId51"/>
+        <a:blip r:embed="rId50"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1516,7 +1487,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId52"/>
+        <a:blip r:embed="rId51"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1525,6 +1496,1775 @@
         <a:xfrm>
           <a:off x="3924300" y="22185630"/>
           <a:ext cx="914400" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="ID_C3F436A1EC5742BFB78E8C7F9625BC69"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="29394785"/>
+          <a:ext cx="762000" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="ID_C6102E0477F04118AC89A0C1E21EA7D5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="26988770"/>
+          <a:ext cx="1038225" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="ID_2278C36EBF964F2BBB1C381DA8A1D14E"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="27914600"/>
+          <a:ext cx="1066800" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="ID_A1695CA7E80543268231E73B274C83DF"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="28739465"/>
+          <a:ext cx="942975" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="ID_6FBA0D7C30224E079A14E388B7A80A26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="6832600"/>
+          <a:ext cx="1028700" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="ID_7A818E3013914853A9EFDEAE9BF6E772"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="7229475"/>
+          <a:ext cx="1038225" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="ID_35576D90A4CC457E8EE0FBEFB585AAA1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="7639685"/>
+          <a:ext cx="1038225" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="ID_2450844B1E604A0DB88E8A1DC84FB60D"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="8154670"/>
+          <a:ext cx="1114425" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="ID_9EB8D6673CDD4F89B9D9C1788830AB97"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="8642985"/>
+          <a:ext cx="1276350" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="ID_D44602CEC63A45A1BFBFFC2A86D3929E"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="9019540"/>
+          <a:ext cx="1200150" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="ID_DDB2AAD25DE242EDADEF3E20DA9E604F"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="10154920"/>
+          <a:ext cx="914400" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="ID_5FE2B6D717B84202A34C44ADA99D8606"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="12680315"/>
+          <a:ext cx="962025" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="ID_6D77EC53A91642839B81ACF0C0E45A48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="13912215"/>
+          <a:ext cx="1790700" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="ID_A5B26B88572849BF8B98C54E98A5033D"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="14403070"/>
+          <a:ext cx="933450" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="ID_A3DD8E2FF8964B9C8850FD61A7C26128"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="15088870"/>
+          <a:ext cx="933450" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="ID_F949643B242C4191846E2555F344B0B4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="15784195"/>
+          <a:ext cx="830580" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="ID_9D738A3F24C24A8195141EB18B14F2AE"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="16309975"/>
+          <a:ext cx="1114425" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="ID_94DF3013D80E49B088588A1885D59B8C"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="10178415"/>
+          <a:ext cx="1028700" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="ID_65A470F6201841E4AC6EB3E439B3DE8F"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="10610215"/>
+          <a:ext cx="952500" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="ID_AA2DFB748661451D94459913926AEF0F"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="15154910"/>
+          <a:ext cx="790575" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="ID_D94F0DB8909647DBBB28EDAE3EB72332"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="18317845"/>
+          <a:ext cx="1409700" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="ID_34C819E688AB46B5B2B487DE9F0621D0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="18800445"/>
+          <a:ext cx="1390650" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="ID_D115C62B28AC4266B6AA082857E52062"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="19269710"/>
+          <a:ext cx="1419225" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="ID_9F30B13D3A0F4130AE0F116CFE693F95"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="19774535"/>
+          <a:ext cx="1285875" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="ID_D643DEC9553641DDB7B4FB80E6DFF700"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="21264880"/>
+          <a:ext cx="1066800" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="ID_24EEA67180314072B6CC844BA90CC7EE"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="22217380"/>
+          <a:ext cx="1114425" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="ID_41DC15838E2D4A6CBD30E6E99CA7C6F0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="23169880"/>
+          <a:ext cx="914400" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="ID_7667A57E86454C8882052BC191914E1B"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="23922355"/>
+          <a:ext cx="1276350" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="ID_016B945204454020A160E6BC45103344"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="24753570"/>
+          <a:ext cx="1076325" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="ID_3990C40384384B10B6745C2BA6338B4D"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="25706070"/>
+          <a:ext cx="1381125" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="ID_770A2E6E2CDF4230ABE6FD76A4FBACBD"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="26283920"/>
+          <a:ext cx="1362075" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="ID_3FD2FAE87D204CBA8FDE335CF9E25EC6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="26823035"/>
+          <a:ext cx="1333500" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="ID_D90C5F6E84744643BD98A4A53D62718D"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="27339925"/>
+          <a:ext cx="1219200" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="ID_458ED637CF4E45659D65B95FC7FFC109"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="27942540"/>
+          <a:ext cx="1095375" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="ID_374792D46A174E5A89550F8C7462AD6D"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId86"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="28820110"/>
+          <a:ext cx="1181100" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="ID_69793A4FA5C04505B39ACF810D79C1A4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId87"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="29549725"/>
+          <a:ext cx="1828800" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="ID_56278848FE184650BD8FC266E593871E"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId88"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="29876750"/>
+          <a:ext cx="1285875" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="ID_D3FC4682F9534AFDBD5A0F5AA7685D25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId89"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="30412690"/>
+          <a:ext cx="742950" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="ID_190694FD91554C249E2F72BFD5B3A95C"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId90"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="31365190"/>
+          <a:ext cx="952500" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="ID_3B0C0820FED640F280C1FEF95DE6053C"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId91"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="32022415"/>
+          <a:ext cx="1476375" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="ID_F24158B1A2A24B0F946B85570FFCA01E"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId92"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="32489140"/>
+          <a:ext cx="1019175" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="ID_F83F0793F870473194E1DD5C21327DD9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId93"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="33441640"/>
+          <a:ext cx="1314450" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="ID_8B2046934FBF43DD9DDF606E62EB51B8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId94"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="33910905"/>
+          <a:ext cx="1314450" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="ID_7C400AB5FF5248508153A05BAEB15590"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId95"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="36857940"/>
+          <a:ext cx="1019175" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="ID_A4EC05477782407EBE5FE4850F2FF09B"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId96"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="37560885"/>
+          <a:ext cx="807720" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="ID_1FF474BCD7F542E3B4C96873737C194D"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId97"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="38140005"/>
+          <a:ext cx="866775" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="ID_4CE22950848B4218B5852F3FDBB09CD0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId98"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="38873430"/>
+          <a:ext cx="981075" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="ID_59B6021A7D87460DB8E14008A1FFD8B5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId99"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="39502080"/>
+          <a:ext cx="790575" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="ID_EA02BB275DF242D091A57B157E75EFED"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId100"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="40264080"/>
+          <a:ext cx="695325" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="ID_E7BAF9679D4543DA8400E2A31177D95E"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId101"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="40968930"/>
+          <a:ext cx="1028700" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="ID_2E5D38CC78DA428FBDFECBA21FAACA8B"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId102"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="43672760"/>
+          <a:ext cx="771525" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="ID_10E910CE278B404AB7A02E0B679797DF"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId103"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="44686220"/>
+          <a:ext cx="895350" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="ID_1C1620702E1F4D2E8F22B5DE2AF2CDB2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId104"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="44503340"/>
+          <a:ext cx="866775" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="ID_748F131178774794AB6A82E13D193305"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId105"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="44320460"/>
+          <a:ext cx="752475" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="ID_986DBA3438C1441BAF9DE62354265708"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId106"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="44869100"/>
+          <a:ext cx="752475" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="ID_DADA1D4D162C45BEA35731746238B350"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId107"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="48232060"/>
+          <a:ext cx="800100" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="ID_1AFA3D03DC674D5A8778E53B7202098F"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId108"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="50205005"/>
+          <a:ext cx="781050" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="ID_FA14C601293B49BEB509E9A9593E6DEA"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId109"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="49839245"/>
+          <a:ext cx="762000" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="ID_ED4C3446C57D4EC192B4E2B201C79557"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId110"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="49656365"/>
+          <a:ext cx="838200" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="ID_2FAA249904BF4AE2AC3BF4FFD29CCB3E"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId111"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="50022125"/>
+          <a:ext cx="933450" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="ID_66F4E0059F58441EB6FE6885D049EDD6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId112"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="53685440"/>
+          <a:ext cx="1266825" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1540,7 +3280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>CAS号</t>
   </si>
@@ -1570,6 +3310,492 @@
     <t>Isoproscaline</t>
   </si>
   <si>
+    <t>61-52-9</t>
+  </si>
+  <si>
+    <t>N,N-Dipropyltryptamine</t>
+  </si>
+  <si>
+    <t>850032-72-3</t>
+  </si>
+  <si>
+    <t>N-Methyl-N-propyltryptamine</t>
+  </si>
+  <si>
+    <t>5599-69-9</t>
+  </si>
+  <si>
+    <t>N-Ethyl-N-methyltryptamine</t>
+  </si>
+  <si>
+    <t>850032-68-7</t>
+  </si>
+  <si>
+    <t>N-Ethyl-N-propyltryptamine</t>
+  </si>
+  <si>
+    <t>1445751-40-5</t>
+  </si>
+  <si>
+    <t>4-Acetoxyethylmethyltryptamine</t>
+  </si>
+  <si>
+    <t>1218-40-2</t>
+  </si>
+  <si>
+    <t>5-Methoxy-N,N-diethyltryptamine</t>
+  </si>
+  <si>
+    <t>132367-76-1</t>
+  </si>
+  <si>
+    <t>5-Iodo-2-aminoindane</t>
+  </si>
+  <si>
+    <t>5,6-benzofuranyl-2-aminoindane</t>
+  </si>
+  <si>
+    <t>205652-94-4</t>
+  </si>
+  <si>
+    <t>N-Ethyl-5-trifluoromethyl-2-aminoindane</t>
+  </si>
+  <si>
+    <t>136468-19-4</t>
+  </si>
+  <si>
+    <t>5-Methoxy-6-methyl-2-aminoindane</t>
+  </si>
+  <si>
+    <t>63916-05-2</t>
+  </si>
+  <si>
+    <t>N-phenyl-N-[1-(4-phenylpiperidin-1-yl)propan-2-yl]propanamide</t>
+  </si>
+  <si>
+    <t>N-{1-[methyl(2-phenylethyl)amino]propan-2-yl}-N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>76754-18-2</t>
+  </si>
+  <si>
+    <t>N-phenyl-N-[(1R,5S)-8-(2-phenylethyl)-8-azabicyclo[3.2.1]octan-3-yl]propanamide</t>
+  </si>
+  <si>
+    <t>344235-54-7</t>
+  </si>
+  <si>
+    <t>N-phenyl-N-[1-(2-phenylethyl)azepan-4-yl]propanamide</t>
+  </si>
+  <si>
+    <t>714190-52-0</t>
+  </si>
+  <si>
+    <t>2-[2-[(4-ethoxyphenyl)methyl]-5-nitrobenzimidazol-1-yl]-N,N-dimethylethanamine</t>
+  </si>
+  <si>
+    <t>2-[2-[(4-butan-2-yloxyphenyl)methyl]-5-nitrobenzimidazol-1-yl]-N,N-diethylethanamine</t>
+  </si>
+  <si>
+    <t>82657-23-6</t>
+  </si>
+  <si>
+    <t>3,4-dichloro-N-[(1R,2R)-2-(dimethylamino)cyclohexyl]-N-methylbenzamide</t>
+  </si>
+  <si>
+    <t>67198-13-4</t>
+  </si>
+  <si>
+    <t>2-(3,4-dichlorophenyl)-N-methyl-N-[(1R,2R)-2-pyrrolidin-1-ylcyclohexyl]acetamide</t>
+  </si>
+  <si>
+    <t>96744-75-1</t>
+  </si>
+  <si>
+    <t>N-methyl-2-phenyl-N-[(5R,7S,8S)-7-(pyrrolidin-1-yl)-1-oxaspiro[4.5]dec-8-yl]acetamide</t>
+  </si>
+  <si>
+    <t>87151-85-7</t>
+  </si>
+  <si>
+    <t>2-(3,4-Dichlorophenyl)-N-methyl-N-[(5R,7S,8S)-7-pyrrolidin-1-yl-1-oxaspiro[4.5]decan-8-yl] acetamide</t>
+  </si>
+  <si>
+    <t>124378-77-4</t>
+  </si>
+  <si>
+    <t>2-(1-Benzofuran-4-yl)-N-methyl-N-[(5R,7S,8S)-7-pyrrolidin-1-yl-1-oxaspiro[4.5]decan-8-yl]acetamide</t>
+  </si>
+  <si>
+    <t>119878-31-8</t>
+  </si>
+  <si>
+    <t>3,4-Dibromo-N-methyl-N-[(5S,6R)-1-methyl-1-azaspiro[4.5]decan-6-yl]benzamide</t>
+  </si>
+  <si>
+    <t>492451-07-7</t>
+  </si>
+  <si>
+    <t>2-(3,4-dichlorophenyl)-N-[(2S)-1-(2,5-dihydropyrrol-1-yl)-3-methylbutan-2-yl]-N-methylacetamide</t>
+  </si>
+  <si>
+    <t>2370977-17-4</t>
+  </si>
+  <si>
+    <t>2-(2,4-dichlorophenyl)-N-[(1S,2S)-2-(dimethylamino)cyclohexyl]-N-methylacetamide</t>
+  </si>
+  <si>
+    <t>2488874-96-8</t>
+  </si>
+  <si>
+    <t>N-[(1R,2R)-2-(dimethylamino)cyclohexyl]-N-methyl-1,3-benzodioxole-5-carboxamide</t>
+  </si>
+  <si>
+    <t>1441000-45-8</t>
+  </si>
+  <si>
+    <t>Opiranserin</t>
+  </si>
+  <si>
+    <t>1401029-50-2</t>
+  </si>
+  <si>
+    <t>N-[(5-fluoropyridin-3-yl)methyl]-2-[(9R)-9-pyridin-2-yl-6-oxaspiro[4.5]decan-9-yl]ethanamine</t>
+  </si>
+  <si>
+    <t>2095345-71-2</t>
+  </si>
+  <si>
+    <t>(1'S)-N-[2-[(9R)-9-pyridin-2-yl-6-oxaspiro[4.5]decan-9-yl]ethyl]spiro[1,3-dithiolane-2,4'-2,3-dihydro-1H-naphthalene]-1'-amine</t>
+  </si>
+  <si>
+    <t>(1R,2R)-2-methoxy-N-[2-[(9R)-9-pyridin-2-yl-6-oxaspiro[4.5]decan-9-yl]ethyl]-2,3-dihydro-1H-inden-1-amine</t>
+  </si>
+  <si>
+    <t>[(3-chlorophenyl)methyl]({2-[(5S,9R)-9-(5-fluoropyridin-2-yl)-2,6-dioxaspiro[4.5]decan-9-yl]ethyl})amine</t>
+  </si>
+  <si>
+    <t>(αR,5α,7α)-4,5-epoxy-3-hydroxy-6-methoxy-α,17-dimethyl-α-(2-phenylethyl)-6,14-ethenomorphine Pran-7-methanol</t>
+  </si>
+  <si>
+    <t>1374406-56-0</t>
+  </si>
+  <si>
+    <t>7α-[(R)-1-hydroxy-1-methyl-3-(thiophen-3-yl)-propyl]-6,14-endo-ethanotetrahydrooripavine</t>
+  </si>
+  <si>
+    <t>131575-03-6</t>
+  </si>
+  <si>
+    <t>3-Hydroxy-14-methoxy-5,17-dimethyl-7,8-dihydro-4,5α-epoxy-morphinan-6-one</t>
+  </si>
+  <si>
+    <t>3-Hydroxy-14-(3-phenylpropoxy)-5-methyl-7,8-dihydro-4,5α-epoxy-17-methylmorphinan-6-one</t>
+  </si>
+  <si>
+    <t>751-01-9</t>
+  </si>
+  <si>
+    <t>7,8-didehydro-4,5α-epoxy-14-cinnamoyl-3-methoxy-17-methylmorphinan-6-one</t>
+  </si>
+  <si>
+    <t>4778-96-5</t>
+  </si>
+  <si>
+    <t>3,6,14-trihydroxy-4,5α-epoxy-17-(2-phenylethyl)morphinan</t>
+  </si>
+  <si>
+    <t>722450-07-9</t>
+  </si>
+  <si>
+    <t>3-hydroxy-4,5α-epoxy-17-(2-phenylethyl)morphinan</t>
+  </si>
+  <si>
+    <t>27767-85-7</t>
+  </si>
+  <si>
+    <t>17-(2-(Furan-2-yl)ethyl)-3-hydroxymorphinan</t>
+  </si>
+  <si>
+    <t>62509-10-8</t>
+  </si>
+  <si>
+    <t>(4R,4aS,7aR,12bS)-4a,9-dihydroxy-3-([(R)-tetrahydrofuran-2-yl]methyl)-2,3,4,4a,5,6-hexahydro-1H-4,12-methanobenzofuro[3,2-e]isoquinolin-7(7aH)one</t>
+  </si>
+  <si>
+    <t>3222-88-6</t>
+  </si>
+  <si>
+    <t>8-[1-(4-chlorophenyl)ethyl]-1-phenyl-1,3,8-triazaspiro[4.5]decan-4-one</t>
+  </si>
+  <si>
+    <t>863513-91-1</t>
+  </si>
+  <si>
+    <t>(1r,4r)-6'-Fluoro-N,N-dimethyl-4-phenyl-4',9'-dihydro-3'H-spiro[cyclohexane-1,1'-pyrano[3,4-b]indol]-4-amine</t>
+  </si>
+  <si>
+    <t>1997387-43-5</t>
+  </si>
+  <si>
+    <t>1-[(2S)-2-(Dimethylamino)-3-(4-hydroxyphenyl)propyl]-3-[(2S)-1-(thiophen-3-yl)propan-2-yl]urea</t>
+  </si>
+  <si>
+    <t>127093-63-4</t>
+  </si>
+  <si>
+    <t>(5S)-5-[(1S)-2-[bis[(2R)-butan-2-yl]amino]-1-hydroxyethyl]-1-(2-chlorobenzyl)pyrrolidin-2-one</t>
+  </si>
+  <si>
+    <t>1849034-34-9</t>
+  </si>
+  <si>
+    <t>N-[[1-[[(5S)-5-hydroxy-5,6,7,8-tetrahydronaphthalen-2-yl]methyl]piperidin-2-yl]methyl]-N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>54160-31-5</t>
+  </si>
+  <si>
+    <t>1-[4,4-Di(thiophen-2-yl)but-3-en-2-yl]piperidine</t>
+  </si>
+  <si>
+    <t>2244737-98-0</t>
+  </si>
+  <si>
+    <t>3-{1-[1-(4-bromophenyl)ethyl]piperidin-4-yl}-1H-benzimidazol-2-one</t>
+  </si>
+  <si>
+    <t>616898-54-5</t>
+  </si>
+  <si>
+    <t>trans-4-(p-Bromophenyl)-4-(dimethylamino)-1-(2-(thiophen-2-yl)ethyl)cyclohexanol</t>
+  </si>
+  <si>
+    <t>448-34-0</t>
+  </si>
+  <si>
+    <t>1-(3-((E)-3-Phenylprop-2-enyl)-3,8-diazabicyclo[3.2.1]octan-8-yl)propan-1-one</t>
+  </si>
+  <si>
+    <t>140924-11-4</t>
+  </si>
+  <si>
+    <t>1-[(2R,6S)-2,6-dimethyl-4-[(E)-3-phenylprop-2-enyl]piperazin-1-yl]propan-1-one</t>
+  </si>
+  <si>
+    <t>469-80-7</t>
+  </si>
+  <si>
+    <t>Pheneridine</t>
+  </si>
+  <si>
+    <t>258500-87-7</t>
+  </si>
+  <si>
+    <t>ethyl 4-(4-fluorophenyl)-1-methylpiperidine-4-carboxylate</t>
+  </si>
+  <si>
+    <t>878895-45-5</t>
+  </si>
+  <si>
+    <t>[3-(4-acetyl-1-methylpiperidin-4-yl)phenyl] acetate</t>
+  </si>
+  <si>
+    <t>64058-44-2</t>
+  </si>
+  <si>
+    <t>1-[4-(3-hydroxyphenyl)-1-methylpiperidin-4-yl]ethanone</t>
+  </si>
+  <si>
+    <t>428-37-5</t>
+  </si>
+  <si>
+    <t>3-(1-methyl-3-propyl-pyrrolidin-3-yl)phenol</t>
+  </si>
+  <si>
+    <t>65619-06-9</t>
+  </si>
+  <si>
+    <t>4-(Dimethylamino)-4-(4-methylphenyl)cyclohexan-1-one</t>
+  </si>
+  <si>
+    <t>433265-65-7</t>
+  </si>
+  <si>
+    <t>3-[(1R,2R)-2-dimethylaminomethylcyclohexyl]phenol</t>
+  </si>
+  <si>
+    <t>63269-31-8</t>
+  </si>
+  <si>
+    <t>3-{(R)-Dimethylamino-[(1R,2R)-2-hydroxycyclohexyl]}methyl]phenol</t>
+  </si>
+  <si>
+    <t>23036-19-3</t>
+  </si>
+  <si>
+    <t>1-(1-Phenylcyclopentyl)piperidine</t>
+  </si>
+  <si>
+    <t>1622348-63-3</t>
+  </si>
+  <si>
+    <t>1-[1-(3-methylphenyl)cyclohexyl]pyrrolidine</t>
+  </si>
+  <si>
+    <t>2201-30-1</t>
+  </si>
+  <si>
+    <t>1-[1-(3-methylphenyl)cyclohexyl]piperidine</t>
+  </si>
+  <si>
+    <t>89156-99-0</t>
+  </si>
+  <si>
+    <t>1-[1-(3-fluorophenyl)cyclohexyl]piperidine</t>
+  </si>
+  <si>
+    <t>2201-32-3</t>
+  </si>
+  <si>
+    <t>1-[1-(3-chlorophenyl)cyclohexyl]piperidine</t>
+  </si>
+  <si>
+    <t>3034185-93-5</t>
+  </si>
+  <si>
+    <t>1-[1-(1,3-benzodioxol-5-yl)cyclohexyl]piperidine</t>
+  </si>
+  <si>
+    <t>65620-13-5</t>
+  </si>
+  <si>
+    <t>4-phenyl-4-piperidin-1-ylcyclohexan-1-one</t>
+  </si>
+  <si>
+    <t>2201-40-3</t>
+  </si>
+  <si>
+    <t>4-(1-Phenylcyclohexyl)morpholine</t>
+  </si>
+  <si>
+    <t>1364933-80-1</t>
+  </si>
+  <si>
+    <t>N-Ethyl-1-(3-methoxyphenyl)cyclohexanamine</t>
+  </si>
+  <si>
+    <t>18949-81-0</t>
+  </si>
+  <si>
+    <t>1-phenyl-N-propylcyclohexanamine</t>
+  </si>
+  <si>
+    <t>1782148-51-9</t>
+  </si>
+  <si>
+    <t>Methoxmetamine</t>
+  </si>
+  <si>
+    <t>2504100-71-2</t>
+  </si>
+  <si>
+    <t>2-(3-Methoxyphenyl)-2-(propylamino)cyclohexanone</t>
+  </si>
+  <si>
+    <t>7063-51-6</t>
+  </si>
+  <si>
+    <t>2-(2-Methoxyphenyl)-2-(methylamino)cyclohexanone</t>
+  </si>
+  <si>
+    <t>2657761-23-2</t>
+  </si>
+  <si>
+    <t>2-(3-Fluorophenyl)-2-methylamino-cyclohexanone</t>
+  </si>
+  <si>
+    <t>1782149-73-8</t>
+  </si>
+  <si>
+    <t>2-(methylamino)-2-[2-(trifluoromethyl)phenyl]cyclohexan-1-one</t>
+  </si>
+  <si>
+    <t>2666932-55-2</t>
+  </si>
+  <si>
+    <t>Methoxisopropamine</t>
+  </si>
+  <si>
+    <t>2-(2-bromophenyl)-2-(ethylamino)cyclohexan-1-one</t>
+  </si>
+  <si>
+    <t>1450615-41-4</t>
+  </si>
+  <si>
+    <t>Methyl 4-{[1-(2-chlorophenyl)-2-oxocyclohexyl]amino}pentanoate</t>
+  </si>
+  <si>
+    <t>[1-(2-methoxyphenyl)-2-phenylethyl]dimethylamine</t>
+  </si>
+  <si>
+    <t>2149042-90-8</t>
+  </si>
+  <si>
+    <t>1-(1-(2-Fluorophenyl)-2-phenylethyl)pyrrolidine</t>
+  </si>
+  <si>
+    <t>1,2-diphenyl-N-(2-phenylethyl)ethanamine</t>
+  </si>
+  <si>
+    <t>60951-19-1</t>
+  </si>
+  <si>
+    <t>Ephenidine</t>
+  </si>
+  <si>
+    <t>64857-61-0</t>
+  </si>
+  <si>
+    <t>N,N-diethyl-1,2-diphenylethanamine</t>
+  </si>
+  <si>
+    <t>1350821-28-1</t>
+  </si>
+  <si>
+    <t>2-(1,3-benzodioxol-5-yl)-N-methyl-1-phenylethanamine</t>
+  </si>
+  <si>
+    <t>61311-01-1</t>
+  </si>
+  <si>
+    <t>1-(3-Methyl-2-butenyl)-4-[(1R)-1-phenyl-2-(3-hydroxyphenyl)ethyl]piperazine</t>
+  </si>
+  <si>
+    <t>83374-54-3</t>
+  </si>
+  <si>
+    <t>3-[2-[4-(2-methoxyphenyl)piperazin-1-yl]-2-phenylethyl]phenol</t>
+  </si>
+  <si>
+    <t>22312-16-9</t>
+  </si>
+  <si>
+    <t>2-(ethylamino)-1,2-diphenylethanone</t>
+  </si>
+  <si>
+    <t>27590-61-0</t>
+  </si>
+  <si>
+    <t>1,2-diphenyl-2-(1-pyrrolidinyl)ethanone</t>
+  </si>
+  <si>
+    <t>1-(2H-1,3-benzodioxol-5-yl)-2-(methylamino)-2-phenylethan-1-one</t>
+  </si>
+  <si>
+    <t>1-(2H-1,3-benzodioxol-5-yl)-2-phenyl-2-(pyrrolidin-1-yl)ethan-1-one</t>
+  </si>
+  <si>
     <t>21867-69-6</t>
   </si>
   <si>
@@ -1621,127 +3847,58 @@
     <t>5,6-Methylenedioxy-2-methylaminoindan</t>
   </si>
   <si>
-    <t>132367-76-1</t>
-  </si>
-  <si>
-    <t>5-Iodo-2-aminoindane</t>
-  </si>
-  <si>
-    <t>5,6-benzofuranyl-2-aminoindane</t>
-  </si>
-  <si>
-    <t>205652-94-4</t>
-  </si>
-  <si>
-    <t>N-Ethyl-5-trifluoromethyl-2-aminoindane</t>
-  </si>
-  <si>
-    <t>136468-19-4</t>
-  </si>
-  <si>
-    <t>5-Methoxy-6-methyl-2-aminoindane</t>
-  </si>
-  <si>
-    <t>[1-(2-methoxyphenyl)-2-phenylethyl]dimethylamine</t>
-  </si>
-  <si>
-    <t>1,2-diphenyl-N-(2-phenylethyl)ethanamine</t>
-  </si>
-  <si>
-    <t>60951-19-1</t>
-  </si>
-  <si>
-    <t>Ephenidine</t>
-  </si>
-  <si>
-    <t>64857-61-0</t>
-  </si>
-  <si>
-    <t>N,N-diethyl-1,2-diphenylethanamine</t>
-  </si>
-  <si>
-    <t>1-(3-Methyl-2-butenyl)-4-[(1R)-1-phenyl-2-(3-hydroxyphenyl)ethyl]piperazine</t>
-  </si>
-  <si>
-    <t>3-[2-[4-(2-methoxyphenyl)piperazin-1-yl]-2-phenylethyl]phenol</t>
-  </si>
-  <si>
-    <t>469-80-7</t>
-  </si>
-  <si>
-    <t>Pheneridine</t>
-  </si>
-  <si>
-    <t>63916-05-2</t>
-  </si>
-  <si>
-    <t>N-phenyl-N-[1-(4-phenylpiperidin-1-yl)propan-2-yl]propanamide</t>
-  </si>
-  <si>
-    <t>N-{1-[methyl(2-phenylethyl)amino]propan-2-yl}-N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>714190-52-0</t>
-  </si>
-  <si>
-    <t>2-[2-[(4-ethoxyphenyl)methyl]-5-nitrobenzimidazol-1-yl]-N,N-dimethylethanamine</t>
-  </si>
-  <si>
-    <t>2-[2-[(4-butan-2-yloxyphenyl)methyl]-5-nitrobenzimidazol-1-yl]-N,N-diethylethanamine</t>
-  </si>
-  <si>
-    <t>82657-23-6</t>
-  </si>
-  <si>
-    <t>3,4-dichloro-N-[(1R,2R)-2-(dimethylamino)cyclohexyl]-N-methylbenzamide</t>
-  </si>
-  <si>
-    <t>67198-13-4</t>
-  </si>
-  <si>
-    <t>2-(3,4-dichlorophenyl)-N-methyl-N-[(1R,2R)-2-pyrrolidin-1-ylcyclohexyl]acetamide</t>
-  </si>
-  <si>
-    <t>87151-85-7</t>
-  </si>
-  <si>
-    <t>2-(3,4-Dichlorophenyl)-N-methyl-N-[(5R,7S,8S)-7-pyrrolidin-1-yl-1-oxaspiro[4.5]decan-8-yl] acetamide</t>
-  </si>
-  <si>
-    <t>96744-75-1</t>
-  </si>
-  <si>
-    <t>N-methyl-2-phenyl-N-[(5R,7S,8S)-7-(pyrrolidin-1-yl)-1-oxaspiro[4.5]dec-8-yl]acetamide</t>
-  </si>
-  <si>
-    <t>119878-31-8</t>
-  </si>
-  <si>
-    <t>3,4-Dibromo-N-methyl-N-[(5S,6R)-1-methyl-1-azaspiro[4.5]decan-6-yl]benzamide</t>
-  </si>
-  <si>
-    <t>492451-07-7</t>
-  </si>
-  <si>
-    <t>2-(3,4-dichlorophenyl)-N-[(2S)-1-(2,5-dihydropyrrol-1-yl)-3-methylbutan-2-yl]-N-methylacetamide</t>
-  </si>
-  <si>
-    <t>2370977-17-4</t>
-  </si>
-  <si>
-    <t>2-(2,4-dichlorophenyl)-N-[(1S,2S)-2-(dimethylamino)cyclohexyl]-N-methylacetamide</t>
-  </si>
-  <si>
-    <t>2488874-96-8</t>
-  </si>
-  <si>
-    <t>N-[(1R,2R)-2-(dimethylamino)cyclohexyl]-N-methyl-1,3-benzodioxole-5-carboxamide</t>
-  </si>
-  <si>
-    <t>1441000-45-8</t>
-  </si>
-  <si>
-    <t>Opiranserin</t>
+    <t>135795-90-3</t>
+  </si>
+  <si>
+    <t>1-(1,3-Benzodioxol-5-yl)-N-methylbutan-2-amine</t>
+  </si>
+  <si>
+    <t>749191-14-8</t>
+  </si>
+  <si>
+    <t>1-(7-methyl-1,3-benzodioxol-5-yl)propan-2-amine</t>
+  </si>
+  <si>
+    <t>1157947-89-1</t>
+  </si>
+  <si>
+    <t>1-(1,3-benzodioxol-5-yl)-4-methyl-2-(methylamino)pentan-1-one</t>
+  </si>
+  <si>
+    <t>1364933-82-3</t>
+  </si>
+  <si>
+    <t>2-(Ethylamino)-1-(7-methy-1,3-benzodioxol-5-yl)ethan-1-one</t>
+  </si>
+  <si>
+    <t>746541-09-3</t>
+  </si>
+  <si>
+    <t>1-(1,3-benzodioxol-5-yl)-2-pyrrolidin-1-ylheptan-1-one</t>
+  </si>
+  <si>
+    <t>749145-17-3</t>
+  </si>
+  <si>
+    <t>1-(1,3-benzodioxol-5-yl)-4-methyl-2-pyrrolidin-1-ylpentan-1-one</t>
+  </si>
+  <si>
+    <t>93148-46-0</t>
+  </si>
+  <si>
+    <t>Propan-2-yl 2-phenyl-2-piperidin-2-ylacetate</t>
+  </si>
+  <si>
+    <t>1354631-33-6</t>
+  </si>
+  <si>
+    <t>methyl 2-(4-fluorophenyl)-2-piperidin-2-ylacetate</t>
+  </si>
+  <si>
+    <t>22348-34-9</t>
+  </si>
+  <si>
+    <t>Diphenylprolinol</t>
   </si>
   <si>
     <t>1097796-78-5</t>
@@ -1750,45 +3907,6 @@
     <t>3-Chlorophenmetrazine</t>
   </si>
   <si>
-    <t>23036-19-3</t>
-  </si>
-  <si>
-    <t>1-(1-Phenylcyclopentyl)piperidine</t>
-  </si>
-  <si>
-    <t>2201-40-3</t>
-  </si>
-  <si>
-    <t>4-(1-Phenylcyclohexyl)morpholine</t>
-  </si>
-  <si>
-    <t>1622348-63-3</t>
-  </si>
-  <si>
-    <t>1-[1-(3-methylphenyl)cyclohexyl]pyrrolidine</t>
-  </si>
-  <si>
-    <t>1364933-80-1</t>
-  </si>
-  <si>
-    <t>N-Ethyl-1-(3-methoxyphenyl)cyclohexanamine</t>
-  </si>
-  <si>
-    <t>1782148-51-9</t>
-  </si>
-  <si>
-    <t>Methoxmetamine</t>
-  </si>
-  <si>
-    <t>2666932-55-2</t>
-  </si>
-  <si>
-    <t>Methoxisopropamine</t>
-  </si>
-  <si>
-    <t>2-(2-bromophenyl)-2-(ethylamino)cyclohexan-1-one</t>
-  </si>
-  <si>
     <t>4260-20-2</t>
   </si>
   <si>
@@ -1796,36 +3914,6 @@
   </si>
   <si>
     <t>3-(2-chlorophenyl)-2-phenylquinazolin-4(3H)-one</t>
-  </si>
-  <si>
-    <t>93148-46-0</t>
-  </si>
-  <si>
-    <t>Propan-2-yl 2-phenyl-2-piperidin-2-ylacetate</t>
-  </si>
-  <si>
-    <t>1354631-33-6</t>
-  </si>
-  <si>
-    <t>methyl 2-(4-fluorophenyl)-2-piperidin-2-ylacetate</t>
-  </si>
-  <si>
-    <t>61-52-9</t>
-  </si>
-  <si>
-    <t>N,N-Dipropyltryptamine</t>
-  </si>
-  <si>
-    <t>1445751-40-5</t>
-  </si>
-  <si>
-    <t>4-Acetoxyethylmethyltryptamine</t>
-  </si>
-  <si>
-    <t>1218-40-2</t>
-  </si>
-  <si>
-    <t>5-Methoxy-N,N-diethyltryptamine</t>
   </si>
   <si>
     <t>2243815-18-9</t>
@@ -2445,7 +4533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2454,6 +4542,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2991,12 +5085,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -3053,568 +5147,1325 @@
         <v>=DISPIMG("ID_782B6C025B7D4844A0081FFB1342521E",1)</v>
       </c>
     </row>
-    <row r="5" ht="24.3" spans="1:3">
-      <c r="A5" t="s">
+    <row r="6" ht="68.45" spans="1:3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C6" t="str">
+        <f>_xlfn.DISPIMG("ID_EB424C29CAAE4E87BC5F32F39D2E59C5",1)</f>
+        <v>=DISPIMG("ID_EB424C29CAAE4E87BC5F32F39D2E59C5",1)</v>
+      </c>
+    </row>
+    <row r="7" ht="72.9" spans="1:3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="str">
+        <f>_xlfn.DISPIMG("ID_C6102E0477F04118AC89A0C1E21EA7D5",1)</f>
+        <v>=DISPIMG("ID_C6102E0477F04118AC89A0C1E21EA7D5",1)</v>
+      </c>
+    </row>
+    <row r="8" ht="64.95" spans="1:3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.DISPIMG("ID_2278C36EBF964F2BBB1C381DA8A1D14E",1)</f>
+        <v>=DISPIMG("ID_2278C36EBF964F2BBB1C381DA8A1D14E",1)</v>
+      </c>
+    </row>
+    <row r="9" ht="75" spans="1:3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.DISPIMG("ID_A1695CA7E80543268231E73B274C83DF",1)</f>
+        <v>=DISPIMG("ID_A1695CA7E80543268231E73B274C83DF",1)</v>
+      </c>
+    </row>
+    <row r="10" ht="60.65" spans="1:3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.DISPIMG("ID_0C6F5EF6A2C742B7BD82DE5C1158B3F9",1)</f>
+        <v>=DISPIMG("ID_0C6F5EF6A2C742B7BD82DE5C1158B3F9",1)</v>
+      </c>
+    </row>
+    <row r="11" ht="57.45" spans="1:3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.DISPIMG("ID_3F05F1EA15C94DF0887F94E4B848FA04",1)</f>
+        <v>=DISPIMG("ID_3F05F1EA15C94DF0887F94E4B848FA04",1)</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="str">
+        <f>_xlfn.DISPIMG("ID_FB9BF2C126EC4735922341E9B7FC32D3",1)</f>
+        <v>=DISPIMG("ID_FB9BF2C126EC4735922341E9B7FC32D3",1)</v>
+      </c>
+    </row>
+    <row r="14" ht="22.55" spans="2:3">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="str">
+        <f>_xlfn.DISPIMG("ID_651E18D8D7794B2082298D11DA089F86",1)</f>
+        <v>=DISPIMG("ID_651E18D8D7794B2082298D11DA089F86",1)</v>
+      </c>
+    </row>
+    <row r="15" ht="32.65" spans="1:3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="str">
+        <f>_xlfn.DISPIMG("ID_3B2421D9C20A425CABFF5AAC7C485475",1)</f>
+        <v>=DISPIMG("ID_3B2421D9C20A425CABFF5AAC7C485475",1)</v>
+      </c>
+    </row>
+    <row r="16" ht="33.25" spans="1:3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="str">
+        <f>_xlfn.DISPIMG("ID_8A91BCA10E264186850B7542A5E12CB6",1)</f>
+        <v>=DISPIMG("ID_8A91BCA10E264186850B7542A5E12CB6",1)</v>
+      </c>
+    </row>
+    <row r="18" ht="43.9" spans="1:3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="str">
+        <f>_xlfn.DISPIMG("ID_829524599EDF4C97BB743BE263401099",1)</f>
+        <v>=DISPIMG("ID_829524599EDF4C97BB743BE263401099",1)</v>
+      </c>
+    </row>
+    <row r="19" ht="36.95" spans="2:3">
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="str">
+        <f>_xlfn.DISPIMG("ID_EAA5ED30BB904DF7ADD283F1072EEB2E",1)</f>
+        <v>=DISPIMG("ID_EAA5ED30BB904DF7ADD283F1072EEB2E",1)</v>
+      </c>
+    </row>
+    <row r="20" ht="34" spans="1:3">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="str">
+        <f>_xlfn.DISPIMG("ID_94DF3013D80E49B088588A1885D59B8C",1)</f>
+        <v>=DISPIMG("ID_94DF3013D80E49B088588A1885D59B8C",1)</v>
+      </c>
+    </row>
+    <row r="21" ht="40.5" spans="1:3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="str">
+        <f>_xlfn.DISPIMG("ID_65A470F6201841E4AC6EB3E439B3DE8F",1)</f>
+        <v>=DISPIMG("ID_65A470F6201841E4AC6EB3E439B3DE8F",1)</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" ht="53.2" spans="1:3">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="str">
+        <f>_xlfn.DISPIMG("ID_6AF9D00EF54847F295D2769F73F03CD9",1)</f>
+        <v>=DISPIMG("ID_6AF9D00EF54847F295D2769F73F03CD9",1)</v>
+      </c>
+    </row>
+    <row r="24" ht="57" spans="2:3">
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="str">
+        <f>_xlfn.DISPIMG("ID_17547F0031534D04B8D257F624649E7F",1)</f>
+        <v>=DISPIMG("ID_17547F0031534D04B8D257F624649E7F",1)</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" ht="43.5" spans="1:3">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="str">
+        <f>_xlfn.DISPIMG("ID_B8CBBEF57B76493EB65CFF82F5AA27E0",1)</f>
+        <v>=DISPIMG("ID_B8CBBEF57B76493EB65CFF82F5AA27E0",1)</v>
+      </c>
+    </row>
+    <row r="27" ht="43.2" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="str">
+        <f>_xlfn.DISPIMG("ID_AE4897C440B346B5A29B850EE7A20C60",1)</f>
+        <v>=DISPIMG("ID_AE4897C440B346B5A29B850EE7A20C60",1)</v>
+      </c>
+    </row>
+    <row r="28" ht="48.45" spans="1:3">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="str">
+        <f>_xlfn.DISPIMG("ID_0AB699CC6C87423D8171BBB9F8C68688",1)</f>
+        <v>=DISPIMG("ID_0AB699CC6C87423D8171BBB9F8C68688",1)</v>
+      </c>
+    </row>
+    <row r="29" ht="43.2" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="str">
+        <f>_xlfn.DISPIMG("ID_EBF762B7B69E4E2FA4DF25B0418D0B0F",1)</f>
+        <v>=DISPIMG("ID_EBF762B7B69E4E2FA4DF25B0418D0B0F",1)</v>
+      </c>
+    </row>
+    <row r="30" ht="51.75" spans="1:3">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="str">
+        <f>_xlfn.DISPIMG("ID_AA2DFB748661451D94459913926AEF0F",1)</f>
+        <v>=DISPIMG("ID_AA2DFB748661451D94459913926AEF0F",1)</v>
+      </c>
+    </row>
+    <row r="31" ht="43.2" spans="1:3">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="str">
+        <f>_xlfn.DISPIMG("ID_865B280A48D644FE8A8BA40EF8B33FFC",1)</f>
+        <v>=DISPIMG("ID_865B280A48D644FE8A8BA40EF8B33FFC",1)</v>
+      </c>
+    </row>
+    <row r="32" ht="43.2" spans="1:3">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="str">
+        <f>_xlfn.DISPIMG("ID_A0309D59FCD14CA7B1A937D92D96DDF3",1)</f>
+        <v>=DISPIMG("ID_A0309D59FCD14CA7B1A937D92D96DDF3",1)</v>
+      </c>
+    </row>
+    <row r="33" ht="43.2" spans="1:3">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="str">
+        <f>_xlfn.DISPIMG("ID_4139FBDDD6F44DA29F4386D273AC1204",1)</f>
+        <v>=DISPIMG("ID_4139FBDDD6F44DA29F4386D273AC1204",1)</v>
+      </c>
+    </row>
+    <row r="34" ht="34.1" spans="1:3">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="str">
+        <f>_xlfn.DISPIMG("ID_DEC7CB250DC945BB8CBD3D2B62BC1EB0",1)</f>
+        <v>=DISPIMG("ID_DEC7CB250DC945BB8CBD3D2B62BC1EB0",1)</v>
+      </c>
+    </row>
+    <row r="35" ht="33.6" spans="1:3">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="str">
+        <f>_xlfn.DISPIMG("ID_FF9382D66A284D3B9BD80508F7541C11",1)</f>
+        <v>=DISPIMG("ID_FF9382D66A284D3B9BD80508F7541C11",1)</v>
+      </c>
+    </row>
+    <row r="37" ht="43.2" spans="1:3">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="str">
+        <f>_xlfn.DISPIMG("ID_D94F0DB8909647DBBB28EDAE3EB72332",1)</f>
+        <v>=DISPIMG("ID_D94F0DB8909647DBBB28EDAE3EB72332",1)</v>
+      </c>
+    </row>
+    <row r="38" ht="57.6" spans="1:3">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="str">
+        <f>_xlfn.DISPIMG("ID_34C819E688AB46B5B2B487DE9F0621D0",1)</f>
+        <v>=DISPIMG("ID_34C819E688AB46B5B2B487DE9F0621D0",1)</v>
+      </c>
+    </row>
+    <row r="39" ht="43.2" spans="2:3">
+      <c r="B39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="str">
+        <f>_xlfn.DISPIMG("ID_D115C62B28AC4266B6AA082857E52062",1)</f>
+        <v>=DISPIMG("ID_D115C62B28AC4266B6AA082857E52062",1)</v>
+      </c>
+    </row>
+    <row r="40" ht="59.25" spans="2:3">
+      <c r="B40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="str">
+        <f>_xlfn.DISPIMG("ID_9F30B13D3A0F4130AE0F116CFE693F95",1)</f>
+        <v>=DISPIMG("ID_9F30B13D3A0F4130AE0F116CFE693F95",1)</v>
+      </c>
+    </row>
+    <row r="42" ht="82.8" spans="2:3">
+      <c r="B42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="str">
+        <f>_xlfn.DISPIMG("ID_D643DEC9553641DDB7B4FB80E6DFF700",1)</f>
+        <v>=DISPIMG("ID_D643DEC9553641DDB7B4FB80E6DFF700",1)</v>
+      </c>
+    </row>
+    <row r="43" ht="85" spans="1:3">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="str">
+        <f>_xlfn.DISPIMG("ID_24EEA67180314072B6CC844BA90CC7EE",1)</f>
+        <v>=DISPIMG("ID_24EEA67180314072B6CC844BA90CC7EE",1)</v>
+      </c>
+    </row>
+    <row r="44" ht="62" spans="1:3">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="str">
+        <f>_xlfn.DISPIMG("ID_41DC15838E2D4A6CBD30E6E99CA7C6F0",1)</f>
+        <v>=DISPIMG("ID_41DC15838E2D4A6CBD30E6E99CA7C6F0",1)</v>
+      </c>
+    </row>
+    <row r="45" ht="65.45" spans="2:3">
+      <c r="B45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="str">
+        <f>_xlfn.DISPIMG("ID_7667A57E86454C8882052BC191914E1B",1)</f>
+        <v>=DISPIMG("ID_7667A57E86454C8882052BC191914E1B",1)</v>
+      </c>
+    </row>
+    <row r="46" ht="75" spans="1:3">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="str">
+        <f>_xlfn.DISPIMG("ID_016B945204454020A160E6BC45103344",1)</f>
+        <v>=DISPIMG("ID_016B945204454020A160E6BC45103344",1)</v>
+      </c>
+    </row>
+    <row r="47" ht="45.5" spans="1:3">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="str">
+        <f>_xlfn.DISPIMG("ID_3990C40384384B10B6745C2BA6338B4D",1)</f>
+        <v>=DISPIMG("ID_3990C40384384B10B6745C2BA6338B4D",1)</v>
+      </c>
+    </row>
+    <row r="48" ht="43.25" spans="1:3">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" t="str">
+        <f>_xlfn.DISPIMG("ID_770A2E6E2CDF4230ABE6FD76A4FBACBD",1)</f>
+        <v>=DISPIMG("ID_770A2E6E2CDF4230ABE6FD76A4FBACBD",1)</v>
+      </c>
+    </row>
+    <row r="49" ht="41.5" spans="1:3">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="str">
+        <f>_xlfn.DISPIMG("ID_3FD2FAE87D204CBA8FDE335CF9E25EC6",1)</f>
+        <v>=DISPIMG("ID_3FD2FAE87D204CBA8FDE335CF9E25EC6",1)</v>
+      </c>
+    </row>
+    <row r="50" ht="72" spans="1:3">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" t="str">
+        <f>_xlfn.DISPIMG("ID_D90C5F6E84744643BD98A4A53D62718D",1)</f>
+        <v>=DISPIMG("ID_D90C5F6E84744643BD98A4A53D62718D",1)</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" ht="69.1" spans="1:3">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" t="str">
+        <f>_xlfn.DISPIMG("ID_458ED637CF4E45659D65B95FC7FFC109",1)</f>
+        <v>=DISPIMG("ID_458ED637CF4E45659D65B95FC7FFC109",1)</v>
+      </c>
+    </row>
+    <row r="53" ht="57.45" spans="1:3">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" t="str">
+        <f>_xlfn.DISPIMG("ID_374792D46A174E5A89550F8C7462AD6D",1)</f>
+        <v>=DISPIMG("ID_374792D46A174E5A89550F8C7462AD6D",1)</v>
+      </c>
+    </row>
+    <row r="54" ht="43.2" spans="1:3">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" t="str">
+        <f>_xlfn.DISPIMG("ID_69793A4FA5C04505B39ACF810D79C1A4",1)</f>
+        <v>=DISPIMG("ID_69793A4FA5C04505B39ACF810D79C1A4",1)</v>
+      </c>
+    </row>
+    <row r="55" ht="43.2" spans="1:3">
+      <c r="A55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" t="str">
+        <f>_xlfn.DISPIMG("ID_56278848FE184650BD8FC266E593871E",1)</f>
+        <v>=DISPIMG("ID_56278848FE184650BD8FC266E593871E",1)</v>
+      </c>
+    </row>
+    <row r="56" ht="75" spans="1:3">
+      <c r="A56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" t="str">
+        <f>_xlfn.DISPIMG("ID_D3FC4682F9534AFDBD5A0F5AA7685D25",1)</f>
+        <v>=DISPIMG("ID_D3FC4682F9534AFDBD5A0F5AA7685D25",1)</v>
+      </c>
+    </row>
+    <row r="57" ht="51.75" spans="1:3">
+      <c r="A57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="str">
+        <f>_xlfn.DISPIMG("ID_190694FD91554C249E2F72BFD5B3A95C",1)</f>
+        <v>=DISPIMG("ID_190694FD91554C249E2F72BFD5B3A95C",1)</v>
+      </c>
+    </row>
+    <row r="58" ht="36.75" spans="1:3">
+      <c r="A58" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" t="str">
+        <f>_xlfn.DISPIMG("ID_3B0C0820FED640F280C1FEF95DE6053C",1)</f>
+        <v>=DISPIMG("ID_3B0C0820FED640F280C1FEF95DE6053C",1)</v>
+      </c>
+    </row>
+    <row r="59" ht="75" spans="1:3">
+      <c r="A59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" t="str">
+        <f>_xlfn.DISPIMG("ID_F24158B1A2A24B0F946B85570FFCA01E",1)</f>
+        <v>=DISPIMG("ID_F24158B1A2A24B0F946B85570FFCA01E",1)</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" ht="43.2" spans="1:3">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" t="str">
+        <f>_xlfn.DISPIMG("ID_F83F0793F870473194E1DD5C21327DD9",1)</f>
+        <v>=DISPIMG("ID_F83F0793F870473194E1DD5C21327DD9",1)</v>
+      </c>
+    </row>
+    <row r="62" ht="43.2" spans="1:3">
+      <c r="A62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" t="str">
+        <f>_xlfn.DISPIMG("ID_8B2046934FBF43DD9DDF606E62EB51B8",1)</f>
+        <v>=DISPIMG("ID_8B2046934FBF43DD9DDF606E62EB51B8",1)</v>
+      </c>
+    </row>
+    <row r="64" ht="74.25" spans="1:3">
+      <c r="A64" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" t="str">
+        <f>_xlfn.DISPIMG("ID_6E9E4D12CCE7422E891E7218DEE175A5",1)</f>
+        <v>=DISPIMG("ID_6E9E4D12CCE7422E891E7218DEE175A5",1)</v>
+      </c>
+    </row>
+    <row r="65" ht="55.35" spans="1:3">
+      <c r="A65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" t="str">
+        <f>_xlfn.DISPIMG("ID_7C400AB5FF5248508153A05BAEB15590",1)</f>
+        <v>=DISPIMG("ID_7C400AB5FF5248508153A05BAEB15590",1)</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" ht="45.6" spans="1:3">
+      <c r="A67" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" t="str">
+        <f>_xlfn.DISPIMG("ID_A4EC05477782407EBE5FE4850F2FF09B",1)</f>
+        <v>=DISPIMG("ID_A4EC05477782407EBE5FE4850F2FF09B",1)</v>
+      </c>
+    </row>
+    <row r="68" ht="57.75" spans="1:3">
+      <c r="A68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" t="str">
+        <f>_xlfn.DISPIMG("ID_1FF474BCD7F542E3B4C96873737C194D",1)</f>
+        <v>=DISPIMG("ID_1FF474BCD7F542E3B4C96873737C194D",1)</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" ht="49.5" spans="1:3">
+      <c r="A70" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" t="str">
+        <f>_xlfn.DISPIMG("ID_4CE22950848B4218B5852F3FDBB09CD0",1)</f>
+        <v>=DISPIMG("ID_4CE22950848B4218B5852F3FDBB09CD0",1)</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" ht="60" spans="1:3">
+      <c r="A72" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" t="str">
+        <f>_xlfn.DISPIMG("ID_59B6021A7D87460DB8E14008A1FFD8B5",1)</f>
+        <v>=DISPIMG("ID_59B6021A7D87460DB8E14008A1FFD8B5",1)</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" ht="55.5" spans="1:3">
+      <c r="A74" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" t="str">
+        <f>_xlfn.DISPIMG("ID_EA02BB275DF242D091A57B157E75EFED",1)</f>
+        <v>=DISPIMG("ID_EA02BB275DF242D091A57B157E75EFED",1)</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" ht="40.25" spans="1:3">
+      <c r="A76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" t="str">
+        <f>_xlfn.DISPIMG("ID_E7BAF9679D4543DA8400E2A31177D95E",1)</f>
+        <v>=DISPIMG("ID_E7BAF9679D4543DA8400E2A31177D95E",1)</v>
+      </c>
+    </row>
+    <row r="78" ht="42.75" spans="1:3">
+      <c r="A78" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" t="str">
+        <f>_xlfn.DISPIMG("ID_B54125181D09494B8DB5D37F528D7C71",1)</f>
+        <v>=DISPIMG("ID_B54125181D09494B8DB5D37F528D7C71",1)</v>
+      </c>
+    </row>
+    <row r="79" ht="43.5" spans="1:3">
+      <c r="A79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" t="str">
+        <f>_xlfn.DISPIMG("ID_9B6FF47063D44198944D18CAFD4C2662",1)</f>
+        <v>=DISPIMG("ID_9B6FF47063D44198944D18CAFD4C2662",1)</v>
+      </c>
+    </row>
+    <row r="80" ht="51" spans="1:3">
+      <c r="A80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" t="str">
+        <f>_xlfn.DISPIMG("ID_2E5D38CC78DA428FBDFECBA21FAACA8B",1)</f>
+        <v>=DISPIMG("ID_2E5D38CC78DA428FBDFECBA21FAACA8B",1)</v>
+      </c>
+    </row>
+    <row r="81" ht="49.5" spans="1:3">
+      <c r="A81" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" t="str">
+        <f>_xlfn.DISPIMG("ID_748F131178774794AB6A82E13D193305",1)</f>
+        <v>=DISPIMG("ID_748F131178774794AB6A82E13D193305",1)</v>
+      </c>
+    </row>
+    <row r="82" ht="51" spans="1:3">
+      <c r="A82" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" t="str">
+        <f>_xlfn.DISPIMG("ID_1C1620702E1F4D2E8F22B5DE2AF2CDB2",1)</f>
+        <v>=DISPIMG("ID_1C1620702E1F4D2E8F22B5DE2AF2CDB2",1)</v>
+      </c>
+    </row>
+    <row r="83" ht="56.25" spans="1:3">
+      <c r="A83" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" t="str">
+        <f>_xlfn.DISPIMG("ID_10E910CE278B404AB7A02E0B679797DF",1)</f>
+        <v>=DISPIMG("ID_10E910CE278B404AB7A02E0B679797DF",1)</v>
+      </c>
+    </row>
+    <row r="84" ht="63.75" spans="1:3">
+      <c r="A84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" t="str">
+        <f>_xlfn.DISPIMG("ID_986DBA3438C1441BAF9DE62354265708",1)</f>
+        <v>=DISPIMG("ID_986DBA3438C1441BAF9DE62354265708",1)</v>
+      </c>
+    </row>
+    <row r="85" ht="47.25" spans="1:3">
+      <c r="A85" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" t="str">
+        <f>_xlfn.DISPIMG("ID_0DE526D44FB9482EA92FA3F4AE9B1248",1)</f>
+        <v>=DISPIMG("ID_0DE526D44FB9482EA92FA3F4AE9B1248",1)</v>
+      </c>
+    </row>
+    <row r="86" ht="40.25" spans="1:3">
+      <c r="A86" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" t="str">
+        <f>_xlfn.DISPIMG("ID_78AEC9A9BD164A57B9E0DA043C5DA320",1)</f>
+        <v>=DISPIMG("ID_78AEC9A9BD164A57B9E0DA043C5DA320",1)</v>
+      </c>
+    </row>
+    <row r="87" ht="51" spans="1:3">
+      <c r="A87" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" t="str">
+        <f>_xlfn.DISPIMG("ID_DADA1D4D162C45BEA35731746238B350",1)</f>
+        <v>=DISPIMG("ID_DADA1D4D162C45BEA35731746238B350",1)</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" ht="46.75" spans="1:3">
+      <c r="A89" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" t="s">
+        <v>137</v>
+      </c>
+      <c r="C89" t="str">
+        <f>_xlfn.DISPIMG("ID_C3C7153D3C5546ECAABE343A9D67B050",1)</f>
+        <v>=DISPIMG("ID_C3C7153D3C5546ECAABE343A9D67B050",1)</v>
+      </c>
+    </row>
+    <row r="90" ht="45.7" spans="1:3">
+      <c r="A90" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" t="s">
+        <v>139</v>
+      </c>
+      <c r="C90" t="str">
+        <f>_xlfn.DISPIMG("ID_ED4C3446C57D4EC192B4E2B201C79557",1)</f>
+        <v>=DISPIMG("ID_ED4C3446C57D4EC192B4E2B201C79557",1)</v>
+      </c>
+    </row>
+    <row r="91" ht="66.75" spans="1:3">
+      <c r="A91" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" t="str">
+        <f>_xlfn.DISPIMG("ID_FA14C601293B49BEB509E9A9593E6DEA",1)</f>
+        <v>=DISPIMG("ID_FA14C601293B49BEB509E9A9593E6DEA",1)</v>
+      </c>
+    </row>
+    <row r="92" ht="52.55" spans="1:3">
+      <c r="A92" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" t="s">
+        <v>143</v>
+      </c>
+      <c r="C92" t="str">
+        <f>_xlfn.DISPIMG("ID_2FAA249904BF4AE2AC3BF4FFD29CCB3E",1)</f>
+        <v>=DISPIMG("ID_2FAA249904BF4AE2AC3BF4FFD29CCB3E",1)</v>
+      </c>
+    </row>
+    <row r="93" ht="54" spans="1:3">
+      <c r="A93" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" t="str">
+        <f>_xlfn.DISPIMG("ID_1AFA3D03DC674D5A8778E53B7202098F",1)</f>
+        <v>=DISPIMG("ID_1AFA3D03DC674D5A8778E53B7202098F",1)</v>
+      </c>
+    </row>
+    <row r="94" ht="46.5" spans="1:3">
+      <c r="A94" t="s">
+        <v>146</v>
+      </c>
+      <c r="B94" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" t="str">
+        <f>_xlfn.DISPIMG("ID_F30A30D5C5014CE39745290E9AA3D532",1)</f>
+        <v>=DISPIMG("ID_F30A30D5C5014CE39745290E9AA3D532",1)</v>
+      </c>
+    </row>
+    <row r="95" ht="51.75" spans="2:3">
+      <c r="B95" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C95" t="str">
+        <f>_xlfn.DISPIMG("ID_22933007A79F41679D43DAE49F7530E1",1)</f>
+        <v>=DISPIMG("ID_22933007A79F41679D43DAE49F7530E1",1)</v>
+      </c>
+    </row>
+    <row r="96" ht="40.6" spans="1:3">
+      <c r="A96" t="s">
+        <v>149</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C96" t="str">
+        <f>_xlfn.DISPIMG("ID_66F4E0059F58441EB6FE6885D049EDD6",1)</f>
+        <v>=DISPIMG("ID_66F4E0059F58441EB6FE6885D049EDD6",1)</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" ht="52.5" spans="2:3">
+      <c r="B98" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" t="str">
+        <f>_xlfn.DISPIMG("ID_E8877933CD6A48AE8029758CA1954657",1)</f>
+        <v>=DISPIMG("ID_E8877933CD6A48AE8029758CA1954657",1)</v>
+      </c>
+    </row>
+    <row r="99" ht="55.5" spans="1:3">
+      <c r="A99" t="s">
+        <v>152</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" t="str">
+        <f>_xlfn.DISPIMG("ID_DDB2AAD25DE242EDADEF3E20DA9E604F",1)</f>
+        <v>=DISPIMG("ID_DDB2AAD25DE242EDADEF3E20DA9E604F",1)</v>
+      </c>
+    </row>
+    <row r="100" ht="35.45" spans="2:3">
+      <c r="B100" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" t="str">
+        <f>_xlfn.DISPIMG("ID_8A3F222FA5F24EB587F41EC84F65640E",1)</f>
+        <v>=DISPIMG("ID_8A3F222FA5F24EB587F41EC84F65640E",1)</v>
+      </c>
+    </row>
+    <row r="101" ht="54.75" spans="1:3">
+      <c r="A101" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101" t="s">
+        <v>156</v>
+      </c>
+      <c r="C101" t="str">
+        <f>_xlfn.DISPIMG("ID_53C3465B758344988A12E016B6E8F124",1)</f>
+        <v>=DISPIMG("ID_53C3465B758344988A12E016B6E8F124",1)</v>
+      </c>
+    </row>
+    <row r="102" ht="53.15" spans="1:3">
+      <c r="A102" t="s">
+        <v>157</v>
+      </c>
+      <c r="B102" t="s">
+        <v>158</v>
+      </c>
+      <c r="C102" t="str">
+        <f>_xlfn.DISPIMG("ID_A23702AEF2A34C2FA26F124F260408D5",1)</f>
+        <v>=DISPIMG("ID_A23702AEF2A34C2FA26F124F260408D5",1)</v>
+      </c>
+    </row>
+    <row r="103" ht="48.25" spans="1:3">
+      <c r="A103" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C103" t="str">
+        <f>_xlfn.DISPIMG("ID_5FE2B6D717B84202A34C44ADA99D8606",1)</f>
+        <v>=DISPIMG("ID_5FE2B6D717B84202A34C44ADA99D8606",1)</v>
+      </c>
+    </row>
+    <row r="104" ht="48.75" spans="1:3">
+      <c r="A104" t="s">
+        <v>161</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C104" t="str">
+        <f>_xlfn.DISPIMG("ID_DE16622908324B5C845BF53EE8FA0EE9",1)</f>
+        <v>=DISPIMG("ID_DE16622908324B5C845BF53EE8FA0EE9",1)</v>
+      </c>
+    </row>
+    <row r="105" ht="38.65" spans="1:3">
+      <c r="A105" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C105" t="str">
+        <f>_xlfn.DISPIMG("ID_6D77EC53A91642839B81ACF0C0E45A48",1)</f>
+        <v>=DISPIMG("ID_6D77EC53A91642839B81ACF0C0E45A48",1)</v>
+      </c>
+    </row>
+    <row r="106" ht="54" spans="1:3">
+      <c r="A106" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C106" t="str">
+        <f>_xlfn.DISPIMG("ID_A5B26B88572849BF8B98C54E98A5033D",1)</f>
+        <v>=DISPIMG("ID_A5B26B88572849BF8B98C54E98A5033D",1)</v>
+      </c>
+    </row>
+    <row r="107" ht="54.75" spans="1:3">
+      <c r="A107" t="s">
+        <v>167</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C107" t="str">
+        <f>_xlfn.DISPIMG("ID_A3DD8E2FF8964B9C8850FD61A7C26128",1)</f>
+        <v>=DISPIMG("ID_A3DD8E2FF8964B9C8850FD61A7C26128",1)</v>
+      </c>
+    </row>
+    <row r="108" ht="41.4" spans="2:3">
+      <c r="B108" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C108" t="str">
+        <f>_xlfn.DISPIMG("ID_F949643B242C4191846E2555F344B0B4",1)</f>
+        <v>=DISPIMG("ID_F949643B242C4191846E2555F344B0B4",1)</v>
+      </c>
+    </row>
+    <row r="109" ht="46.75" spans="2:3">
+      <c r="B109" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C109" t="str">
+        <f>_xlfn.DISPIMG("ID_9D738A3F24C24A8195141EB18B14F2AE",1)</f>
+        <v>=DISPIMG("ID_9D738A3F24C24A8195141EB18B14F2AE",1)</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" ht="24.3" spans="1:3">
+      <c r="A111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111" t="s">
+        <v>172</v>
+      </c>
+      <c r="C111" t="str">
         <f>_xlfn.DISPIMG("ID_3FA7868F9A6A43BF94F4F173E98EA809",1)</f>
         <v>=DISPIMG("ID_3FA7868F9A6A43BF94F4F173E98EA809",1)</v>
       </c>
     </row>
-    <row r="6" ht="26.75" spans="1:3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="str">
+    <row r="112" ht="26.75" spans="1:3">
+      <c r="A112" t="s">
+        <v>173</v>
+      </c>
+      <c r="B112" t="s">
+        <v>174</v>
+      </c>
+      <c r="C112" t="str">
         <f>_xlfn.DISPIMG("ID_77123EE3B3C34EDB93F93BC615D36D7B",1)</f>
         <v>=DISPIMG("ID_77123EE3B3C34EDB93F93BC615D36D7B",1)</v>
       </c>
     </row>
-    <row r="7" ht="25.3" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="str">
+    <row r="113" ht="24.1" spans="1:3">
+      <c r="A113" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B113" t="s">
+        <v>176</v>
+      </c>
+      <c r="C113" t="str">
         <f>_xlfn.DISPIMG("ID_243736512BDB483A96DF390A4F5647E9",1)</f>
         <v>=DISPIMG("ID_243736512BDB483A96DF390A4F5647E9",1)</v>
       </c>
     </row>
-    <row r="8" ht="27.2" spans="1:3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="str">
+    <row r="114" ht="27.2" spans="1:3">
+      <c r="A114" t="s">
+        <v>177</v>
+      </c>
+      <c r="B114" t="s">
+        <v>178</v>
+      </c>
+      <c r="C114" t="str">
         <f>_xlfn.DISPIMG("ID_4288D26C7A86449591822D317F14C9A9",1)</f>
         <v>=DISPIMG("ID_4288D26C7A86449591822D317F14C9A9",1)</v>
       </c>
     </row>
-    <row r="9" ht="38.5" spans="1:3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="str">
+    <row r="116" ht="38.5" spans="1:3">
+      <c r="A116" t="s">
+        <v>179</v>
+      </c>
+      <c r="B116" t="s">
+        <v>180</v>
+      </c>
+      <c r="C116" t="str">
         <f>_xlfn.DISPIMG("ID_99C647C189AD4535B6B2F67EE8C1011F",1)</f>
         <v>=DISPIMG("ID_99C647C189AD4535B6B2F67EE8C1011F",1)</v>
       </c>
     </row>
-    <row r="10" ht="37.5" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="str">
+    <row r="117" ht="37.5" spans="1:3">
+      <c r="A117" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B117" t="s">
+        <v>182</v>
+      </c>
+      <c r="C117" t="str">
         <f>_xlfn.DISPIMG("ID_7E1B92CB79BB4CBDB44BE975FC4F18F6",1)</f>
         <v>=DISPIMG("ID_7E1B92CB79BB4CBDB44BE975FC4F18F6",1)</v>
       </c>
     </row>
-    <row r="11" ht="28.8" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="str">
+    <row r="118" ht="28.8" spans="1:3">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C118" t="str">
         <f>_xlfn.DISPIMG("ID_292A425AA21B444F80B74593B048F053",1)</f>
         <v>=DISPIMG("ID_292A425AA21B444F80B74593B048F053",1)</v>
       </c>
     </row>
-    <row r="12" ht="24" spans="1:3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="str">
+    <row r="119" spans="1:2">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" ht="24" spans="1:3">
+      <c r="A120" t="s">
+        <v>184</v>
+      </c>
+      <c r="B120" t="s">
+        <v>185</v>
+      </c>
+      <c r="C120" t="str">
         <f>_xlfn.DISPIMG("ID_AE433C0368614DA8A6CFB28364FB3F92",1)</f>
         <v>=DISPIMG("ID_AE433C0368614DA8A6CFB28364FB3F92",1)</v>
       </c>
     </row>
-    <row r="13" ht="27.65" spans="1:3">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="str">
+    <row r="121" ht="27.65" spans="1:3">
+      <c r="A121" t="s">
+        <v>186</v>
+      </c>
+      <c r="B121" t="s">
+        <v>187</v>
+      </c>
+      <c r="C121" t="str">
         <f>_xlfn.DISPIMG("ID_12C40AEE324A44C2B34E864C00A53736",1)</f>
         <v>=DISPIMG("ID_12C40AEE324A44C2B34E864C00A53736",1)</v>
       </c>
     </row>
-    <row r="14" ht="24.75" spans="1:3">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="str">
-        <f>_xlfn.DISPIMG("ID_FB9BF2C126EC4735922341E9B7FC32D3",1)</f>
-        <v>=DISPIMG("ID_FB9BF2C126EC4735922341E9B7FC32D3",1)</v>
-      </c>
-    </row>
-    <row r="15" ht="22.55" spans="2:3">
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="str">
-        <f>_xlfn.DISPIMG("ID_651E18D8D7794B2082298D11DA089F86",1)</f>
-        <v>=DISPIMG("ID_651E18D8D7794B2082298D11DA089F86",1)</v>
-      </c>
-    </row>
-    <row r="16" ht="32.65" spans="1:3">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="str">
-        <f>_xlfn.DISPIMG("ID_3B2421D9C20A425CABFF5AAC7C485475",1)</f>
-        <v>=DISPIMG("ID_3B2421D9C20A425CABFF5AAC7C485475",1)</v>
-      </c>
-    </row>
-    <row r="17" ht="33.25" spans="1:3">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="str">
-        <f>_xlfn.DISPIMG("ID_8A91BCA10E264186850B7542A5E12CB6",1)</f>
-        <v>=DISPIMG("ID_8A91BCA10E264186850B7542A5E12CB6",1)</v>
-      </c>
-    </row>
-    <row r="18" ht="52.5" spans="2:3">
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="str">
-        <f>_xlfn.DISPIMG("ID_E8877933CD6A48AE8029758CA1954657",1)</f>
-        <v>=DISPIMG("ID_E8877933CD6A48AE8029758CA1954657",1)</v>
-      </c>
-    </row>
-    <row r="19" ht="35.45" spans="2:3">
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="str">
-        <f>_xlfn.DISPIMG("ID_8A3F222FA5F24EB587F41EC84F65640E",1)</f>
-        <v>=DISPIMG("ID_8A3F222FA5F24EB587F41EC84F65640E",1)</v>
-      </c>
-    </row>
-    <row r="20" ht="54.75" spans="1:3">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="str">
-        <f>_xlfn.DISPIMG("ID_53C3465B758344988A12E016B6E8F124",1)</f>
-        <v>=DISPIMG("ID_53C3465B758344988A12E016B6E8F124",1)</v>
-      </c>
-    </row>
-    <row r="21" ht="53.15" spans="1:3">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="str">
-        <f>_xlfn.DISPIMG("ID_A23702AEF2A34C2FA26F124F260408D5",1)</f>
-        <v>=DISPIMG("ID_A23702AEF2A34C2FA26F124F260408D5",1)</v>
-      </c>
-    </row>
-    <row r="22" ht="48.75" spans="2:3">
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="str">
-        <f>_xlfn.DISPIMG("ID_DE16622908324B5C845BF53EE8FA0EE9",1)</f>
-        <v>=DISPIMG("ID_DE16622908324B5C845BF53EE8FA0EE9",1)</v>
-      </c>
-    </row>
-    <row r="23" ht="42.1" spans="2:3">
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="str">
-        <f>_xlfn.DISPIMG("ID_138500CB75F94E3DBCC824AEDC25A2EE",1)</f>
-        <v>=DISPIMG("ID_138500CB75F94E3DBCC824AEDC25A2EE",1)</v>
-      </c>
-    </row>
-    <row r="24" ht="74.25" spans="1:3">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="str">
-        <f>_xlfn.DISPIMG("ID_6E9E4D12CCE7422E891E7218DEE175A5",1)</f>
-        <v>=DISPIMG("ID_6E9E4D12CCE7422E891E7218DEE175A5",1)</v>
-      </c>
-    </row>
-    <row r="25" ht="43.9" spans="1:3">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="str">
-        <f>_xlfn.DISPIMG("ID_829524599EDF4C97BB743BE263401099",1)</f>
-        <v>=DISPIMG("ID_829524599EDF4C97BB743BE263401099",1)</v>
-      </c>
-    </row>
-    <row r="26" ht="36.95" spans="2:3">
-      <c r="B26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" t="str">
-        <f>_xlfn.DISPIMG("ID_EAA5ED30BB904DF7ADD283F1072EEB2E",1)</f>
-        <v>=DISPIMG("ID_EAA5ED30BB904DF7ADD283F1072EEB2E",1)</v>
-      </c>
-    </row>
-    <row r="27" ht="53.2" spans="1:3">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="str">
-        <f>_xlfn.DISPIMG("ID_6AF9D00EF54847F295D2769F73F03CD9",1)</f>
-        <v>=DISPIMG("ID_6AF9D00EF54847F295D2769F73F03CD9",1)</v>
-      </c>
-    </row>
-    <row r="28" ht="57" spans="2:3">
-      <c r="B28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="str">
-        <f>_xlfn.DISPIMG("ID_17547F0031534D04B8D257F624649E7F",1)</f>
-        <v>=DISPIMG("ID_17547F0031534D04B8D257F624649E7F",1)</v>
-      </c>
-    </row>
-    <row r="29" ht="43.5" spans="1:3">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" t="str">
-        <f>_xlfn.DISPIMG("ID_B8CBBEF57B76493EB65CFF82F5AA27E0",1)</f>
-        <v>=DISPIMG("ID_B8CBBEF57B76493EB65CFF82F5AA27E0",1)</v>
-      </c>
-    </row>
-    <row r="30" ht="43.2" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" t="str">
-        <f>_xlfn.DISPIMG("ID_AE4897C440B346B5A29B850EE7A20C60",1)</f>
-        <v>=DISPIMG("ID_AE4897C440B346B5A29B850EE7A20C60",1)</v>
-      </c>
-    </row>
-    <row r="31" ht="43.2" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" t="str">
-        <f>_xlfn.DISPIMG("ID_EBF762B7B69E4E2FA4DF25B0418D0B0F",1)</f>
-        <v>=DISPIMG("ID_EBF762B7B69E4E2FA4DF25B0418D0B0F",1)</v>
-      </c>
-    </row>
-    <row r="32" ht="48.45" spans="1:3">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" t="str">
-        <f>_xlfn.DISPIMG("ID_0AB699CC6C87423D8171BBB9F8C68688",1)</f>
-        <v>=DISPIMG("ID_0AB699CC6C87423D8171BBB9F8C68688",1)</v>
-      </c>
-    </row>
-    <row r="33" ht="43.2" spans="1:3">
-      <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" t="str">
-        <f>_xlfn.DISPIMG("ID_865B280A48D644FE8A8BA40EF8B33FFC",1)</f>
-        <v>=DISPIMG("ID_865B280A48D644FE8A8BA40EF8B33FFC",1)</v>
-      </c>
-    </row>
-    <row r="34" ht="43.2" spans="1:3">
-      <c r="A34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" t="str">
-        <f>_xlfn.DISPIMG("ID_A0309D59FCD14CA7B1A937D92D96DDF3",1)</f>
-        <v>=DISPIMG("ID_A0309D59FCD14CA7B1A937D92D96DDF3",1)</v>
-      </c>
-    </row>
-    <row r="35" ht="43.2" spans="1:3">
-      <c r="A35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" t="str">
-        <f>_xlfn.DISPIMG("ID_4139FBDDD6F44DA29F4386D273AC1204",1)</f>
-        <v>=DISPIMG("ID_4139FBDDD6F44DA29F4386D273AC1204",1)</v>
-      </c>
-    </row>
-    <row r="36" ht="34.1" spans="1:3">
-      <c r="A36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" t="str">
-        <f>_xlfn.DISPIMG("ID_DEC7CB250DC945BB8CBD3D2B62BC1EB0",1)</f>
-        <v>=DISPIMG("ID_DEC7CB250DC945BB8CBD3D2B62BC1EB0",1)</v>
-      </c>
-    </row>
-    <row r="37" ht="33.6" spans="1:3">
-      <c r="A37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" t="str">
-        <f>_xlfn.DISPIMG("ID_FF9382D66A284D3B9BD80508F7541C11",1)</f>
-        <v>=DISPIMG("ID_FF9382D66A284D3B9BD80508F7541C11",1)</v>
-      </c>
-    </row>
-    <row r="38" ht="60.75" spans="1:3">
-      <c r="A38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" t="str">
+    <row r="123" ht="31.25" spans="1:3">
+      <c r="A123" t="s">
+        <v>188</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C123" t="str">
+        <f>_xlfn.DISPIMG("ID_6FBA0D7C30224E079A14E388B7A80A26",1)</f>
+        <v>=DISPIMG("ID_6FBA0D7C30224E079A14E388B7A80A26",1)</v>
+      </c>
+    </row>
+    <row r="124" ht="32.3" spans="1:3">
+      <c r="A124" t="s">
+        <v>190</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C124" t="str">
+        <f>_xlfn.DISPIMG("ID_7A818E3013914853A9EFDEAE9BF6E772",1)</f>
+        <v>=DISPIMG("ID_7A818E3013914853A9EFDEAE9BF6E772",1)</v>
+      </c>
+    </row>
+    <row r="125" ht="40.55" spans="1:3">
+      <c r="A125" t="s">
+        <v>192</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C125" t="str">
+        <f>_xlfn.DISPIMG("ID_35576D90A4CC457E8EE0FBEFB585AAA1",1)</f>
+        <v>=DISPIMG("ID_35576D90A4CC457E8EE0FBEFB585AAA1",1)</v>
+      </c>
+    </row>
+    <row r="126" ht="38.45" spans="1:3">
+      <c r="A126" t="s">
+        <v>194</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C126" t="str">
+        <f>_xlfn.DISPIMG("ID_2450844B1E604A0DB88E8A1DC84FB60D",1)</f>
+        <v>=DISPIMG("ID_2450844B1E604A0DB88E8A1DC84FB60D",1)</v>
+      </c>
+    </row>
+    <row r="127" ht="29.65" spans="1:3">
+      <c r="A127" t="s">
+        <v>196</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C127" t="str">
+        <f>_xlfn.DISPIMG("ID_9EB8D6673CDD4F89B9D9C1788830AB97",1)</f>
+        <v>=DISPIMG("ID_9EB8D6673CDD4F89B9D9C1788830AB97",1)</v>
+      </c>
+    </row>
+    <row r="128" ht="36.9" spans="1:3">
+      <c r="A128" t="s">
+        <v>198</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C128" t="str">
+        <f>_xlfn.DISPIMG("ID_D44602CEC63A45A1BFBFFC2A86D3929E",1)</f>
+        <v>=DISPIMG("ID_D44602CEC63A45A1BFBFFC2A86D3929E",1)</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" ht="57.75" spans="1:3">
+      <c r="A130" t="s">
+        <v>200</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C130" t="str">
+        <f>_xlfn.DISPIMG("ID_001EB6649E074AEDA1E631DC1B8B9F87",1)</f>
+        <v>=DISPIMG("ID_001EB6649E074AEDA1E631DC1B8B9F87",1)</v>
+      </c>
+    </row>
+    <row r="131" ht="53.25" spans="1:3">
+      <c r="A131" t="s">
+        <v>202</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C131" t="str">
+        <f>_xlfn.DISPIMG("ID_45A90FAAFB0140418241F61FAF883B8E",1)</f>
+        <v>=DISPIMG("ID_45A90FAAFB0140418241F61FAF883B8E",1)</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" ht="51" spans="1:3">
+      <c r="A133" t="s">
+        <v>204</v>
+      </c>
+      <c r="B133" t="s">
+        <v>205</v>
+      </c>
+      <c r="C133" t="str">
+        <f>_xlfn.DISPIMG("ID_C3F436A1EC5742BFB78E8C7F9625BC69",1)</f>
+        <v>=DISPIMG("ID_C3F436A1EC5742BFB78E8C7F9625BC69",1)</v>
+      </c>
+    </row>
+    <row r="135" ht="60.75" spans="1:3">
+      <c r="A135" t="s">
+        <v>206</v>
+      </c>
+      <c r="B135" t="s">
+        <v>207</v>
+      </c>
+      <c r="C135" t="str">
         <f>_xlfn.DISPIMG("ID_4D85187A9A02416CBACCAAF102A3C801",1)</f>
         <v>=DISPIMG("ID_4D85187A9A02416CBACCAAF102A3C801",1)</v>
       </c>
     </row>
-    <row r="39" ht="42.75" spans="1:3">
-      <c r="A39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" t="str">
-        <f>_xlfn.DISPIMG("ID_B54125181D09494B8DB5D37F528D7C71",1)</f>
-        <v>=DISPIMG("ID_B54125181D09494B8DB5D37F528D7C71",1)</v>
-      </c>
-    </row>
-    <row r="40" ht="47.25" spans="1:3">
-      <c r="A40" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" t="str">
-        <f>_xlfn.DISPIMG("ID_0DE526D44FB9482EA92FA3F4AE9B1248",1)</f>
-        <v>=DISPIMG("ID_0DE526D44FB9482EA92FA3F4AE9B1248",1)</v>
-      </c>
-    </row>
-    <row r="41" ht="43.5" spans="1:3">
-      <c r="A41" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" t="str">
-        <f>_xlfn.DISPIMG("ID_9B6FF47063D44198944D18CAFD4C2662",1)</f>
-        <v>=DISPIMG("ID_9B6FF47063D44198944D18CAFD4C2662",1)</v>
-      </c>
-    </row>
-    <row r="42" ht="40.25" spans="1:3">
-      <c r="A42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" t="str">
-        <f>_xlfn.DISPIMG("ID_78AEC9A9BD164A57B9E0DA043C5DA320",1)</f>
-        <v>=DISPIMG("ID_78AEC9A9BD164A57B9E0DA043C5DA320",1)</v>
-      </c>
-    </row>
-    <row r="43" ht="46.75" spans="1:3">
-      <c r="A43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" t="str">
-        <f>_xlfn.DISPIMG("ID_C3C7153D3C5546ECAABE343A9D67B050",1)</f>
-        <v>=DISPIMG("ID_C3C7153D3C5546ECAABE343A9D67B050",1)</v>
-      </c>
-    </row>
-    <row r="44" ht="46.5" spans="1:3">
-      <c r="A44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" t="str">
-        <f>_xlfn.DISPIMG("ID_F30A30D5C5014CE39745290E9AA3D532",1)</f>
-        <v>=DISPIMG("ID_F30A30D5C5014CE39745290E9AA3D532",1)</v>
-      </c>
-    </row>
-    <row r="45" ht="51.75" spans="2:3">
-      <c r="B45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" t="str">
-        <f>_xlfn.DISPIMG("ID_22933007A79F41679D43DAE49F7530E1",1)</f>
-        <v>=DISPIMG("ID_22933007A79F41679D43DAE49F7530E1",1)</v>
-      </c>
-    </row>
-    <row r="46" ht="48" spans="1:3">
-      <c r="A46" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" t="str">
+    <row r="137" ht="48" spans="1:3">
+      <c r="A137" t="s">
+        <v>208</v>
+      </c>
+      <c r="B137" t="s">
+        <v>209</v>
+      </c>
+      <c r="C137" t="str">
         <f>_xlfn.DISPIMG("ID_92A1827F52AB481BA921C8ADBCDE3193",1)</f>
         <v>=DISPIMG("ID_92A1827F52AB481BA921C8ADBCDE3193",1)</v>
       </c>
     </row>
-    <row r="47" ht="52.5" spans="2:3">
-      <c r="B47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" t="str">
+    <row r="138" ht="52.5" spans="2:3">
+      <c r="B138" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C138" t="str">
         <f>_xlfn.DISPIMG("ID_B6DD3F78EDDD44DA851F1C36846E5094",1)</f>
         <v>=DISPIMG("ID_B6DD3F78EDDD44DA851F1C36846E5094",1)</v>
       </c>
     </row>
-    <row r="48" ht="57.75" spans="1:3">
-      <c r="A48" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="str">
-        <f>_xlfn.DISPIMG("ID_001EB6649E074AEDA1E631DC1B8B9F87",1)</f>
-        <v>=DISPIMG("ID_001EB6649E074AEDA1E631DC1B8B9F87",1)</v>
-      </c>
-    </row>
-    <row r="49" ht="53.25" spans="1:3">
-      <c r="A49" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" t="str">
-        <f>_xlfn.DISPIMG("ID_45A90FAAFB0140418241F61FAF883B8E",1)</f>
-        <v>=DISPIMG("ID_45A90FAAFB0140418241F61FAF883B8E",1)</v>
-      </c>
-    </row>
-    <row r="50" ht="68.45" spans="1:3">
-      <c r="A50" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" t="str">
-        <f>_xlfn.DISPIMG("ID_EB424C29CAAE4E87BC5F32F39D2E59C5",1)</f>
-        <v>=DISPIMG("ID_EB424C29CAAE4E87BC5F32F39D2E59C5",1)</v>
-      </c>
-    </row>
-    <row r="51" ht="60.65" spans="1:3">
-      <c r="A51" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" t="str">
-        <f>_xlfn.DISPIMG("ID_0C6F5EF6A2C742B7BD82DE5C1158B3F9",1)</f>
-        <v>=DISPIMG("ID_0C6F5EF6A2C742B7BD82DE5C1158B3F9",1)</v>
-      </c>
-    </row>
-    <row r="52" ht="57.45" spans="1:3">
-      <c r="A52" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" t="str">
-        <f>_xlfn.DISPIMG("ID_3F05F1EA15C94DF0887F94E4B848FA04",1)</f>
-        <v>=DISPIMG("ID_3F05F1EA15C94DF0887F94E4B848FA04",1)</v>
-      </c>
-    </row>
-    <row r="53" ht="71.35" spans="1:3">
-      <c r="A53" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" t="str">
+    <row r="139" spans="2:2">
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140" ht="71.35" spans="1:3">
+      <c r="A140" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B140" t="s">
+        <v>212</v>
+      </c>
+      <c r="C140" t="str">
         <f>_xlfn.DISPIMG("ID_0344F8B15CD941A387CDAD6DAD5F42DE",1)</f>
         <v>=DISPIMG("ID_0344F8B15CD941A387CDAD6DAD5F42DE",1)</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A53" r:id="rId1" display="2243815-18-9" tooltip="https://commonchemistry.cas.org/detail?cas_rn=2243815-18-9"/>
+    <hyperlink ref="A140" r:id="rId1" display="2243815-18-9" tooltip="https://commonchemistry.cas.org/detail?cas_rn=2243815-18-9"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/未管制品种增补目录.xlsx
+++ b/未管制品种增补目录.xlsx
@@ -3276,11 +3276,446 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="ID_391D7E36C0B5474BB072331A515A799A"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId113"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="49892585"/>
+          <a:ext cx="1847850" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="ID_48594AD68DD84B2099837F0E4E5DD0E5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId114"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="49526825"/>
+          <a:ext cx="1200150" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="ID_311C7DCA20124247949F960E6AF83633"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId115"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="49161065"/>
+          <a:ext cx="1276350" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="ID_23F1F9DC6BE644CCA5C1DDAE02ADE9FC"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId116"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="48795305"/>
+          <a:ext cx="1143000" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="ID_B69479F8B3B7401C9A495FA8F053AC84"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId117"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="48429545"/>
+          <a:ext cx="1314450" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="ID_F3C2B2D08FE94AC8AB1E32DF56EB1C2D"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId118"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="47698025"/>
+          <a:ext cx="1238250" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="ID_28E7D91F6C394542A96022461C79BA15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId119"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="46966505"/>
+          <a:ext cx="1609725" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="ID_F0AEAB59FA05435A8E3C466C679C848E"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId120"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="50624105"/>
+          <a:ext cx="1733550" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="ID_1D53CF384E7A465FA833A88ED90CAF08"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId121"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="42577385"/>
+          <a:ext cx="1466850" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="ID_A2BCA97CED3B4E08ADBB3EC87BA871ED"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId122"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="43126025"/>
+          <a:ext cx="1295400" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="126" name="ID_9621ADCC2B5B4920A85908034E68D169"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId123"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="43674665"/>
+          <a:ext cx="1533525" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="127" name="ID_CF25BC6AED2F43A1B0C6A31A78BB3B3A"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId124"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="44223305"/>
+          <a:ext cx="1628775" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="128" name="ID_3DE16B52CD81487CA89BC1F1D813D62C"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId125"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="44771945"/>
+          <a:ext cx="1666875" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="129" name="ID_B6951C49546A4F22B1E2671F30D5BDB6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId126"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="45503465"/>
+          <a:ext cx="1695450" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="130" name="ID_D8970940F3AC40B89172A999CA515403"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId127"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="46234985"/>
+          <a:ext cx="1647825" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>CAS号</t>
   </si>
@@ -3629,6 +4064,96 @@
   </si>
   <si>
     <t>3-{(R)-Dimethylamino-[(1R,2R)-2-hydroxycyclohexyl]}methyl]phenol</t>
+  </si>
+  <si>
+    <t>152674-96-9</t>
+  </si>
+  <si>
+    <t>(6aR,10aR)-3-(2-Methyl-6-bromohex-2-yl)-6,6,9-trimethyl-6a,7,10,10a-tetrahydrobenzo[c]chromen-1-ol</t>
+  </si>
+  <si>
+    <t>212835-02-4</t>
+  </si>
+  <si>
+    <t>(6aR,10aR)-3-(1-Adamantyl)-6,6,9-trimethyl-6a,7,10,10a-tetrahydrobenzo[c]chromen-1-ol</t>
+  </si>
+  <si>
+    <t>1256842-49-5</t>
+  </si>
+  <si>
+    <t>(6aR,9R,10aR)-3-(1-hexylcyclobut-1-yl)-6a,7,8,9,10,10a-hexahydro-6,6-dimethyl-6H-dibenzo[b,d]pyran-1,9 diol</t>
+  </si>
+  <si>
+    <t>129658-01-1</t>
+  </si>
+  <si>
+    <t>(6aR,9R,10aR)-6,6-dimethyl-3-(5-phenylpentan-2-yloxy)-6a,7,8,9,10,10a-hexahydrobenzo[c]chromene-1,9-diol</t>
+  </si>
+  <si>
+    <t>140835-18-3</t>
+  </si>
+  <si>
+    <t>(6aR,8S,9S,10aR)-9-(hydroxymethyl)-6,6-dimethyl-3-(2-methyloctan-2-yl)-8,9-ditritio-7,8,10,10a-tetrahydro-6aH-benzo[c]chromen-1-ol</t>
+  </si>
+  <si>
+    <t>181139-62-8</t>
+  </si>
+  <si>
+    <t>(6aR,9R,10aR)-3-[(E)-hept-1-enyl]-9-(hydroxymethyl)-6,6-dimethyl-6a,7,8,9,10,10a-hexahydrobenzo[c]chromen-1-ol</t>
+  </si>
+  <si>
+    <t>587023-54-9</t>
+  </si>
+  <si>
+    <t>(6S,6aR,9R,10aR)-9-(hydroxymethyl)-6-[(E)-3-hydroxyprop-1-enyl]-6-methyl-3-(2-methyloctan-2-yl)-6a,7,8,9,10,10a-hexahydrobenzo[c]chromen-1-ol</t>
+  </si>
+  <si>
+    <t>303113-08-8</t>
+  </si>
+  <si>
+    <t>(6S,6aR,9R,10aR)-9-(Hydroxymethyl)-6-(3-hydroxyprop-1-ynyl)-6-methyl-3-(2-methyloctan-2-yl)-6a,7,8,9,10,10a-hexahydrobenzo[c]chromen-1-ol</t>
+  </si>
+  <si>
+    <t>131543-22-1</t>
+  </si>
+  <si>
+    <t>(11R)-2-Methyl-11-[(morpholin-4-yl)methyl]-3-(naphthalene-1-carbonyl)-9-oxa-1-azatricyclo[6.3.1.04,12]dodeca-2,4(12),5,7-tetraene</t>
+  </si>
+  <si>
+    <t>824960-02-3</t>
+  </si>
+  <si>
+    <t>(4-propylnaphthalen-1-y)l-(1-pentylindol-3-yl)methanone</t>
+  </si>
+  <si>
+    <t>1366067-59-5</t>
+  </si>
+  <si>
+    <t>(4-bromonaphthalen-1-yl)-(1-pentylindol-3-yl)methanone</t>
+  </si>
+  <si>
+    <t>824960-03-4</t>
+  </si>
+  <si>
+    <t>(2-methyl-1-pentylindol-3-yl)-(4-propylnaphthalen-1-yl)methanone</t>
+  </si>
+  <si>
+    <t>316189-74-9</t>
+  </si>
+  <si>
+    <t>(4-methoxynaphthalen-1-yl)-(2-methyl-1-pentylindol-3-yl)methanone</t>
+  </si>
+  <si>
+    <t>71048-87-8</t>
+  </si>
+  <si>
+    <t>[(6S,6aR,9R,10aR)- 9-hydroxy- 6-methyl- 3-[(2R)-5-phenylpentan- 2-yl]oxy- 5,6,6a,7,8,9,10,10a-octahydrophenanthridin- 1-yl] acetate</t>
+  </si>
+  <si>
+    <t>79678-32-3</t>
+  </si>
+  <si>
+    <t>(2S,4S,4aS,6R,8aR)-6-(Hydroxymethyl)-4-[2-hydroxy-4-(2-methyloctan-2-yl)phenyl]-1,2,3,4,4a,5,6,7,8,8a-decahydronaphthalen-2-o</t>
   </si>
   <si>
     <t>23036-19-3</t>
@@ -5085,12 +5610,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D79:D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -5837,635 +6362,815 @@
         <v>=DISPIMG("ID_E7BAF9679D4543DA8400E2A31177D95E",1)</v>
       </c>
     </row>
-    <row r="78" ht="42.75" spans="1:3">
+    <row r="78" ht="43.2" spans="1:3">
       <c r="A78" t="s">
         <v>116</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C78" t="str">
+        <f>_xlfn.DISPIMG("ID_1D53CF384E7A465FA833A88ED90CAF08",1)</f>
+        <v>=DISPIMG("ID_1D53CF384E7A465FA833A88ED90CAF08",1)</v>
+      </c>
+    </row>
+    <row r="79" ht="49.6" spans="1:3">
+      <c r="A79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" t="str">
+        <f>_xlfn.DISPIMG("ID_A2BCA97CED3B4E08ADBB3EC87BA871ED",1)</f>
+        <v>=DISPIMG("ID_A2BCA97CED3B4E08ADBB3EC87BA871ED",1)</v>
+      </c>
+    </row>
+    <row r="80" ht="43.2" spans="1:3">
+      <c r="A80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" t="str">
+        <f>_xlfn.DISPIMG("ID_9621ADCC2B5B4920A85908034E68D169",1)</f>
+        <v>=DISPIMG("ID_9621ADCC2B5B4920A85908034E68D169",1)</v>
+      </c>
+    </row>
+    <row r="81" ht="43.2" spans="1:3">
+      <c r="A81" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" t="str">
+        <f>_xlfn.DISPIMG("ID_CF25BC6AED2F43A1B0C6A31A78BB3B3A",1)</f>
+        <v>=DISPIMG("ID_CF25BC6AED2F43A1B0C6A31A78BB3B3A",1)</v>
+      </c>
+    </row>
+    <row r="82" ht="57.6" spans="1:3">
+      <c r="A82" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" t="str">
+        <f>_xlfn.DISPIMG("ID_3DE16B52CD81487CA89BC1F1D813D62C",1)</f>
+        <v>=DISPIMG("ID_3DE16B52CD81487CA89BC1F1D813D62C",1)</v>
+      </c>
+    </row>
+    <row r="83" ht="57.6" spans="1:3">
+      <c r="A83" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" t="str">
+        <f>_xlfn.DISPIMG("ID_B6951C49546A4F22B1E2671F30D5BDB6",1)</f>
+        <v>=DISPIMG("ID_B6951C49546A4F22B1E2671F30D5BDB6",1)</v>
+      </c>
+    </row>
+    <row r="84" ht="57.6" spans="1:3">
+      <c r="A84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" t="str">
+        <f>_xlfn.DISPIMG("ID_D8970940F3AC40B89172A999CA515403",1)</f>
+        <v>=DISPIMG("ID_D8970940F3AC40B89172A999CA515403",1)</v>
+      </c>
+    </row>
+    <row r="85" ht="57.6" spans="1:3">
+      <c r="A85" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" t="str">
+        <f>_xlfn.DISPIMG("ID_28E7D91F6C394542A96022461C79BA15",1)</f>
+        <v>=DISPIMG("ID_28E7D91F6C394542A96022461C79BA15",1)</v>
+      </c>
+    </row>
+    <row r="86" ht="57.6" spans="1:3">
+      <c r="A86" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" t="str">
+        <f>_xlfn.DISPIMG("ID_F3C2B2D08FE94AC8AB1E32DF56EB1C2D",1)</f>
+        <v>=DISPIMG("ID_F3C2B2D08FE94AC8AB1E32DF56EB1C2D",1)</v>
+      </c>
+    </row>
+    <row r="87" ht="71.15" spans="1:3">
+      <c r="A87" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" t="str">
+        <f>_xlfn.DISPIMG("ID_B69479F8B3B7401C9A495FA8F053AC84",1)</f>
+        <v>=DISPIMG("ID_B69479F8B3B7401C9A495FA8F053AC84",1)</v>
+      </c>
+    </row>
+    <row r="88" ht="75" spans="1:3">
+      <c r="A88" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" t="str">
+        <f>_xlfn.DISPIMG("ID_23F1F9DC6BE644CCA5C1DDAE02ADE9FC",1)</f>
+        <v>=DISPIMG("ID_23F1F9DC6BE644CCA5C1DDAE02ADE9FC",1)</v>
+      </c>
+    </row>
+    <row r="89" ht="75" spans="1:3">
+      <c r="A89" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89" t="str">
+        <f>_xlfn.DISPIMG("ID_311C7DCA20124247949F960E6AF83633",1)</f>
+        <v>=DISPIMG("ID_311C7DCA20124247949F960E6AF83633",1)</v>
+      </c>
+    </row>
+    <row r="90" ht="75" spans="1:3">
+      <c r="A90" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" t="str">
+        <f>_xlfn.DISPIMG("ID_48594AD68DD84B2099837F0E4E5DD0E5",1)</f>
+        <v>=DISPIMG("ID_48594AD68DD84B2099837F0E4E5DD0E5",1)</v>
+      </c>
+    </row>
+    <row r="91" ht="57.6" spans="1:3">
+      <c r="A91" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C91" t="str">
+        <f>_xlfn.DISPIMG("ID_391D7E36C0B5474BB072331A515A799A",1)</f>
+        <v>=DISPIMG("ID_391D7E36C0B5474BB072331A515A799A",1)</v>
+      </c>
+    </row>
+    <row r="92" ht="57.6" spans="1:3">
+      <c r="A92" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" t="str">
+        <f>_xlfn.DISPIMG("ID_F0AEAB59FA05435A8E3C466C679C848E",1)</f>
+        <v>=DISPIMG("ID_F0AEAB59FA05435A8E3C466C679C848E",1)</v>
+      </c>
+    </row>
+    <row r="94" ht="42.75" spans="1:3">
+      <c r="A94" t="s">
+        <v>146</v>
+      </c>
+      <c r="B94" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" t="str">
         <f>_xlfn.DISPIMG("ID_B54125181D09494B8DB5D37F528D7C71",1)</f>
         <v>=DISPIMG("ID_B54125181D09494B8DB5D37F528D7C71",1)</v>
       </c>
     </row>
-    <row r="79" ht="43.5" spans="1:3">
-      <c r="A79" t="s">
-        <v>118</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C79" t="str">
+    <row r="95" ht="43.5" spans="1:3">
+      <c r="A95" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" t="str">
         <f>_xlfn.DISPIMG("ID_9B6FF47063D44198944D18CAFD4C2662",1)</f>
         <v>=DISPIMG("ID_9B6FF47063D44198944D18CAFD4C2662",1)</v>
       </c>
     </row>
-    <row r="80" ht="51" spans="1:3">
-      <c r="A80" t="s">
-        <v>120</v>
-      </c>
-      <c r="B80" t="s">
-        <v>121</v>
-      </c>
-      <c r="C80" t="str">
+    <row r="96" ht="51" spans="1:3">
+      <c r="A96" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" t="s">
+        <v>151</v>
+      </c>
+      <c r="C96" t="str">
         <f>_xlfn.DISPIMG("ID_2E5D38CC78DA428FBDFECBA21FAACA8B",1)</f>
         <v>=DISPIMG("ID_2E5D38CC78DA428FBDFECBA21FAACA8B",1)</v>
       </c>
     </row>
-    <row r="81" ht="49.5" spans="1:3">
-      <c r="A81" t="s">
-        <v>122</v>
-      </c>
-      <c r="B81" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" t="str">
+    <row r="97" ht="49.5" spans="1:3">
+      <c r="A97" t="s">
+        <v>152</v>
+      </c>
+      <c r="B97" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97" t="str">
         <f>_xlfn.DISPIMG("ID_748F131178774794AB6A82E13D193305",1)</f>
         <v>=DISPIMG("ID_748F131178774794AB6A82E13D193305",1)</v>
       </c>
     </row>
-    <row r="82" ht="51" spans="1:3">
-      <c r="A82" t="s">
-        <v>124</v>
-      </c>
-      <c r="B82" t="s">
-        <v>125</v>
-      </c>
-      <c r="C82" t="str">
+    <row r="98" ht="51" spans="1:3">
+      <c r="A98" t="s">
+        <v>154</v>
+      </c>
+      <c r="B98" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" t="str">
         <f>_xlfn.DISPIMG("ID_1C1620702E1F4D2E8F22B5DE2AF2CDB2",1)</f>
         <v>=DISPIMG("ID_1C1620702E1F4D2E8F22B5DE2AF2CDB2",1)</v>
       </c>
     </row>
-    <row r="83" ht="56.25" spans="1:3">
-      <c r="A83" t="s">
-        <v>126</v>
-      </c>
-      <c r="B83" t="s">
-        <v>127</v>
-      </c>
-      <c r="C83" t="str">
+    <row r="99" ht="56.25" spans="1:3">
+      <c r="A99" t="s">
+        <v>156</v>
+      </c>
+      <c r="B99" t="s">
+        <v>157</v>
+      </c>
+      <c r="C99" t="str">
         <f>_xlfn.DISPIMG("ID_10E910CE278B404AB7A02E0B679797DF",1)</f>
         <v>=DISPIMG("ID_10E910CE278B404AB7A02E0B679797DF",1)</v>
       </c>
     </row>
-    <row r="84" ht="63.75" spans="1:3">
-      <c r="A84" t="s">
-        <v>128</v>
-      </c>
-      <c r="B84" t="s">
-        <v>129</v>
-      </c>
-      <c r="C84" t="str">
+    <row r="100" ht="63.75" spans="1:3">
+      <c r="A100" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100" t="s">
+        <v>159</v>
+      </c>
+      <c r="C100" t="str">
         <f>_xlfn.DISPIMG("ID_986DBA3438C1441BAF9DE62354265708",1)</f>
         <v>=DISPIMG("ID_986DBA3438C1441BAF9DE62354265708",1)</v>
       </c>
     </row>
-    <row r="85" ht="47.25" spans="1:3">
-      <c r="A85" t="s">
-        <v>130</v>
-      </c>
-      <c r="B85" t="s">
-        <v>131</v>
-      </c>
-      <c r="C85" t="str">
+    <row r="101" ht="47.25" spans="1:3">
+      <c r="A101" t="s">
+        <v>160</v>
+      </c>
+      <c r="B101" t="s">
+        <v>161</v>
+      </c>
+      <c r="C101" t="str">
         <f>_xlfn.DISPIMG("ID_0DE526D44FB9482EA92FA3F4AE9B1248",1)</f>
         <v>=DISPIMG("ID_0DE526D44FB9482EA92FA3F4AE9B1248",1)</v>
       </c>
     </row>
-    <row r="86" ht="40.25" spans="1:3">
-      <c r="A86" t="s">
-        <v>132</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C86" t="str">
+    <row r="102" ht="40.25" spans="1:3">
+      <c r="A102" t="s">
+        <v>162</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C102" t="str">
         <f>_xlfn.DISPIMG("ID_78AEC9A9BD164A57B9E0DA043C5DA320",1)</f>
         <v>=DISPIMG("ID_78AEC9A9BD164A57B9E0DA043C5DA320",1)</v>
       </c>
     </row>
-    <row r="87" ht="51" spans="1:3">
-      <c r="A87" t="s">
-        <v>134</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C87" t="str">
+    <row r="103" ht="51" spans="1:3">
+      <c r="A103" t="s">
+        <v>164</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C103" t="str">
         <f>_xlfn.DISPIMG("ID_DADA1D4D162C45BEA35731746238B350",1)</f>
         <v>=DISPIMG("ID_DADA1D4D162C45BEA35731746238B350",1)</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="2"/>
-    </row>
-    <row r="89" ht="46.75" spans="1:3">
-      <c r="A89" t="s">
-        <v>136</v>
-      </c>
-      <c r="B89" t="s">
-        <v>137</v>
-      </c>
-      <c r="C89" t="str">
+    <row r="104" spans="2:2">
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" ht="46.75" spans="1:3">
+      <c r="A105" t="s">
+        <v>166</v>
+      </c>
+      <c r="B105" t="s">
+        <v>167</v>
+      </c>
+      <c r="C105" t="str">
         <f>_xlfn.DISPIMG("ID_C3C7153D3C5546ECAABE343A9D67B050",1)</f>
         <v>=DISPIMG("ID_C3C7153D3C5546ECAABE343A9D67B050",1)</v>
       </c>
     </row>
-    <row r="90" ht="45.7" spans="1:3">
-      <c r="A90" t="s">
-        <v>138</v>
-      </c>
-      <c r="B90" t="s">
-        <v>139</v>
-      </c>
-      <c r="C90" t="str">
+    <row r="106" ht="45.7" spans="1:3">
+      <c r="A106" t="s">
+        <v>168</v>
+      </c>
+      <c r="B106" t="s">
+        <v>169</v>
+      </c>
+      <c r="C106" t="str">
         <f>_xlfn.DISPIMG("ID_ED4C3446C57D4EC192B4E2B201C79557",1)</f>
         <v>=DISPIMG("ID_ED4C3446C57D4EC192B4E2B201C79557",1)</v>
       </c>
     </row>
-    <row r="91" ht="66.75" spans="1:3">
-      <c r="A91" t="s">
-        <v>140</v>
-      </c>
-      <c r="B91" t="s">
-        <v>141</v>
-      </c>
-      <c r="C91" t="str">
+    <row r="107" ht="66.75" spans="1:3">
+      <c r="A107" t="s">
+        <v>170</v>
+      </c>
+      <c r="B107" t="s">
+        <v>171</v>
+      </c>
+      <c r="C107" t="str">
         <f>_xlfn.DISPIMG("ID_FA14C601293B49BEB509E9A9593E6DEA",1)</f>
         <v>=DISPIMG("ID_FA14C601293B49BEB509E9A9593E6DEA",1)</v>
       </c>
     </row>
-    <row r="92" ht="52.55" spans="1:3">
-      <c r="A92" t="s">
-        <v>142</v>
-      </c>
-      <c r="B92" t="s">
-        <v>143</v>
-      </c>
-      <c r="C92" t="str">
+    <row r="108" ht="52.55" spans="1:3">
+      <c r="A108" t="s">
+        <v>172</v>
+      </c>
+      <c r="B108" t="s">
+        <v>173</v>
+      </c>
+      <c r="C108" t="str">
         <f>_xlfn.DISPIMG("ID_2FAA249904BF4AE2AC3BF4FFD29CCB3E",1)</f>
         <v>=DISPIMG("ID_2FAA249904BF4AE2AC3BF4FFD29CCB3E",1)</v>
       </c>
     </row>
-    <row r="93" ht="54" spans="1:3">
-      <c r="A93" t="s">
-        <v>144</v>
-      </c>
-      <c r="B93" t="s">
-        <v>145</v>
-      </c>
-      <c r="C93" t="str">
+    <row r="109" ht="54" spans="1:3">
+      <c r="A109" t="s">
+        <v>174</v>
+      </c>
+      <c r="B109" t="s">
+        <v>175</v>
+      </c>
+      <c r="C109" t="str">
         <f>_xlfn.DISPIMG("ID_1AFA3D03DC674D5A8778E53B7202098F",1)</f>
         <v>=DISPIMG("ID_1AFA3D03DC674D5A8778E53B7202098F",1)</v>
       </c>
     </row>
-    <row r="94" ht="46.5" spans="1:3">
-      <c r="A94" t="s">
-        <v>146</v>
-      </c>
-      <c r="B94" t="s">
-        <v>147</v>
-      </c>
-      <c r="C94" t="str">
+    <row r="110" ht="46.5" spans="1:3">
+      <c r="A110" t="s">
+        <v>176</v>
+      </c>
+      <c r="B110" t="s">
+        <v>177</v>
+      </c>
+      <c r="C110" t="str">
         <f>_xlfn.DISPIMG("ID_F30A30D5C5014CE39745290E9AA3D532",1)</f>
         <v>=DISPIMG("ID_F30A30D5C5014CE39745290E9AA3D532",1)</v>
       </c>
     </row>
-    <row r="95" ht="51.75" spans="2:3">
-      <c r="B95" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C95" t="str">
+    <row r="111" ht="51.75" spans="2:3">
+      <c r="B111" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C111" t="str">
         <f>_xlfn.DISPIMG("ID_22933007A79F41679D43DAE49F7530E1",1)</f>
         <v>=DISPIMG("ID_22933007A79F41679D43DAE49F7530E1",1)</v>
       </c>
     </row>
-    <row r="96" ht="40.6" spans="1:3">
-      <c r="A96" t="s">
-        <v>149</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C96" t="str">
+    <row r="112" ht="40.6" spans="1:3">
+      <c r="A112" t="s">
+        <v>179</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C112" t="str">
         <f>_xlfn.DISPIMG("ID_66F4E0059F58441EB6FE6885D049EDD6",1)</f>
         <v>=DISPIMG("ID_66F4E0059F58441EB6FE6885D049EDD6",1)</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="2"/>
-    </row>
-    <row r="98" ht="52.5" spans="2:3">
-      <c r="B98" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C98" t="str">
+    <row r="113" spans="2:2">
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" ht="52.5" spans="2:3">
+      <c r="B114" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C114" t="str">
         <f>_xlfn.DISPIMG("ID_E8877933CD6A48AE8029758CA1954657",1)</f>
         <v>=DISPIMG("ID_E8877933CD6A48AE8029758CA1954657",1)</v>
       </c>
     </row>
-    <row r="99" ht="55.5" spans="1:3">
-      <c r="A99" t="s">
-        <v>152</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C99" t="str">
+    <row r="115" ht="55.5" spans="1:3">
+      <c r="A115" t="s">
+        <v>182</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C115" t="str">
         <f>_xlfn.DISPIMG("ID_DDB2AAD25DE242EDADEF3E20DA9E604F",1)</f>
         <v>=DISPIMG("ID_DDB2AAD25DE242EDADEF3E20DA9E604F",1)</v>
       </c>
     </row>
-    <row r="100" ht="35.45" spans="2:3">
-      <c r="B100" t="s">
-        <v>154</v>
-      </c>
-      <c r="C100" t="str">
+    <row r="116" ht="35.45" spans="2:3">
+      <c r="B116" t="s">
+        <v>184</v>
+      </c>
+      <c r="C116" t="str">
         <f>_xlfn.DISPIMG("ID_8A3F222FA5F24EB587F41EC84F65640E",1)</f>
         <v>=DISPIMG("ID_8A3F222FA5F24EB587F41EC84F65640E",1)</v>
       </c>
     </row>
-    <row r="101" ht="54.75" spans="1:3">
-      <c r="A101" t="s">
-        <v>155</v>
-      </c>
-      <c r="B101" t="s">
-        <v>156</v>
-      </c>
-      <c r="C101" t="str">
+    <row r="117" ht="54.75" spans="1:3">
+      <c r="A117" t="s">
+        <v>185</v>
+      </c>
+      <c r="B117" t="s">
+        <v>186</v>
+      </c>
+      <c r="C117" t="str">
         <f>_xlfn.DISPIMG("ID_53C3465B758344988A12E016B6E8F124",1)</f>
         <v>=DISPIMG("ID_53C3465B758344988A12E016B6E8F124",1)</v>
       </c>
     </row>
-    <row r="102" ht="53.15" spans="1:3">
-      <c r="A102" t="s">
-        <v>157</v>
-      </c>
-      <c r="B102" t="s">
-        <v>158</v>
-      </c>
-      <c r="C102" t="str">
+    <row r="118" ht="53.15" spans="1:3">
+      <c r="A118" t="s">
+        <v>187</v>
+      </c>
+      <c r="B118" t="s">
+        <v>188</v>
+      </c>
+      <c r="C118" t="str">
         <f>_xlfn.DISPIMG("ID_A23702AEF2A34C2FA26F124F260408D5",1)</f>
         <v>=DISPIMG("ID_A23702AEF2A34C2FA26F124F260408D5",1)</v>
       </c>
     </row>
-    <row r="103" ht="48.25" spans="1:3">
-      <c r="A103" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C103" t="str">
+    <row r="119" ht="48.25" spans="1:3">
+      <c r="A119" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C119" t="str">
         <f>_xlfn.DISPIMG("ID_5FE2B6D717B84202A34C44ADA99D8606",1)</f>
         <v>=DISPIMG("ID_5FE2B6D717B84202A34C44ADA99D8606",1)</v>
       </c>
     </row>
-    <row r="104" ht="48.75" spans="1:3">
-      <c r="A104" t="s">
-        <v>161</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C104" t="str">
+    <row r="120" ht="48.75" spans="1:3">
+      <c r="A120" t="s">
+        <v>191</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C120" t="str">
         <f>_xlfn.DISPIMG("ID_DE16622908324B5C845BF53EE8FA0EE9",1)</f>
         <v>=DISPIMG("ID_DE16622908324B5C845BF53EE8FA0EE9",1)</v>
       </c>
     </row>
-    <row r="105" ht="38.65" spans="1:3">
-      <c r="A105" t="s">
-        <v>163</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C105" t="str">
+    <row r="121" ht="38.65" spans="1:3">
+      <c r="A121" t="s">
+        <v>193</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C121" t="str">
         <f>_xlfn.DISPIMG("ID_6D77EC53A91642839B81ACF0C0E45A48",1)</f>
         <v>=DISPIMG("ID_6D77EC53A91642839B81ACF0C0E45A48",1)</v>
       </c>
     </row>
-    <row r="106" ht="54" spans="1:3">
-      <c r="A106" t="s">
-        <v>165</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C106" t="str">
+    <row r="122" ht="54" spans="1:3">
+      <c r="A122" t="s">
+        <v>195</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C122" t="str">
         <f>_xlfn.DISPIMG("ID_A5B26B88572849BF8B98C54E98A5033D",1)</f>
         <v>=DISPIMG("ID_A5B26B88572849BF8B98C54E98A5033D",1)</v>
       </c>
     </row>
-    <row r="107" ht="54.75" spans="1:3">
-      <c r="A107" t="s">
-        <v>167</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C107" t="str">
+    <row r="123" ht="54.75" spans="1:3">
+      <c r="A123" t="s">
+        <v>197</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C123" t="str">
         <f>_xlfn.DISPIMG("ID_A3DD8E2FF8964B9C8850FD61A7C26128",1)</f>
         <v>=DISPIMG("ID_A3DD8E2FF8964B9C8850FD61A7C26128",1)</v>
       </c>
     </row>
-    <row r="108" ht="41.4" spans="2:3">
-      <c r="B108" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C108" t="str">
+    <row r="124" ht="41.4" spans="2:3">
+      <c r="B124" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C124" t="str">
         <f>_xlfn.DISPIMG("ID_F949643B242C4191846E2555F344B0B4",1)</f>
         <v>=DISPIMG("ID_F949643B242C4191846E2555F344B0B4",1)</v>
       </c>
     </row>
-    <row r="109" ht="46.75" spans="2:3">
-      <c r="B109" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C109" t="str">
+    <row r="125" ht="46.75" spans="2:3">
+      <c r="B125" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C125" t="str">
         <f>_xlfn.DISPIMG("ID_9D738A3F24C24A8195141EB18B14F2AE",1)</f>
         <v>=DISPIMG("ID_9D738A3F24C24A8195141EB18B14F2AE",1)</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="2"/>
-    </row>
-    <row r="111" ht="24.3" spans="1:3">
-      <c r="A111" t="s">
-        <v>171</v>
-      </c>
-      <c r="B111" t="s">
-        <v>172</v>
-      </c>
-      <c r="C111" t="str">
+    <row r="126" spans="2:2">
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" ht="24.3" spans="1:3">
+      <c r="A127" t="s">
+        <v>201</v>
+      </c>
+      <c r="B127" t="s">
+        <v>202</v>
+      </c>
+      <c r="C127" t="str">
         <f>_xlfn.DISPIMG("ID_3FA7868F9A6A43BF94F4F173E98EA809",1)</f>
         <v>=DISPIMG("ID_3FA7868F9A6A43BF94F4F173E98EA809",1)</v>
       </c>
     </row>
-    <row r="112" ht="26.75" spans="1:3">
-      <c r="A112" t="s">
-        <v>173</v>
-      </c>
-      <c r="B112" t="s">
-        <v>174</v>
-      </c>
-      <c r="C112" t="str">
+    <row r="128" ht="26.75" spans="1:3">
+      <c r="A128" t="s">
+        <v>203</v>
+      </c>
+      <c r="B128" t="s">
+        <v>204</v>
+      </c>
+      <c r="C128" t="str">
         <f>_xlfn.DISPIMG("ID_77123EE3B3C34EDB93F93BC615D36D7B",1)</f>
         <v>=DISPIMG("ID_77123EE3B3C34EDB93F93BC615D36D7B",1)</v>
       </c>
     </row>
-    <row r="113" ht="24.1" spans="1:3">
-      <c r="A113" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B113" t="s">
-        <v>176</v>
-      </c>
-      <c r="C113" t="str">
+    <row r="129" ht="24.1" spans="1:3">
+      <c r="A129" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B129" t="s">
+        <v>206</v>
+      </c>
+      <c r="C129" t="str">
         <f>_xlfn.DISPIMG("ID_243736512BDB483A96DF390A4F5647E9",1)</f>
         <v>=DISPIMG("ID_243736512BDB483A96DF390A4F5647E9",1)</v>
       </c>
     </row>
-    <row r="114" ht="27.2" spans="1:3">
-      <c r="A114" t="s">
-        <v>177</v>
-      </c>
-      <c r="B114" t="s">
-        <v>178</v>
-      </c>
-      <c r="C114" t="str">
+    <row r="130" ht="27.2" spans="1:3">
+      <c r="A130" t="s">
+        <v>207</v>
+      </c>
+      <c r="B130" t="s">
+        <v>208</v>
+      </c>
+      <c r="C130" t="str">
         <f>_xlfn.DISPIMG("ID_4288D26C7A86449591822D317F14C9A9",1)</f>
         <v>=DISPIMG("ID_4288D26C7A86449591822D317F14C9A9",1)</v>
       </c>
     </row>
-    <row r="116" ht="38.5" spans="1:3">
-      <c r="A116" t="s">
-        <v>179</v>
-      </c>
-      <c r="B116" t="s">
-        <v>180</v>
-      </c>
-      <c r="C116" t="str">
+    <row r="132" ht="38.5" spans="1:3">
+      <c r="A132" t="s">
+        <v>209</v>
+      </c>
+      <c r="B132" t="s">
+        <v>210</v>
+      </c>
+      <c r="C132" t="str">
         <f>_xlfn.DISPIMG("ID_99C647C189AD4535B6B2F67EE8C1011F",1)</f>
         <v>=DISPIMG("ID_99C647C189AD4535B6B2F67EE8C1011F",1)</v>
       </c>
     </row>
-    <row r="117" ht="37.5" spans="1:3">
-      <c r="A117" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B117" t="s">
-        <v>182</v>
-      </c>
-      <c r="C117" t="str">
+    <row r="133" ht="37.5" spans="1:3">
+      <c r="A133" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B133" t="s">
+        <v>212</v>
+      </c>
+      <c r="C133" t="str">
         <f>_xlfn.DISPIMG("ID_7E1B92CB79BB4CBDB44BE975FC4F18F6",1)</f>
         <v>=DISPIMG("ID_7E1B92CB79BB4CBDB44BE975FC4F18F6",1)</v>
       </c>
     </row>
-    <row r="118" ht="28.8" spans="1:3">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C118" t="str">
+    <row r="134" ht="28.8" spans="1:3">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C134" t="str">
         <f>_xlfn.DISPIMG("ID_292A425AA21B444F80B74593B048F053",1)</f>
         <v>=DISPIMG("ID_292A425AA21B444F80B74593B048F053",1)</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-    </row>
-    <row r="120" ht="24" spans="1:3">
-      <c r="A120" t="s">
-        <v>184</v>
-      </c>
-      <c r="B120" t="s">
-        <v>185</v>
-      </c>
-      <c r="C120" t="str">
+    <row r="135" spans="1:2">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136" ht="24" spans="1:3">
+      <c r="A136" t="s">
+        <v>214</v>
+      </c>
+      <c r="B136" t="s">
+        <v>215</v>
+      </c>
+      <c r="C136" t="str">
         <f>_xlfn.DISPIMG("ID_AE433C0368614DA8A6CFB28364FB3F92",1)</f>
         <v>=DISPIMG("ID_AE433C0368614DA8A6CFB28364FB3F92",1)</v>
       </c>
     </row>
-    <row r="121" ht="27.65" spans="1:3">
-      <c r="A121" t="s">
-        <v>186</v>
-      </c>
-      <c r="B121" t="s">
-        <v>187</v>
-      </c>
-      <c r="C121" t="str">
+    <row r="137" ht="27.65" spans="1:3">
+      <c r="A137" t="s">
+        <v>216</v>
+      </c>
+      <c r="B137" t="s">
+        <v>217</v>
+      </c>
+      <c r="C137" t="str">
         <f>_xlfn.DISPIMG("ID_12C40AEE324A44C2B34E864C00A53736",1)</f>
         <v>=DISPIMG("ID_12C40AEE324A44C2B34E864C00A53736",1)</v>
       </c>
     </row>
-    <row r="123" ht="31.25" spans="1:3">
-      <c r="A123" t="s">
-        <v>188</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C123" t="str">
+    <row r="139" ht="31.25" spans="1:3">
+      <c r="A139" t="s">
+        <v>218</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C139" t="str">
         <f>_xlfn.DISPIMG("ID_6FBA0D7C30224E079A14E388B7A80A26",1)</f>
         <v>=DISPIMG("ID_6FBA0D7C30224E079A14E388B7A80A26",1)</v>
       </c>
     </row>
-    <row r="124" ht="32.3" spans="1:3">
-      <c r="A124" t="s">
-        <v>190</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C124" t="str">
+    <row r="140" ht="32.3" spans="1:3">
+      <c r="A140" t="s">
+        <v>220</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C140" t="str">
         <f>_xlfn.DISPIMG("ID_7A818E3013914853A9EFDEAE9BF6E772",1)</f>
         <v>=DISPIMG("ID_7A818E3013914853A9EFDEAE9BF6E772",1)</v>
       </c>
     </row>
-    <row r="125" ht="40.55" spans="1:3">
-      <c r="A125" t="s">
-        <v>192</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C125" t="str">
+    <row r="141" ht="40.55" spans="1:3">
+      <c r="A141" t="s">
+        <v>222</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C141" t="str">
         <f>_xlfn.DISPIMG("ID_35576D90A4CC457E8EE0FBEFB585AAA1",1)</f>
         <v>=DISPIMG("ID_35576D90A4CC457E8EE0FBEFB585AAA1",1)</v>
       </c>
     </row>
-    <row r="126" ht="38.45" spans="1:3">
-      <c r="A126" t="s">
-        <v>194</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C126" t="str">
+    <row r="142" ht="38.45" spans="1:3">
+      <c r="A142" t="s">
+        <v>224</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C142" t="str">
         <f>_xlfn.DISPIMG("ID_2450844B1E604A0DB88E8A1DC84FB60D",1)</f>
         <v>=DISPIMG("ID_2450844B1E604A0DB88E8A1DC84FB60D",1)</v>
       </c>
     </row>
-    <row r="127" ht="29.65" spans="1:3">
-      <c r="A127" t="s">
-        <v>196</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C127" t="str">
+    <row r="143" ht="29.65" spans="1:3">
+      <c r="A143" t="s">
+        <v>226</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C143" t="str">
         <f>_xlfn.DISPIMG("ID_9EB8D6673CDD4F89B9D9C1788830AB97",1)</f>
         <v>=DISPIMG("ID_9EB8D6673CDD4F89B9D9C1788830AB97",1)</v>
       </c>
     </row>
-    <row r="128" ht="36.9" spans="1:3">
-      <c r="A128" t="s">
-        <v>198</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C128" t="str">
+    <row r="144" ht="36.9" spans="1:3">
+      <c r="A144" t="s">
+        <v>228</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C144" t="str">
         <f>_xlfn.DISPIMG("ID_D44602CEC63A45A1BFBFFC2A86D3929E",1)</f>
         <v>=DISPIMG("ID_D44602CEC63A45A1BFBFFC2A86D3929E",1)</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="2"/>
-    </row>
-    <row r="130" ht="57.75" spans="1:3">
-      <c r="A130" t="s">
-        <v>200</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C130" t="str">
+    <row r="145" spans="2:2">
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" ht="57.75" spans="1:3">
+      <c r="A146" t="s">
+        <v>230</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C146" t="str">
         <f>_xlfn.DISPIMG("ID_001EB6649E074AEDA1E631DC1B8B9F87",1)</f>
         <v>=DISPIMG("ID_001EB6649E074AEDA1E631DC1B8B9F87",1)</v>
       </c>
     </row>
-    <row r="131" ht="53.25" spans="1:3">
-      <c r="A131" t="s">
-        <v>202</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C131" t="str">
+    <row r="147" ht="53.25" spans="1:3">
+      <c r="A147" t="s">
+        <v>232</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C147" t="str">
         <f>_xlfn.DISPIMG("ID_45A90FAAFB0140418241F61FAF883B8E",1)</f>
         <v>=DISPIMG("ID_45A90FAAFB0140418241F61FAF883B8E",1)</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="2"/>
-    </row>
-    <row r="133" ht="51" spans="1:3">
-      <c r="A133" t="s">
-        <v>204</v>
-      </c>
-      <c r="B133" t="s">
-        <v>205</v>
-      </c>
-      <c r="C133" t="str">
+    <row r="148" spans="2:2">
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" ht="51" spans="1:3">
+      <c r="A149" t="s">
+        <v>234</v>
+      </c>
+      <c r="B149" t="s">
+        <v>235</v>
+      </c>
+      <c r="C149" t="str">
         <f>_xlfn.DISPIMG("ID_C3F436A1EC5742BFB78E8C7F9625BC69",1)</f>
         <v>=DISPIMG("ID_C3F436A1EC5742BFB78E8C7F9625BC69",1)</v>
       </c>
     </row>
-    <row r="135" ht="60.75" spans="1:3">
-      <c r="A135" t="s">
-        <v>206</v>
-      </c>
-      <c r="B135" t="s">
-        <v>207</v>
-      </c>
-      <c r="C135" t="str">
+    <row r="151" ht="60.75" spans="1:3">
+      <c r="A151" t="s">
+        <v>236</v>
+      </c>
+      <c r="B151" t="s">
+        <v>237</v>
+      </c>
+      <c r="C151" t="str">
         <f>_xlfn.DISPIMG("ID_4D85187A9A02416CBACCAAF102A3C801",1)</f>
         <v>=DISPIMG("ID_4D85187A9A02416CBACCAAF102A3C801",1)</v>
       </c>
     </row>
-    <row r="137" ht="48" spans="1:3">
-      <c r="A137" t="s">
-        <v>208</v>
-      </c>
-      <c r="B137" t="s">
-        <v>209</v>
-      </c>
-      <c r="C137" t="str">
+    <row r="153" ht="48" spans="1:3">
+      <c r="A153" t="s">
+        <v>238</v>
+      </c>
+      <c r="B153" t="s">
+        <v>239</v>
+      </c>
+      <c r="C153" t="str">
         <f>_xlfn.DISPIMG("ID_92A1827F52AB481BA921C8ADBCDE3193",1)</f>
         <v>=DISPIMG("ID_92A1827F52AB481BA921C8ADBCDE3193",1)</v>
       </c>
     </row>
-    <row r="138" ht="52.5" spans="2:3">
-      <c r="B138" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C138" t="str">
+    <row r="154" ht="52.5" spans="2:3">
+      <c r="B154" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C154" t="str">
         <f>_xlfn.DISPIMG("ID_B6DD3F78EDDD44DA851F1C36846E5094",1)</f>
         <v>=DISPIMG("ID_B6DD3F78EDDD44DA851F1C36846E5094",1)</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="2"/>
-    </row>
-    <row r="140" ht="71.35" spans="1:3">
-      <c r="A140" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B140" t="s">
-        <v>212</v>
-      </c>
-      <c r="C140" t="str">
+    <row r="155" spans="2:2">
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156" ht="71.35" spans="1:3">
+      <c r="A156" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B156" t="s">
+        <v>242</v>
+      </c>
+      <c r="C156" t="str">
         <f>_xlfn.DISPIMG("ID_0344F8B15CD941A387CDAD6DAD5F42DE",1)</f>
         <v>=DISPIMG("ID_0344F8B15CD941A387CDAD6DAD5F42DE",1)</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A140" r:id="rId1" display="2243815-18-9" tooltip="https://commonchemistry.cas.org/detail?cas_rn=2243815-18-9"/>
+    <hyperlink ref="A156" r:id="rId1" display="2243815-18-9" tooltip="https://commonchemistry.cas.org/detail?cas_rn=2243815-18-9"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/未管制品种增补目录.xlsx
+++ b/未管制品种增补目录.xlsx
@@ -3711,11 +3711,562 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="ID_E3684A825DB444C4A58C84456213940C"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId128"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="42943145"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="ID_24E7D4A667AB4355841A5D53EA456781"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId129"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="42760265"/>
+          <a:ext cx="1104900" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="131" name="ID_DB0DB7EAC831447E8127E03D525DBC71"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId130"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="42577385"/>
+          <a:ext cx="771525" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="132" name="ID_88BAC56BB5774A549663A40B4B5156E8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId131"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="43126025"/>
+          <a:ext cx="1247775" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="133" name="ID_0543505CEB224B09B82CBABBC6595654"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId132"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="85445600"/>
+          <a:ext cx="1047750" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="ID_56804EAEFB72440891DF124DFD33B589"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId133"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="85262720"/>
+          <a:ext cx="962025" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="135" name="ID_C8B7AA6B43F142EBA95ECDEE9049A391"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId134"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="85079840"/>
+          <a:ext cx="981075" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="136" name="ID_74B6DE2FD5F047A49E492821FDAACABB"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId135"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="84896960"/>
+          <a:ext cx="809625" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="137" name="ID_F2F45869962B4490ABD03C30EC0C1584"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId136"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="85628480"/>
+          <a:ext cx="1123950" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="138" name="ID_C7E147945B1F4B95A134760252CC3C1B"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId137"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="90339545"/>
+          <a:ext cx="847725" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="139" name="ID_C97FBDC856B64BDCA66F8D4472DFADE3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId138"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="90156665"/>
+          <a:ext cx="1028700" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="140" name="ID_ACE9D7218F464E9A8BF19EC29BCDBB0E"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId139"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="89973785"/>
+          <a:ext cx="971550" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="141" name="ID_B1FEDA88166741298690BCDDFDFA712A"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId140"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="90705305"/>
+          <a:ext cx="1019175" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="142" name="ID_B30135380C484DB3A49F060902582BCB"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId141"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="94051120"/>
+          <a:ext cx="1038225" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="143" name="ID_0BA784BE913A4014BA5CEBFACA0139F1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId142"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="93868240"/>
+          <a:ext cx="923925" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="144" name="ID_E588568C964B4212B16EBBE8E05C441A"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId143"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="93685360"/>
+          <a:ext cx="1171575" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="145" name="ID_9662ED28460A47CCA461E29E7078438E"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId144"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="93502480"/>
+          <a:ext cx="885825" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="146" name="ID_6C24A420478C4801BF8B93E850426379"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId145"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="94234000"/>
+          <a:ext cx="1123950" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="147" name="ID_F064BA48D72140DFBF170BF3007E5CFA"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId146"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="97333435"/>
+          <a:ext cx="563880" cy="708660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="279">
   <si>
     <t>CAS号</t>
   </si>
@@ -4066,6 +4617,30 @@
     <t>3-{(R)-Dimethylamino-[(1R,2R)-2-hydroxycyclohexyl]}methyl]phenol</t>
   </si>
   <si>
+    <t>114538-73-7</t>
+  </si>
+  <si>
+    <t>4-ethylsulfonyl-N,N-dimethyl-4,4-diphenylbutan-2-amine</t>
+  </si>
+  <si>
+    <t>1767-88-0</t>
+  </si>
+  <si>
+    <t>4-(Morpholin-4-yl)-2,2-diphenyl-1-(pyrrolidin-1-yl)butan-1-one</t>
+  </si>
+  <si>
+    <t>60996-94-3</t>
+  </si>
+  <si>
+    <t>4,4-diphenyl-6-(1-pyrrolidinyl)-heptan-3-one</t>
+  </si>
+  <si>
+    <t>66194-36-3</t>
+  </si>
+  <si>
+    <t>6-{3,4-dihydro-2H-spiro[naphthalene-1,4'-piperidine]-1'-yl}-4,4-diphenylhexan-3-one</t>
+  </si>
+  <si>
     <t>152674-96-9</t>
   </si>
   <si>
@@ -4420,6 +4995,36 @@
     <t>methyl 2-(4-fluorophenyl)-2-piperidin-2-ylacetate</t>
   </si>
   <si>
+    <t>24558-01-8</t>
+  </si>
+  <si>
+    <t>[(R)-phenyl-[(2R)-piperidin-2-yl]methyl] acetate</t>
+  </si>
+  <si>
+    <t>2865958-69-4</t>
+  </si>
+  <si>
+    <t>Methyl 2-(3-bromophenyl)-2-(piperidin-2-yl)acetate</t>
+  </si>
+  <si>
+    <t>2160555-59-7</t>
+  </si>
+  <si>
+    <t>Ethyl 2-(4-fluorophenyl)-2-(piperidin-2-yl)acetate</t>
+  </si>
+  <si>
+    <t>231299-82-4</t>
+  </si>
+  <si>
+    <t>Methyl (naphthalen-2-yl)(piperidin-2-yl)acetate</t>
+  </si>
+  <si>
+    <t>2170529-69-6</t>
+  </si>
+  <si>
+    <t>Ethyl (naphthalen-2-yl)(piperidin-2-yl)acetate</t>
+  </si>
+  <si>
     <t>22348-34-9</t>
   </si>
   <si>
@@ -4432,6 +5037,27 @@
     <t>3-Chlorophenmetrazine</t>
   </si>
   <si>
+    <t>2-(1,3-benzodioxol-5-yl)-3-methylmorpholine</t>
+  </si>
+  <si>
+    <t>1350769-57-1</t>
+  </si>
+  <si>
+    <t>3-methyl-2-naphthalen-2-ylmorpholine</t>
+  </si>
+  <si>
+    <t>1094649-71-4</t>
+  </si>
+  <si>
+    <t>3-methyl-2-(4-methylphenyl)morpholine</t>
+  </si>
+  <si>
+    <t>1350768-49-8</t>
+  </si>
+  <si>
+    <t>2-(3-methoxyphenyl)-3-methylmorpholine</t>
+  </si>
+  <si>
     <t>4260-20-2</t>
   </si>
   <si>
@@ -4441,10 +5067,43 @@
     <t>3-(2-chlorophenyl)-2-phenylquinazolin-4(3H)-one</t>
   </si>
   <si>
+    <t>3-(2,3-dihydroxypropyl)-2-methyl-quinazolin-4-one</t>
+  </si>
+  <si>
+    <t>6-Amino-2-(fluoromethyl)-3-(2-methylphenyl)quinazolin-4-one</t>
+  </si>
+  <si>
+    <t>340-52-3</t>
+  </si>
+  <si>
+    <t>2-methyl-3-(2-methoxy-4-nitrophenyl)-4(3H)-quinazolinone</t>
+  </si>
+  <si>
+    <t>4260-28-0</t>
+  </si>
+  <si>
+    <t>3-(2-methoxyphenyl)-2-methylquinazolin-4(3H)-one</t>
+  </si>
+  <si>
+    <t>3244-75-5</t>
+  </si>
+  <si>
+    <t>3-(2,4-dimethylphenyl)-2-methylquinazolin-4(3H)-one</t>
+  </si>
+  <si>
+    <t>36518-02-2</t>
+  </si>
+  <si>
     <t>2243815-18-9</t>
   </si>
   <si>
     <t>Flunitrazolam</t>
+  </si>
+  <si>
+    <t>31352-82-6</t>
+  </si>
+  <si>
+    <t>Zolazepam</t>
   </si>
 </sst>
 </file>
@@ -5610,18 +6269,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D79:D81"/>
+      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="41.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="67.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="13.8888888888889"/>
   </cols>
   <sheetData>
@@ -5913,7 +6572,7 @@
       <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C30" t="str">
@@ -5985,7 +6644,7 @@
       <c r="A37" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C37" t="str">
@@ -5997,7 +6656,7 @@
       <c r="A38" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C38" t="str">
@@ -6006,7 +6665,7 @@
       </c>
     </row>
     <row r="39" ht="43.2" spans="2:3">
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C39" t="str">
@@ -6015,7 +6674,7 @@
       </c>
     </row>
     <row r="40" ht="59.25" spans="2:3">
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C40" t="str">
@@ -6024,7 +6683,7 @@
       </c>
     </row>
     <row r="42" ht="82.8" spans="2:3">
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C42" t="str">
@@ -6036,7 +6695,7 @@
       <c r="A43" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C43" t="str">
@@ -6048,7 +6707,7 @@
       <c r="A44" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C44" t="str">
@@ -6057,7 +6716,7 @@
       </c>
     </row>
     <row r="45" ht="65.45" spans="2:3">
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C45" t="str">
@@ -6069,7 +6728,7 @@
       <c r="A46" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C46" t="str">
@@ -6081,7 +6740,7 @@
       <c r="A47" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C47" t="str">
@@ -6093,7 +6752,7 @@
       <c r="A48" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C48" t="str">
@@ -6105,7 +6764,7 @@
       <c r="A49" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C49" t="str">
@@ -6117,7 +6776,7 @@
       <c r="A50" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C50" t="str">
@@ -6126,13 +6785,13 @@
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="3"/>
+      <c r="B51" s="2"/>
     </row>
     <row r="52" ht="69.1" spans="1:3">
       <c r="A52" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C52" t="str">
@@ -6144,7 +6803,7 @@
       <c r="A53" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C53" t="str">
@@ -6156,7 +6815,7 @@
       <c r="A54" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C54" t="str">
@@ -6168,7 +6827,7 @@
       <c r="A55" t="s">
         <v>86</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C55" t="str">
@@ -6180,7 +6839,7 @@
       <c r="A56" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C56" t="str">
@@ -6192,7 +6851,7 @@
       <c r="A57" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C57" t="str">
@@ -6204,7 +6863,7 @@
       <c r="A58" t="s">
         <v>92</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C58" t="str">
@@ -6216,7 +6875,7 @@
       <c r="A59" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C59" t="str">
@@ -6225,13 +6884,13 @@
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="3"/>
+      <c r="B60" s="2"/>
     </row>
     <row r="61" ht="43.2" spans="1:3">
       <c r="A61" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C61" t="str">
@@ -6243,7 +6902,7 @@
       <c r="A62" t="s">
         <v>98</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C62" t="str">
@@ -6267,7 +6926,7 @@
       <c r="A65" t="s">
         <v>102</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C65" t="str">
@@ -6276,13 +6935,13 @@
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="3"/>
+      <c r="B66" s="2"/>
     </row>
     <row r="67" ht="45.6" spans="1:3">
       <c r="A67" t="s">
         <v>104</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C67" t="str">
@@ -6294,7 +6953,7 @@
       <c r="A68" t="s">
         <v>106</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C68" t="str">
@@ -6303,13 +6962,13 @@
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="3"/>
+      <c r="B69" s="2"/>
     </row>
     <row r="70" ht="49.5" spans="1:3">
       <c r="A70" t="s">
         <v>108</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C70" t="str">
@@ -6318,13 +6977,13 @@
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="3"/>
+      <c r="B71" s="2"/>
     </row>
     <row r="72" ht="60" spans="1:3">
       <c r="A72" t="s">
         <v>110</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C72" t="str">
@@ -6333,13 +6992,13 @@
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="3"/>
+      <c r="B73" s="2"/>
     </row>
     <row r="74" ht="55.5" spans="1:3">
       <c r="A74" t="s">
         <v>112</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C74" t="str">
@@ -6348,13 +7007,13 @@
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="3"/>
+      <c r="B75" s="2"/>
     </row>
     <row r="76" ht="40.25" spans="1:3">
       <c r="A76" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C76" t="str">
@@ -6362,7 +7021,7 @@
         <v>=DISPIMG("ID_E7BAF9679D4543DA8400E2A31177D95E",1)</v>
       </c>
     </row>
-    <row r="78" ht="43.2" spans="1:3">
+    <row r="78" ht="75" spans="1:3">
       <c r="A78" t="s">
         <v>116</v>
       </c>
@@ -6370,807 +7029,1032 @@
         <v>117</v>
       </c>
       <c r="C78" t="str">
+        <f>_xlfn.DISPIMG("ID_DB0DB7EAC831447E8127E03D525DBC71",1)</f>
+        <v>=DISPIMG("ID_DB0DB7EAC831447E8127E03D525DBC71",1)</v>
+      </c>
+    </row>
+    <row r="79" ht="57.3" spans="1:3">
+      <c r="A79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" t="str">
+        <f>_xlfn.DISPIMG("ID_24E7D4A667AB4355841A5D53EA456781",1)</f>
+        <v>=DISPIMG("ID_24E7D4A667AB4355841A5D53EA456781",1)</v>
+      </c>
+    </row>
+    <row r="80" ht="67.5" spans="1:3">
+      <c r="A80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" t="str">
+        <f>_xlfn.DISPIMG("ID_E3684A825DB444C4A58C84456213940C",1)</f>
+        <v>=DISPIMG("ID_E3684A825DB444C4A58C84456213940C",1)</v>
+      </c>
+    </row>
+    <row r="81" ht="60.65" spans="1:3">
+      <c r="A81" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" t="str">
+        <f>_xlfn.DISPIMG("ID_88BAC56BB5774A549663A40B4B5156E8",1)</f>
+        <v>=DISPIMG("ID_88BAC56BB5774A549663A40B4B5156E8",1)</v>
+      </c>
+    </row>
+    <row r="83" ht="43.2" spans="1:3">
+      <c r="A83" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" t="str">
         <f>_xlfn.DISPIMG("ID_1D53CF384E7A465FA833A88ED90CAF08",1)</f>
         <v>=DISPIMG("ID_1D53CF384E7A465FA833A88ED90CAF08",1)</v>
       </c>
     </row>
-    <row r="79" ht="49.6" spans="1:3">
-      <c r="A79" t="s">
-        <v>118</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C79" t="str">
+    <row r="84" ht="49.6" spans="1:3">
+      <c r="A84" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" t="str">
         <f>_xlfn.DISPIMG("ID_A2BCA97CED3B4E08ADBB3EC87BA871ED",1)</f>
         <v>=DISPIMG("ID_A2BCA97CED3B4E08ADBB3EC87BA871ED",1)</v>
       </c>
     </row>
-    <row r="80" ht="43.2" spans="1:3">
-      <c r="A80" t="s">
-        <v>120</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C80" t="str">
+    <row r="85" ht="43.2" spans="1:3">
+      <c r="A85" t="s">
+        <v>128</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" t="str">
         <f>_xlfn.DISPIMG("ID_9621ADCC2B5B4920A85908034E68D169",1)</f>
         <v>=DISPIMG("ID_9621ADCC2B5B4920A85908034E68D169",1)</v>
       </c>
     </row>
-    <row r="81" ht="43.2" spans="1:3">
-      <c r="A81" t="s">
-        <v>122</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" t="str">
+    <row r="86" ht="43.2" spans="1:3">
+      <c r="A86" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" t="str">
         <f>_xlfn.DISPIMG("ID_CF25BC6AED2F43A1B0C6A31A78BB3B3A",1)</f>
         <v>=DISPIMG("ID_CF25BC6AED2F43A1B0C6A31A78BB3B3A",1)</v>
       </c>
     </row>
-    <row r="82" ht="57.6" spans="1:3">
-      <c r="A82" t="s">
-        <v>124</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C82" t="str">
+    <row r="87" ht="57.6" spans="1:3">
+      <c r="A87" t="s">
+        <v>132</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C87" t="str">
         <f>_xlfn.DISPIMG("ID_3DE16B52CD81487CA89BC1F1D813D62C",1)</f>
         <v>=DISPIMG("ID_3DE16B52CD81487CA89BC1F1D813D62C",1)</v>
       </c>
     </row>
-    <row r="83" ht="57.6" spans="1:3">
-      <c r="A83" t="s">
-        <v>126</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C83" t="str">
+    <row r="88" ht="57.6" spans="1:3">
+      <c r="A88" t="s">
+        <v>134</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" t="str">
         <f>_xlfn.DISPIMG("ID_B6951C49546A4F22B1E2671F30D5BDB6",1)</f>
         <v>=DISPIMG("ID_B6951C49546A4F22B1E2671F30D5BDB6",1)</v>
       </c>
     </row>
-    <row r="84" ht="57.6" spans="1:3">
-      <c r="A84" t="s">
-        <v>128</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C84" t="str">
+    <row r="89" ht="57.6" spans="1:3">
+      <c r="A89" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C89" t="str">
         <f>_xlfn.DISPIMG("ID_D8970940F3AC40B89172A999CA515403",1)</f>
         <v>=DISPIMG("ID_D8970940F3AC40B89172A999CA515403",1)</v>
       </c>
     </row>
-    <row r="85" ht="57.6" spans="1:3">
-      <c r="A85" t="s">
-        <v>130</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C85" t="str">
+    <row r="90" ht="57.6" spans="1:3">
+      <c r="A90" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C90" t="str">
         <f>_xlfn.DISPIMG("ID_28E7D91F6C394542A96022461C79BA15",1)</f>
         <v>=DISPIMG("ID_28E7D91F6C394542A96022461C79BA15",1)</v>
       </c>
     </row>
-    <row r="86" ht="57.6" spans="1:3">
-      <c r="A86" t="s">
-        <v>132</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C86" t="str">
+    <row r="91" ht="57.6" spans="1:3">
+      <c r="A91" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" t="str">
         <f>_xlfn.DISPIMG("ID_F3C2B2D08FE94AC8AB1E32DF56EB1C2D",1)</f>
         <v>=DISPIMG("ID_F3C2B2D08FE94AC8AB1E32DF56EB1C2D",1)</v>
       </c>
     </row>
-    <row r="87" ht="71.15" spans="1:3">
-      <c r="A87" t="s">
-        <v>134</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C87" t="str">
+    <row r="92" ht="71.15" spans="1:3">
+      <c r="A92" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C92" t="str">
         <f>_xlfn.DISPIMG("ID_B69479F8B3B7401C9A495FA8F053AC84",1)</f>
         <v>=DISPIMG("ID_B69479F8B3B7401C9A495FA8F053AC84",1)</v>
       </c>
     </row>
-    <row r="88" ht="75" spans="1:3">
-      <c r="A88" t="s">
-        <v>136</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C88" t="str">
+    <row r="93" ht="75" spans="1:3">
+      <c r="A93" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" t="str">
         <f>_xlfn.DISPIMG("ID_23F1F9DC6BE644CCA5C1DDAE02ADE9FC",1)</f>
         <v>=DISPIMG("ID_23F1F9DC6BE644CCA5C1DDAE02ADE9FC",1)</v>
       </c>
     </row>
-    <row r="89" ht="75" spans="1:3">
-      <c r="A89" t="s">
-        <v>138</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C89" t="str">
+    <row r="94" ht="75" spans="1:3">
+      <c r="A94" t="s">
+        <v>146</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" t="str">
         <f>_xlfn.DISPIMG("ID_311C7DCA20124247949F960E6AF83633",1)</f>
         <v>=DISPIMG("ID_311C7DCA20124247949F960E6AF83633",1)</v>
       </c>
     </row>
-    <row r="90" ht="75" spans="1:3">
-      <c r="A90" t="s">
-        <v>140</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C90" t="str">
+    <row r="95" ht="75" spans="1:3">
+      <c r="A95" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" t="str">
         <f>_xlfn.DISPIMG("ID_48594AD68DD84B2099837F0E4E5DD0E5",1)</f>
         <v>=DISPIMG("ID_48594AD68DD84B2099837F0E4E5DD0E5",1)</v>
       </c>
     </row>
-    <row r="91" ht="57.6" spans="1:3">
-      <c r="A91" t="s">
-        <v>142</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C91" t="str">
+    <row r="96" ht="57.6" spans="1:3">
+      <c r="A96" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C96" t="str">
         <f>_xlfn.DISPIMG("ID_391D7E36C0B5474BB072331A515A799A",1)</f>
         <v>=DISPIMG("ID_391D7E36C0B5474BB072331A515A799A",1)</v>
       </c>
     </row>
-    <row r="92" ht="57.6" spans="1:3">
-      <c r="A92" t="s">
-        <v>144</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C92" t="str">
+    <row r="97" ht="57.6" spans="1:3">
+      <c r="A97" t="s">
+        <v>152</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97" t="str">
         <f>_xlfn.DISPIMG("ID_F0AEAB59FA05435A8E3C466C679C848E",1)</f>
         <v>=DISPIMG("ID_F0AEAB59FA05435A8E3C466C679C848E",1)</v>
       </c>
     </row>
-    <row r="94" ht="42.75" spans="1:3">
-      <c r="A94" t="s">
-        <v>146</v>
-      </c>
-      <c r="B94" t="s">
-        <v>147</v>
-      </c>
-      <c r="C94" t="str">
+    <row r="99" ht="42.75" spans="1:3">
+      <c r="A99" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" t="s">
+        <v>155</v>
+      </c>
+      <c r="C99" t="str">
         <f>_xlfn.DISPIMG("ID_B54125181D09494B8DB5D37F528D7C71",1)</f>
         <v>=DISPIMG("ID_B54125181D09494B8DB5D37F528D7C71",1)</v>
       </c>
     </row>
-    <row r="95" ht="43.5" spans="1:3">
-      <c r="A95" t="s">
-        <v>148</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C95" t="str">
+    <row r="100" ht="43.5" spans="1:3">
+      <c r="A100" t="s">
+        <v>156</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" t="str">
         <f>_xlfn.DISPIMG("ID_9B6FF47063D44198944D18CAFD4C2662",1)</f>
         <v>=DISPIMG("ID_9B6FF47063D44198944D18CAFD4C2662",1)</v>
       </c>
     </row>
-    <row r="96" ht="51" spans="1:3">
-      <c r="A96" t="s">
-        <v>150</v>
-      </c>
-      <c r="B96" t="s">
-        <v>151</v>
-      </c>
-      <c r="C96" t="str">
+    <row r="101" ht="51" spans="1:3">
+      <c r="A101" t="s">
+        <v>158</v>
+      </c>
+      <c r="B101" t="s">
+        <v>159</v>
+      </c>
+      <c r="C101" t="str">
         <f>_xlfn.DISPIMG("ID_2E5D38CC78DA428FBDFECBA21FAACA8B",1)</f>
         <v>=DISPIMG("ID_2E5D38CC78DA428FBDFECBA21FAACA8B",1)</v>
       </c>
     </row>
-    <row r="97" ht="49.5" spans="1:3">
-      <c r="A97" t="s">
-        <v>152</v>
-      </c>
-      <c r="B97" t="s">
-        <v>153</v>
-      </c>
-      <c r="C97" t="str">
+    <row r="102" ht="49.5" spans="1:3">
+      <c r="A102" t="s">
+        <v>160</v>
+      </c>
+      <c r="B102" t="s">
+        <v>161</v>
+      </c>
+      <c r="C102" t="str">
         <f>_xlfn.DISPIMG("ID_748F131178774794AB6A82E13D193305",1)</f>
         <v>=DISPIMG("ID_748F131178774794AB6A82E13D193305",1)</v>
       </c>
     </row>
-    <row r="98" ht="51" spans="1:3">
-      <c r="A98" t="s">
-        <v>154</v>
-      </c>
-      <c r="B98" t="s">
-        <v>155</v>
-      </c>
-      <c r="C98" t="str">
+    <row r="103" ht="51" spans="1:3">
+      <c r="A103" t="s">
+        <v>162</v>
+      </c>
+      <c r="B103" t="s">
+        <v>163</v>
+      </c>
+      <c r="C103" t="str">
         <f>_xlfn.DISPIMG("ID_1C1620702E1F4D2E8F22B5DE2AF2CDB2",1)</f>
         <v>=DISPIMG("ID_1C1620702E1F4D2E8F22B5DE2AF2CDB2",1)</v>
       </c>
     </row>
-    <row r="99" ht="56.25" spans="1:3">
-      <c r="A99" t="s">
-        <v>156</v>
-      </c>
-      <c r="B99" t="s">
-        <v>157</v>
-      </c>
-      <c r="C99" t="str">
+    <row r="104" ht="56.25" spans="1:3">
+      <c r="A104" t="s">
+        <v>164</v>
+      </c>
+      <c r="B104" t="s">
+        <v>165</v>
+      </c>
+      <c r="C104" t="str">
         <f>_xlfn.DISPIMG("ID_10E910CE278B404AB7A02E0B679797DF",1)</f>
         <v>=DISPIMG("ID_10E910CE278B404AB7A02E0B679797DF",1)</v>
       </c>
     </row>
-    <row r="100" ht="63.75" spans="1:3">
-      <c r="A100" t="s">
-        <v>158</v>
-      </c>
-      <c r="B100" t="s">
-        <v>159</v>
-      </c>
-      <c r="C100" t="str">
+    <row r="105" ht="63.75" spans="1:3">
+      <c r="A105" t="s">
+        <v>166</v>
+      </c>
+      <c r="B105" t="s">
+        <v>167</v>
+      </c>
+      <c r="C105" t="str">
         <f>_xlfn.DISPIMG("ID_986DBA3438C1441BAF9DE62354265708",1)</f>
         <v>=DISPIMG("ID_986DBA3438C1441BAF9DE62354265708",1)</v>
       </c>
     </row>
-    <row r="101" ht="47.25" spans="1:3">
-      <c r="A101" t="s">
-        <v>160</v>
-      </c>
-      <c r="B101" t="s">
-        <v>161</v>
-      </c>
-      <c r="C101" t="str">
+    <row r="106" ht="47.25" spans="1:3">
+      <c r="A106" t="s">
+        <v>168</v>
+      </c>
+      <c r="B106" t="s">
+        <v>169</v>
+      </c>
+      <c r="C106" t="str">
         <f>_xlfn.DISPIMG("ID_0DE526D44FB9482EA92FA3F4AE9B1248",1)</f>
         <v>=DISPIMG("ID_0DE526D44FB9482EA92FA3F4AE9B1248",1)</v>
       </c>
     </row>
-    <row r="102" ht="40.25" spans="1:3">
-      <c r="A102" t="s">
-        <v>162</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C102" t="str">
+    <row r="107" ht="40.25" spans="1:3">
+      <c r="A107" t="s">
+        <v>170</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C107" t="str">
         <f>_xlfn.DISPIMG("ID_78AEC9A9BD164A57B9E0DA043C5DA320",1)</f>
         <v>=DISPIMG("ID_78AEC9A9BD164A57B9E0DA043C5DA320",1)</v>
       </c>
     </row>
-    <row r="103" ht="51" spans="1:3">
-      <c r="A103" t="s">
-        <v>164</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C103" t="str">
+    <row r="108" ht="51" spans="1:3">
+      <c r="A108" t="s">
+        <v>172</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C108" t="str">
         <f>_xlfn.DISPIMG("ID_DADA1D4D162C45BEA35731746238B350",1)</f>
         <v>=DISPIMG("ID_DADA1D4D162C45BEA35731746238B350",1)</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105" ht="46.75" spans="1:3">
-      <c r="A105" t="s">
-        <v>166</v>
-      </c>
-      <c r="B105" t="s">
-        <v>167</v>
-      </c>
-      <c r="C105" t="str">
+    <row r="109" spans="2:2">
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" ht="46.75" spans="1:3">
+      <c r="A110" t="s">
+        <v>174</v>
+      </c>
+      <c r="B110" t="s">
+        <v>175</v>
+      </c>
+      <c r="C110" t="str">
         <f>_xlfn.DISPIMG("ID_C3C7153D3C5546ECAABE343A9D67B050",1)</f>
         <v>=DISPIMG("ID_C3C7153D3C5546ECAABE343A9D67B050",1)</v>
       </c>
     </row>
-    <row r="106" ht="45.7" spans="1:3">
-      <c r="A106" t="s">
-        <v>168</v>
-      </c>
-      <c r="B106" t="s">
-        <v>169</v>
-      </c>
-      <c r="C106" t="str">
+    <row r="111" ht="45.7" spans="1:3">
+      <c r="A111" t="s">
+        <v>176</v>
+      </c>
+      <c r="B111" t="s">
+        <v>177</v>
+      </c>
+      <c r="C111" t="str">
         <f>_xlfn.DISPIMG("ID_ED4C3446C57D4EC192B4E2B201C79557",1)</f>
         <v>=DISPIMG("ID_ED4C3446C57D4EC192B4E2B201C79557",1)</v>
       </c>
     </row>
-    <row r="107" ht="66.75" spans="1:3">
-      <c r="A107" t="s">
-        <v>170</v>
-      </c>
-      <c r="B107" t="s">
-        <v>171</v>
-      </c>
-      <c r="C107" t="str">
+    <row r="112" ht="66.75" spans="1:3">
+      <c r="A112" t="s">
+        <v>178</v>
+      </c>
+      <c r="B112" t="s">
+        <v>179</v>
+      </c>
+      <c r="C112" t="str">
         <f>_xlfn.DISPIMG("ID_FA14C601293B49BEB509E9A9593E6DEA",1)</f>
         <v>=DISPIMG("ID_FA14C601293B49BEB509E9A9593E6DEA",1)</v>
       </c>
     </row>
-    <row r="108" ht="52.55" spans="1:3">
-      <c r="A108" t="s">
-        <v>172</v>
-      </c>
-      <c r="B108" t="s">
-        <v>173</v>
-      </c>
-      <c r="C108" t="str">
+    <row r="113" ht="52.55" spans="1:3">
+      <c r="A113" t="s">
+        <v>180</v>
+      </c>
+      <c r="B113" t="s">
+        <v>181</v>
+      </c>
+      <c r="C113" t="str">
         <f>_xlfn.DISPIMG("ID_2FAA249904BF4AE2AC3BF4FFD29CCB3E",1)</f>
         <v>=DISPIMG("ID_2FAA249904BF4AE2AC3BF4FFD29CCB3E",1)</v>
       </c>
     </row>
-    <row r="109" ht="54" spans="1:3">
-      <c r="A109" t="s">
-        <v>174</v>
-      </c>
-      <c r="B109" t="s">
-        <v>175</v>
-      </c>
-      <c r="C109" t="str">
+    <row r="114" ht="54" spans="1:3">
+      <c r="A114" t="s">
+        <v>182</v>
+      </c>
+      <c r="B114" t="s">
+        <v>183</v>
+      </c>
+      <c r="C114" t="str">
         <f>_xlfn.DISPIMG("ID_1AFA3D03DC674D5A8778E53B7202098F",1)</f>
         <v>=DISPIMG("ID_1AFA3D03DC674D5A8778E53B7202098F",1)</v>
       </c>
     </row>
-    <row r="110" ht="46.5" spans="1:3">
-      <c r="A110" t="s">
-        <v>176</v>
-      </c>
-      <c r="B110" t="s">
-        <v>177</v>
-      </c>
-      <c r="C110" t="str">
+    <row r="115" ht="46.5" spans="1:3">
+      <c r="A115" t="s">
+        <v>184</v>
+      </c>
+      <c r="B115" t="s">
+        <v>185</v>
+      </c>
+      <c r="C115" t="str">
         <f>_xlfn.DISPIMG("ID_F30A30D5C5014CE39745290E9AA3D532",1)</f>
         <v>=DISPIMG("ID_F30A30D5C5014CE39745290E9AA3D532",1)</v>
       </c>
     </row>
-    <row r="111" ht="51.75" spans="2:3">
-      <c r="B111" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C111" t="str">
+    <row r="116" ht="51.75" spans="2:3">
+      <c r="B116" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C116" t="str">
         <f>_xlfn.DISPIMG("ID_22933007A79F41679D43DAE49F7530E1",1)</f>
         <v>=DISPIMG("ID_22933007A79F41679D43DAE49F7530E1",1)</v>
       </c>
     </row>
-    <row r="112" ht="40.6" spans="1:3">
-      <c r="A112" t="s">
-        <v>179</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C112" t="str">
+    <row r="117" ht="40.6" spans="1:3">
+      <c r="A117" t="s">
+        <v>187</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C117" t="str">
         <f>_xlfn.DISPIMG("ID_66F4E0059F58441EB6FE6885D049EDD6",1)</f>
         <v>=DISPIMG("ID_66F4E0059F58441EB6FE6885D049EDD6",1)</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="2"/>
-    </row>
-    <row r="114" ht="52.5" spans="2:3">
-      <c r="B114" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C114" t="str">
+    <row r="118" spans="2:2">
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" ht="52.5" spans="2:3">
+      <c r="B119" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C119" t="str">
         <f>_xlfn.DISPIMG("ID_E8877933CD6A48AE8029758CA1954657",1)</f>
         <v>=DISPIMG("ID_E8877933CD6A48AE8029758CA1954657",1)</v>
       </c>
     </row>
-    <row r="115" ht="55.5" spans="1:3">
-      <c r="A115" t="s">
-        <v>182</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C115" t="str">
+    <row r="120" ht="55.5" spans="1:3">
+      <c r="A120" t="s">
+        <v>190</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C120" t="str">
         <f>_xlfn.DISPIMG("ID_DDB2AAD25DE242EDADEF3E20DA9E604F",1)</f>
         <v>=DISPIMG("ID_DDB2AAD25DE242EDADEF3E20DA9E604F",1)</v>
       </c>
     </row>
-    <row r="116" ht="35.45" spans="2:3">
-      <c r="B116" t="s">
-        <v>184</v>
-      </c>
-      <c r="C116" t="str">
+    <row r="121" ht="35.45" spans="2:3">
+      <c r="B121" t="s">
+        <v>192</v>
+      </c>
+      <c r="C121" t="str">
         <f>_xlfn.DISPIMG("ID_8A3F222FA5F24EB587F41EC84F65640E",1)</f>
         <v>=DISPIMG("ID_8A3F222FA5F24EB587F41EC84F65640E",1)</v>
       </c>
     </row>
-    <row r="117" ht="54.75" spans="1:3">
-      <c r="A117" t="s">
-        <v>185</v>
-      </c>
-      <c r="B117" t="s">
-        <v>186</v>
-      </c>
-      <c r="C117" t="str">
+    <row r="122" ht="54.75" spans="1:3">
+      <c r="A122" t="s">
+        <v>193</v>
+      </c>
+      <c r="B122" t="s">
+        <v>194</v>
+      </c>
+      <c r="C122" t="str">
         <f>_xlfn.DISPIMG("ID_53C3465B758344988A12E016B6E8F124",1)</f>
         <v>=DISPIMG("ID_53C3465B758344988A12E016B6E8F124",1)</v>
       </c>
     </row>
-    <row r="118" ht="53.15" spans="1:3">
-      <c r="A118" t="s">
-        <v>187</v>
-      </c>
-      <c r="B118" t="s">
-        <v>188</v>
-      </c>
-      <c r="C118" t="str">
+    <row r="123" ht="53.15" spans="1:3">
+      <c r="A123" t="s">
+        <v>195</v>
+      </c>
+      <c r="B123" t="s">
+        <v>196</v>
+      </c>
+      <c r="C123" t="str">
         <f>_xlfn.DISPIMG("ID_A23702AEF2A34C2FA26F124F260408D5",1)</f>
         <v>=DISPIMG("ID_A23702AEF2A34C2FA26F124F260408D5",1)</v>
       </c>
     </row>
-    <row r="119" ht="48.25" spans="1:3">
-      <c r="A119" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C119" t="str">
+    <row r="124" ht="48.25" spans="1:3">
+      <c r="A124" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C124" t="str">
         <f>_xlfn.DISPIMG("ID_5FE2B6D717B84202A34C44ADA99D8606",1)</f>
         <v>=DISPIMG("ID_5FE2B6D717B84202A34C44ADA99D8606",1)</v>
       </c>
     </row>
-    <row r="120" ht="48.75" spans="1:3">
-      <c r="A120" t="s">
-        <v>191</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C120" t="str">
+    <row r="125" ht="48.75" spans="1:3">
+      <c r="A125" t="s">
+        <v>199</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C125" t="str">
         <f>_xlfn.DISPIMG("ID_DE16622908324B5C845BF53EE8FA0EE9",1)</f>
         <v>=DISPIMG("ID_DE16622908324B5C845BF53EE8FA0EE9",1)</v>
       </c>
     </row>
-    <row r="121" ht="38.65" spans="1:3">
-      <c r="A121" t="s">
-        <v>193</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C121" t="str">
+    <row r="126" ht="38.65" spans="1:3">
+      <c r="A126" t="s">
+        <v>201</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C126" t="str">
         <f>_xlfn.DISPIMG("ID_6D77EC53A91642839B81ACF0C0E45A48",1)</f>
         <v>=DISPIMG("ID_6D77EC53A91642839B81ACF0C0E45A48",1)</v>
       </c>
     </row>
-    <row r="122" ht="54" spans="1:3">
-      <c r="A122" t="s">
-        <v>195</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C122" t="str">
+    <row r="127" ht="54" spans="1:3">
+      <c r="A127" t="s">
+        <v>203</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C127" t="str">
         <f>_xlfn.DISPIMG("ID_A5B26B88572849BF8B98C54E98A5033D",1)</f>
         <v>=DISPIMG("ID_A5B26B88572849BF8B98C54E98A5033D",1)</v>
       </c>
     </row>
-    <row r="123" ht="54.75" spans="1:3">
-      <c r="A123" t="s">
-        <v>197</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C123" t="str">
+    <row r="128" ht="54.75" spans="1:3">
+      <c r="A128" t="s">
+        <v>205</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C128" t="str">
         <f>_xlfn.DISPIMG("ID_A3DD8E2FF8964B9C8850FD61A7C26128",1)</f>
         <v>=DISPIMG("ID_A3DD8E2FF8964B9C8850FD61A7C26128",1)</v>
       </c>
     </row>
-    <row r="124" ht="41.4" spans="2:3">
-      <c r="B124" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C124" t="str">
+    <row r="129" ht="41.4" spans="2:3">
+      <c r="B129" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C129" t="str">
         <f>_xlfn.DISPIMG("ID_F949643B242C4191846E2555F344B0B4",1)</f>
         <v>=DISPIMG("ID_F949643B242C4191846E2555F344B0B4",1)</v>
       </c>
     </row>
-    <row r="125" ht="46.75" spans="2:3">
-      <c r="B125" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C125" t="str">
+    <row r="130" ht="46.75" spans="2:3">
+      <c r="B130" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C130" t="str">
         <f>_xlfn.DISPIMG("ID_9D738A3F24C24A8195141EB18B14F2AE",1)</f>
         <v>=DISPIMG("ID_9D738A3F24C24A8195141EB18B14F2AE",1)</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="2"/>
-    </row>
-    <row r="127" ht="24.3" spans="1:3">
-      <c r="A127" t="s">
-        <v>201</v>
-      </c>
-      <c r="B127" t="s">
-        <v>202</v>
-      </c>
-      <c r="C127" t="str">
+    <row r="131" spans="2:2">
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" ht="24.3" spans="1:3">
+      <c r="A132" t="s">
+        <v>209</v>
+      </c>
+      <c r="B132" t="s">
+        <v>210</v>
+      </c>
+      <c r="C132" t="str">
         <f>_xlfn.DISPIMG("ID_3FA7868F9A6A43BF94F4F173E98EA809",1)</f>
         <v>=DISPIMG("ID_3FA7868F9A6A43BF94F4F173E98EA809",1)</v>
       </c>
     </row>
-    <row r="128" ht="26.75" spans="1:3">
-      <c r="A128" t="s">
-        <v>203</v>
-      </c>
-      <c r="B128" t="s">
-        <v>204</v>
-      </c>
-      <c r="C128" t="str">
+    <row r="133" ht="26.75" spans="1:3">
+      <c r="A133" t="s">
+        <v>211</v>
+      </c>
+      <c r="B133" t="s">
+        <v>212</v>
+      </c>
+      <c r="C133" t="str">
         <f>_xlfn.DISPIMG("ID_77123EE3B3C34EDB93F93BC615D36D7B",1)</f>
         <v>=DISPIMG("ID_77123EE3B3C34EDB93F93BC615D36D7B",1)</v>
       </c>
     </row>
-    <row r="129" ht="24.1" spans="1:3">
-      <c r="A129" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B129" t="s">
-        <v>206</v>
-      </c>
-      <c r="C129" t="str">
+    <row r="134" ht="24.1" spans="1:3">
+      <c r="A134" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B134" t="s">
+        <v>214</v>
+      </c>
+      <c r="C134" t="str">
         <f>_xlfn.DISPIMG("ID_243736512BDB483A96DF390A4F5647E9",1)</f>
         <v>=DISPIMG("ID_243736512BDB483A96DF390A4F5647E9",1)</v>
       </c>
     </row>
-    <row r="130" ht="27.2" spans="1:3">
-      <c r="A130" t="s">
-        <v>207</v>
-      </c>
-      <c r="B130" t="s">
-        <v>208</v>
-      </c>
-      <c r="C130" t="str">
+    <row r="135" ht="27.2" spans="1:3">
+      <c r="A135" t="s">
+        <v>215</v>
+      </c>
+      <c r="B135" t="s">
+        <v>216</v>
+      </c>
+      <c r="C135" t="str">
         <f>_xlfn.DISPIMG("ID_4288D26C7A86449591822D317F14C9A9",1)</f>
         <v>=DISPIMG("ID_4288D26C7A86449591822D317F14C9A9",1)</v>
       </c>
     </row>
-    <row r="132" ht="38.5" spans="1:3">
-      <c r="A132" t="s">
-        <v>209</v>
-      </c>
-      <c r="B132" t="s">
-        <v>210</v>
-      </c>
-      <c r="C132" t="str">
+    <row r="137" ht="38.5" spans="1:3">
+      <c r="A137" t="s">
+        <v>217</v>
+      </c>
+      <c r="B137" t="s">
+        <v>218</v>
+      </c>
+      <c r="C137" t="str">
         <f>_xlfn.DISPIMG("ID_99C647C189AD4535B6B2F67EE8C1011F",1)</f>
         <v>=DISPIMG("ID_99C647C189AD4535B6B2F67EE8C1011F",1)</v>
       </c>
     </row>
-    <row r="133" ht="37.5" spans="1:3">
-      <c r="A133" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B133" t="s">
-        <v>212</v>
-      </c>
-      <c r="C133" t="str">
+    <row r="138" ht="37.5" spans="1:3">
+      <c r="A138" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B138" t="s">
+        <v>220</v>
+      </c>
+      <c r="C138" t="str">
         <f>_xlfn.DISPIMG("ID_7E1B92CB79BB4CBDB44BE975FC4F18F6",1)</f>
         <v>=DISPIMG("ID_7E1B92CB79BB4CBDB44BE975FC4F18F6",1)</v>
       </c>
     </row>
-    <row r="134" ht="28.8" spans="1:3">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C134" t="str">
+    <row r="139" ht="28.8" spans="1:3">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C139" t="str">
         <f>_xlfn.DISPIMG("ID_292A425AA21B444F80B74593B048F053",1)</f>
         <v>=DISPIMG("ID_292A425AA21B444F80B74593B048F053",1)</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-    </row>
-    <row r="136" ht="24" spans="1:3">
-      <c r="A136" t="s">
-        <v>214</v>
-      </c>
-      <c r="B136" t="s">
-        <v>215</v>
-      </c>
-      <c r="C136" t="str">
+    <row r="140" spans="1:2">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" ht="24" spans="1:3">
+      <c r="A141" t="s">
+        <v>222</v>
+      </c>
+      <c r="B141" t="s">
+        <v>223</v>
+      </c>
+      <c r="C141" t="str">
         <f>_xlfn.DISPIMG("ID_AE433C0368614DA8A6CFB28364FB3F92",1)</f>
         <v>=DISPIMG("ID_AE433C0368614DA8A6CFB28364FB3F92",1)</v>
       </c>
     </row>
-    <row r="137" ht="27.65" spans="1:3">
-      <c r="A137" t="s">
-        <v>216</v>
-      </c>
-      <c r="B137" t="s">
-        <v>217</v>
-      </c>
-      <c r="C137" t="str">
+    <row r="142" ht="27.65" spans="1:3">
+      <c r="A142" t="s">
+        <v>224</v>
+      </c>
+      <c r="B142" t="s">
+        <v>225</v>
+      </c>
+      <c r="C142" t="str">
         <f>_xlfn.DISPIMG("ID_12C40AEE324A44C2B34E864C00A53736",1)</f>
         <v>=DISPIMG("ID_12C40AEE324A44C2B34E864C00A53736",1)</v>
       </c>
     </row>
-    <row r="139" ht="31.25" spans="1:3">
-      <c r="A139" t="s">
-        <v>218</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C139" t="str">
+    <row r="144" ht="31.25" spans="1:3">
+      <c r="A144" t="s">
+        <v>226</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C144" t="str">
         <f>_xlfn.DISPIMG("ID_6FBA0D7C30224E079A14E388B7A80A26",1)</f>
         <v>=DISPIMG("ID_6FBA0D7C30224E079A14E388B7A80A26",1)</v>
       </c>
     </row>
-    <row r="140" ht="32.3" spans="1:3">
-      <c r="A140" t="s">
-        <v>220</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C140" t="str">
+    <row r="145" ht="32.3" spans="1:3">
+      <c r="A145" t="s">
+        <v>228</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C145" t="str">
         <f>_xlfn.DISPIMG("ID_7A818E3013914853A9EFDEAE9BF6E772",1)</f>
         <v>=DISPIMG("ID_7A818E3013914853A9EFDEAE9BF6E772",1)</v>
       </c>
     </row>
-    <row r="141" ht="40.55" spans="1:3">
-      <c r="A141" t="s">
-        <v>222</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C141" t="str">
+    <row r="146" ht="40.55" spans="1:3">
+      <c r="A146" t="s">
+        <v>230</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C146" t="str">
         <f>_xlfn.DISPIMG("ID_35576D90A4CC457E8EE0FBEFB585AAA1",1)</f>
         <v>=DISPIMG("ID_35576D90A4CC457E8EE0FBEFB585AAA1",1)</v>
       </c>
     </row>
-    <row r="142" ht="38.45" spans="1:3">
-      <c r="A142" t="s">
-        <v>224</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C142" t="str">
+    <row r="147" ht="38.45" spans="1:3">
+      <c r="A147" t="s">
+        <v>232</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C147" t="str">
         <f>_xlfn.DISPIMG("ID_2450844B1E604A0DB88E8A1DC84FB60D",1)</f>
         <v>=DISPIMG("ID_2450844B1E604A0DB88E8A1DC84FB60D",1)</v>
       </c>
     </row>
-    <row r="143" ht="29.65" spans="1:3">
-      <c r="A143" t="s">
-        <v>226</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C143" t="str">
+    <row r="148" ht="29.65" spans="1:3">
+      <c r="A148" t="s">
+        <v>234</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C148" t="str">
         <f>_xlfn.DISPIMG("ID_9EB8D6673CDD4F89B9D9C1788830AB97",1)</f>
         <v>=DISPIMG("ID_9EB8D6673CDD4F89B9D9C1788830AB97",1)</v>
       </c>
     </row>
-    <row r="144" ht="36.9" spans="1:3">
-      <c r="A144" t="s">
-        <v>228</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C144" t="str">
+    <row r="149" ht="36.9" spans="1:3">
+      <c r="A149" t="s">
+        <v>236</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C149" t="str">
         <f>_xlfn.DISPIMG("ID_D44602CEC63A45A1BFBFFC2A86D3929E",1)</f>
         <v>=DISPIMG("ID_D44602CEC63A45A1BFBFFC2A86D3929E",1)</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="2"/>
-    </row>
-    <row r="146" ht="57.75" spans="1:3">
-      <c r="A146" t="s">
-        <v>230</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C146" t="str">
+    <row r="150" spans="2:2">
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" ht="57.75" spans="1:3">
+      <c r="A151" t="s">
+        <v>238</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C151" t="str">
         <f>_xlfn.DISPIMG("ID_001EB6649E074AEDA1E631DC1B8B9F87",1)</f>
         <v>=DISPIMG("ID_001EB6649E074AEDA1E631DC1B8B9F87",1)</v>
       </c>
     </row>
-    <row r="147" ht="53.25" spans="1:3">
-      <c r="A147" t="s">
-        <v>232</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C147" t="str">
+    <row r="152" ht="54.8" spans="1:3">
+      <c r="A152" t="s">
+        <v>240</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C152" t="str">
         <f>_xlfn.DISPIMG("ID_45A90FAAFB0140418241F61FAF883B8E",1)</f>
         <v>=DISPIMG("ID_45A90FAAFB0140418241F61FAF883B8E",1)</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="2"/>
-    </row>
-    <row r="149" ht="51" spans="1:3">
-      <c r="A149" t="s">
-        <v>234</v>
-      </c>
-      <c r="B149" t="s">
-        <v>235</v>
-      </c>
-      <c r="C149" t="str">
+    <row r="153" ht="52.05" spans="1:3">
+      <c r="A153" t="s">
+        <v>242</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C153" t="str">
+        <f>_xlfn.DISPIMG("ID_74B6DE2FD5F047A49E492821FDAACABB",1)</f>
+        <v>=DISPIMG("ID_74B6DE2FD5F047A49E492821FDAACABB",1)</v>
+      </c>
+    </row>
+    <row r="154" ht="50.1" spans="1:3">
+      <c r="A154" t="s">
+        <v>244</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C154" t="str">
+        <f>_xlfn.DISPIMG("ID_C8B7AA6B43F142EBA95ECDEE9049A391",1)</f>
+        <v>=DISPIMG("ID_C8B7AA6B43F142EBA95ECDEE9049A391",1)</v>
+      </c>
+    </row>
+    <row r="155" ht="57.6" spans="1:3">
+      <c r="A155" t="s">
+        <v>246</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C155" t="str">
+        <f>_xlfn.DISPIMG("ID_56804EAEFB72440891DF124DFD33B589",1)</f>
+        <v>=DISPIMG("ID_56804EAEFB72440891DF124DFD33B589",1)</v>
+      </c>
+    </row>
+    <row r="156" ht="48.35" spans="1:3">
+      <c r="A156" t="s">
+        <v>248</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C156" t="str">
+        <f>_xlfn.DISPIMG("ID_0543505CEB224B09B82CBABBC6595654",1)</f>
+        <v>=DISPIMG("ID_0543505CEB224B09B82CBABBC6595654",1)</v>
+      </c>
+    </row>
+    <row r="157" ht="49.55" spans="1:3">
+      <c r="A157" t="s">
+        <v>250</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C157" t="str">
+        <f>_xlfn.DISPIMG("ID_F2F45869962B4490ABD03C30EC0C1584",1)</f>
+        <v>=DISPIMG("ID_F2F45869962B4490ABD03C30EC0C1584",1)</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="2"/>
+    </row>
+    <row r="159" ht="51" spans="1:3">
+      <c r="A159" t="s">
+        <v>252</v>
+      </c>
+      <c r="B159" t="s">
+        <v>253</v>
+      </c>
+      <c r="C159" t="str">
         <f>_xlfn.DISPIMG("ID_C3F436A1EC5742BFB78E8C7F9625BC69",1)</f>
         <v>=DISPIMG("ID_C3F436A1EC5742BFB78E8C7F9625BC69",1)</v>
       </c>
     </row>
-    <row r="151" ht="60.75" spans="1:3">
-      <c r="A151" t="s">
-        <v>236</v>
-      </c>
-      <c r="B151" t="s">
-        <v>237</v>
-      </c>
-      <c r="C151" t="str">
+    <row r="161" ht="60.75" spans="1:3">
+      <c r="A161" t="s">
+        <v>254</v>
+      </c>
+      <c r="B161" t="s">
+        <v>255</v>
+      </c>
+      <c r="C161" t="str">
         <f>_xlfn.DISPIMG("ID_4D85187A9A02416CBACCAAF102A3C801",1)</f>
         <v>=DISPIMG("ID_4D85187A9A02416CBACCAAF102A3C801",1)</v>
       </c>
     </row>
-    <row r="153" ht="48" spans="1:3">
-      <c r="A153" t="s">
-        <v>238</v>
-      </c>
-      <c r="B153" t="s">
-        <v>239</v>
-      </c>
-      <c r="C153" t="str">
+    <row r="162" ht="42.7" spans="2:3">
+      <c r="B162" t="s">
+        <v>256</v>
+      </c>
+      <c r="C162" t="str">
+        <f>_xlfn.DISPIMG("ID_ACE9D7218F464E9A8BF19EC29BCDBB0E",1)</f>
+        <v>=DISPIMG("ID_ACE9D7218F464E9A8BF19EC29BCDBB0E",1)</v>
+      </c>
+    </row>
+    <row r="163" ht="37" spans="1:3">
+      <c r="A163" t="s">
+        <v>257</v>
+      </c>
+      <c r="B163" t="s">
+        <v>258</v>
+      </c>
+      <c r="C163" t="str">
+        <f>_xlfn.DISPIMG("ID_C97FBDC856B64BDCA66F8D4472DFADE3",1)</f>
+        <v>=DISPIMG("ID_C97FBDC856B64BDCA66F8D4472DFADE3",1)</v>
+      </c>
+    </row>
+    <row r="164" ht="44.55" spans="1:3">
+      <c r="A164" t="s">
+        <v>259</v>
+      </c>
+      <c r="B164" t="s">
+        <v>260</v>
+      </c>
+      <c r="C164" t="str">
+        <f>_xlfn.DISPIMG("ID_C7E147945B1F4B95A134760252CC3C1B",1)</f>
+        <v>=DISPIMG("ID_C7E147945B1F4B95A134760252CC3C1B",1)</v>
+      </c>
+    </row>
+    <row r="165" ht="38.7" spans="1:3">
+      <c r="A165" t="s">
+        <v>261</v>
+      </c>
+      <c r="B165" t="s">
+        <v>262</v>
+      </c>
+      <c r="C165" t="str">
+        <f>_xlfn.DISPIMG("ID_B1FEDA88166741298690BCDDFDFA712A",1)</f>
+        <v>=DISPIMG("ID_B1FEDA88166741298690BCDDFDFA712A",1)</v>
+      </c>
+    </row>
+    <row r="167" ht="48" spans="1:3">
+      <c r="A167" t="s">
+        <v>263</v>
+      </c>
+      <c r="B167" t="s">
+        <v>264</v>
+      </c>
+      <c r="C167" t="str">
         <f>_xlfn.DISPIMG("ID_92A1827F52AB481BA921C8ADBCDE3193",1)</f>
         <v>=DISPIMG("ID_92A1827F52AB481BA921C8ADBCDE3193",1)</v>
       </c>
     </row>
-    <row r="154" ht="52.5" spans="2:3">
-      <c r="B154" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C154" t="str">
+    <row r="168" ht="53" spans="2:3">
+      <c r="B168" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C168" t="str">
         <f>_xlfn.DISPIMG("ID_B6DD3F78EDDD44DA851F1C36846E5094",1)</f>
         <v>=DISPIMG("ID_B6DD3F78EDDD44DA851F1C36846E5094",1)</v>
       </c>
     </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="2"/>
-    </row>
-    <row r="156" ht="71.35" spans="1:3">
-      <c r="A156" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B156" t="s">
-        <v>242</v>
-      </c>
-      <c r="C156" t="str">
+    <row r="169" ht="54.3" spans="1:3">
+      <c r="A169" t="s">
+        <v>266</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C169" t="str">
+        <f>_xlfn.DISPIMG("ID_9662ED28460A47CCA461E29E7078438E",1)</f>
+        <v>=DISPIMG("ID_9662ED28460A47CCA461E29E7078438E",1)</v>
+      </c>
+    </row>
+    <row r="170" ht="39.85" spans="1:3">
+      <c r="A170" t="s">
+        <v>268</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C170" t="str">
+        <f>_xlfn.DISPIMG("ID_E588568C964B4212B16EBBE8E05C441A",1)</f>
+        <v>=DISPIMG("ID_E588568C964B4212B16EBBE8E05C441A",1)</v>
+      </c>
+    </row>
+    <row r="171" ht="45.3" spans="1:3">
+      <c r="A171" t="s">
+        <v>270</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C171" t="str">
+        <f>_xlfn.DISPIMG("ID_0BA784BE913A4014BA5CEBFACA0139F1",1)</f>
+        <v>=DISPIMG("ID_0BA784BE913A4014BA5CEBFACA0139F1",1)</v>
+      </c>
+    </row>
+    <row r="172" ht="40.05" spans="1:3">
+      <c r="A172" t="s">
+        <v>272</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C172" t="str">
+        <f>_xlfn.DISPIMG("ID_B30135380C484DB3A49F060902582BCB",1)</f>
+        <v>=DISPIMG("ID_B30135380C484DB3A49F060902582BCB",1)</v>
+      </c>
+    </row>
+    <row r="173" ht="35.9" spans="1:3">
+      <c r="A173" t="s">
+        <v>274</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C173" t="str">
+        <f>_xlfn.DISPIMG("ID_6C24A420478C4801BF8B93E850426379",1)</f>
+        <v>=DISPIMG("ID_6C24A420478C4801BF8B93E850426379",1)</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175" ht="71.45" spans="1:3">
+      <c r="A175" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B175" t="s">
+        <v>276</v>
+      </c>
+      <c r="C175" t="str">
         <f>_xlfn.DISPIMG("ID_0344F8B15CD941A387CDAD6DAD5F42DE",1)</f>
         <v>=DISPIMG("ID_0344F8B15CD941A387CDAD6DAD5F42DE",1)</v>
       </c>
     </row>
+    <row r="176" ht="57.6" spans="1:3">
+      <c r="A176" t="s">
+        <v>277</v>
+      </c>
+      <c r="B176" t="s">
+        <v>278</v>
+      </c>
+      <c r="C176" t="str">
+        <f>_xlfn.DISPIMG("ID_F064BA48D72140DFBF170BF3007E5CFA",1)</f>
+        <v>=DISPIMG("ID_F064BA48D72140DFBF170BF3007E5CFA",1)</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A156" r:id="rId1" display="2243815-18-9" tooltip="https://commonchemistry.cas.org/detail?cas_rn=2243815-18-9"/>
+    <hyperlink ref="A175" r:id="rId1" display="2243815-18-9" tooltip="https://commonchemistry.cas.org/detail?cas_rn=2243815-18-9"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/未管制品种增补目录.xlsx
+++ b/未管制品种增补目录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="10500"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4262,11 +4262,359 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="148" name="ID_F999A8BB69204158A3B25B6A2183C4A8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId147"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="915035"/>
+          <a:ext cx="914400" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="149" name="ID_4DA07298DBA0429BB6149D35BB154850"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId148"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="1629410"/>
+          <a:ext cx="1123950" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="150" name="ID_4DEA0262091D48E5A59E1B8295D4E438"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId149"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="9232265"/>
+          <a:ext cx="1162050" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="151" name="ID_8B18468424014624A038341641CAD865"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId150"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="8866505"/>
+          <a:ext cx="1190625" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="152" name="ID_9D145259DCE042748B71D306FF8C7703"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId151"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="8683625"/>
+          <a:ext cx="857250" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="153" name="ID_99FF9BC1225D48BAA28ACEF45C40F27C"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId152"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="12852400"/>
+          <a:ext cx="1247775" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="154" name="ID_4233065AECC5457D8C64338DE423FE7D"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId153"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="13753465"/>
+          <a:ext cx="1019175" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="155" name="ID_4B504AD84AAD4F01BBC17D605CDDD852"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId154"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="68472050"/>
+          <a:ext cx="914400" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="156" name="ID_6A93E5240CB04D8997B3F7B73CA1ABF9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId155"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="86292055"/>
+          <a:ext cx="819150" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="157" name="ID_3C205509353D45FD9F7D4464A55D37CC"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId156"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="92038170"/>
+          <a:ext cx="838200" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="158" name="ID_EDC0268086A14D8E86F356F1F50AE0D8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId157"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="105098850"/>
+          <a:ext cx="895350" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="159" name="ID_D36A6D52594D43DB88A22DF5790F566E"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId158"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="106041825"/>
+          <a:ext cx="923925" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="298">
   <si>
     <t>CAS号</t>
   </si>
@@ -4283,11 +4631,22 @@
     <t>4-Iodo-2,5-dimethoxyphenylisopropylamine</t>
   </si>
   <si>
+    <t>52842-59-8</t>
+  </si>
+  <si>
+    <t>1-(2,5-dimethoxy-4-methylphenyl)butan-2-amine</t>
+  </si>
+  <si>
+    <t>1222814-77-8</t>
+  </si>
+  <si>
+    <t>2-[4-(2-fluoroethyl)-2,5-dimethoxyphenyl]ethanamine</t>
+  </si>
+  <si>
     <t>219986-94-4</t>
   </si>
   <si>
-    <t xml:space="preserve">1-(4-bromofuro[2,3-f][1]benzofuran-8-yl)propan-2-amine
-</t>
+    <t>1-(4-bromofuro[2,3-f][1]benzofuran-8-yl)propan-2-amine</t>
   </si>
   <si>
     <t>64778-72-9</t>
@@ -4332,6 +4691,15 @@
     <t>5-Methoxy-N,N-diethyltryptamine</t>
   </si>
   <si>
+    <t>1-t-Butyloxycarbonyl-N,N-Dimethyltryptamine</t>
+  </si>
+  <si>
+    <t>tert-butyl 3-(2-(diallylamino)ethyl)-5-methoxy-1H-indole-1-carboxylate</t>
+  </si>
+  <si>
+    <t>tert-butyl 3-(2-(isopropyl(methyl)amino)ethyl)-5-methoxy-1H-indole-1-carboxylate</t>
+  </si>
+  <si>
     <t>132367-76-1</t>
   </si>
   <si>
@@ -4353,6 +4721,12 @@
     <t>5-Methoxy-6-methyl-2-aminoindane</t>
   </si>
   <si>
+    <t>(6aR,9R)-N,N-Diethyl-7-methyl-4-Benzoyl-4,6,6a,7,8,9-hexahydroindolo[4,3-fg]quinoline-9-carboxamide</t>
+  </si>
+  <si>
+    <t>(6aR,9R)-4-(Cyclopropanecarbonyl)-N,N-diethyl-7-prop-2-enyl-,6,6a,,8,9-hexahydroindolo[4,3-fg]quinoline-9-carboxamide</t>
+  </si>
+  <si>
     <t>63916-05-2</t>
   </si>
   <si>
@@ -4779,6 +5153,12 @@
     <t>4-(1-Phenylcyclohexyl)morpholine</t>
   </si>
   <si>
+    <t>2201-64-1</t>
+  </si>
+  <si>
+    <t>N-ethyl-1-(3-methylphenyl)cyclohexan-1-amine</t>
+  </si>
+  <si>
     <t>1364933-80-1</t>
   </si>
   <si>
@@ -4935,6 +5315,12 @@
     <t>1-(3-Chlorophenyl)-4-(2-phenylethyl)piperazine</t>
   </si>
   <si>
+    <t>692720-34-6</t>
+  </si>
+  <si>
+    <t>1-(2-chlorophenyl)-2-(methylamino)propan-1-one</t>
+  </si>
+  <si>
     <t>24445-44-1</t>
   </si>
   <si>
@@ -4995,6 +5381,12 @@
     <t>methyl 2-(4-fluorophenyl)-2-piperidin-2-ylacetate</t>
   </si>
   <si>
+    <t>191790-79-1</t>
+  </si>
+  <si>
+    <t>methyl 2-(4-methylphenyl)-2-piperidin-2-ylacetate</t>
+  </si>
+  <si>
     <t>24558-01-8</t>
   </si>
   <si>
@@ -5098,6 +5490,18 @@
   </si>
   <si>
     <t>Flunitrazolam</t>
+  </si>
+  <si>
+    <t>39243-02-2</t>
+  </si>
+  <si>
+    <t>8-bromo-1-methyl-6-pyridin-2-yl-4H-[1,2,4]triazolo[4,3-a][1,4]benzodiazepine</t>
+  </si>
+  <si>
+    <t>2886-65-9</t>
+  </si>
+  <si>
+    <t>Norfludiazepam</t>
   </si>
   <si>
     <t>31352-82-6</t>
@@ -6269,12 +6673,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
+      <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -6307,1754 +6711,1887 @@
         <v>=DISPIMG("ID_919D5C4AF7AC4D1DB0C2CC1440299C02",1)</v>
       </c>
     </row>
-    <row r="3" ht="46.4" spans="1:3">
+    <row r="3" ht="56.25" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="str">
+        <f>_xlfn.DISPIMG("ID_F999A8BB69204158A3B25B6A2183C4A8",1)</f>
+        <v>=DISPIMG("ID_F999A8BB69204158A3B25B6A2183C4A8",1)</v>
+      </c>
+    </row>
+    <row r="4" ht="48.9" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="str">
+        <f>_xlfn.DISPIMG("ID_4DA07298DBA0429BB6149D35BB154850",1)</f>
+        <v>=DISPIMG("ID_4DA07298DBA0429BB6149D35BB154850",1)</v>
+      </c>
+    </row>
+    <row r="5" ht="46.4" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="str">
         <f>_xlfn.DISPIMG("ID_B0F14A0C1A724BC48198B5A9DF965859",1)</f>
         <v>=DISPIMG("ID_B0F14A0C1A724BC48198B5A9DF965859",1)</v>
       </c>
     </row>
-    <row r="4" ht="46.35" spans="1:3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="str">
+    <row r="6" ht="46.35" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="str">
         <f>_xlfn.DISPIMG("ID_782B6C025B7D4844A0081FFB1342521E",1)</f>
         <v>=DISPIMG("ID_782B6C025B7D4844A0081FFB1342521E",1)</v>
       </c>
     </row>
-    <row r="6" ht="68.45" spans="1:3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="str">
+    <row r="8" ht="68.45" spans="1:3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="str">
         <f>_xlfn.DISPIMG("ID_EB424C29CAAE4E87BC5F32F39D2E59C5",1)</f>
         <v>=DISPIMG("ID_EB424C29CAAE4E87BC5F32F39D2E59C5",1)</v>
       </c>
     </row>
-    <row r="7" ht="72.9" spans="1:3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="str">
+    <row r="9" ht="72.9" spans="1:3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="str">
         <f>_xlfn.DISPIMG("ID_C6102E0477F04118AC89A0C1E21EA7D5",1)</f>
         <v>=DISPIMG("ID_C6102E0477F04118AC89A0C1E21EA7D5",1)</v>
       </c>
     </row>
-    <row r="8" ht="64.95" spans="1:3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="str">
+    <row r="10" ht="64.95" spans="1:3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="str">
         <f>_xlfn.DISPIMG("ID_2278C36EBF964F2BBB1C381DA8A1D14E",1)</f>
         <v>=DISPIMG("ID_2278C36EBF964F2BBB1C381DA8A1D14E",1)</v>
       </c>
     </row>
-    <row r="9" ht="75" spans="1:3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="str">
+    <row r="11" ht="75" spans="1:3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="str">
         <f>_xlfn.DISPIMG("ID_A1695CA7E80543268231E73B274C83DF",1)</f>
         <v>=DISPIMG("ID_A1695CA7E80543268231E73B274C83DF",1)</v>
       </c>
     </row>
-    <row r="10" ht="60.65" spans="1:3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="str">
+    <row r="12" ht="60.65" spans="1:3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="str">
         <f>_xlfn.DISPIMG("ID_0C6F5EF6A2C742B7BD82DE5C1158B3F9",1)</f>
         <v>=DISPIMG("ID_0C6F5EF6A2C742B7BD82DE5C1158B3F9",1)</v>
       </c>
     </row>
-    <row r="11" ht="57.45" spans="1:3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="str">
+    <row r="13" ht="57.45" spans="1:3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="str">
         <f>_xlfn.DISPIMG("ID_3F05F1EA15C94DF0887F94E4B848FA04",1)</f>
         <v>=DISPIMG("ID_3F05F1EA15C94DF0887F94E4B848FA04",1)</v>
       </c>
     </row>
-    <row r="13" ht="24.75" spans="1:3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="str">
+    <row r="14" ht="69" spans="2:3">
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="str">
+        <f>_xlfn.DISPIMG("ID_9D145259DCE042748B71D306FF8C7703",1)</f>
+        <v>=DISPIMG("ID_9D145259DCE042748B71D306FF8C7703",1)</v>
+      </c>
+    </row>
+    <row r="15" ht="70.2" spans="2:3">
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="str">
+        <f>_xlfn.DISPIMG("ID_8B18468424014624A038341641CAD865",1)</f>
+        <v>=DISPIMG("ID_8B18468424014624A038341641CAD865",1)</v>
+      </c>
+    </row>
+    <row r="16" ht="61.45" spans="2:3">
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="str">
+        <f>_xlfn.DISPIMG("ID_4DEA0262091D48E5A59E1B8295D4E438",1)</f>
+        <v>=DISPIMG("ID_4DEA0262091D48E5A59E1B8295D4E438",1)</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" spans="1:3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="str">
         <f>_xlfn.DISPIMG("ID_FB9BF2C126EC4735922341E9B7FC32D3",1)</f>
         <v>=DISPIMG("ID_FB9BF2C126EC4735922341E9B7FC32D3",1)</v>
       </c>
     </row>
-    <row r="14" ht="22.55" spans="2:3">
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="str">
+    <row r="19" ht="22.55" spans="2:3">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="str">
         <f>_xlfn.DISPIMG("ID_651E18D8D7794B2082298D11DA089F86",1)</f>
         <v>=DISPIMG("ID_651E18D8D7794B2082298D11DA089F86",1)</v>
       </c>
     </row>
-    <row r="15" ht="32.65" spans="1:3">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="str">
+    <row r="20" ht="32.65" spans="1:3">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="str">
         <f>_xlfn.DISPIMG("ID_3B2421D9C20A425CABFF5AAC7C485475",1)</f>
         <v>=DISPIMG("ID_3B2421D9C20A425CABFF5AAC7C485475",1)</v>
       </c>
     </row>
-    <row r="16" ht="33.25" spans="1:3">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="str">
+    <row r="21" ht="33.25" spans="1:3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="str">
         <f>_xlfn.DISPIMG("ID_8A91BCA10E264186850B7542A5E12CB6",1)</f>
         <v>=DISPIMG("ID_8A91BCA10E264186850B7542A5E12CB6",1)</v>
       </c>
     </row>
-    <row r="18" ht="43.9" spans="1:3">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="str">
+    <row r="23" ht="70.95" spans="2:3">
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="str">
+        <f>_xlfn.DISPIMG("ID_99FF9BC1225D48BAA28ACEF45C40F27C",1)</f>
+        <v>=DISPIMG("ID_99FF9BC1225D48BAA28ACEF45C40F27C",1)</v>
+      </c>
+    </row>
+    <row r="24" ht="75" spans="2:3">
+      <c r="B24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="str">
+        <f>_xlfn.DISPIMG("ID_4233065AECC5457D8C64338DE423FE7D",1)</f>
+        <v>=DISPIMG("ID_4233065AECC5457D8C64338DE423FE7D",1)</v>
+      </c>
+    </row>
+    <row r="26" ht="43.9" spans="1:3">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="str">
         <f>_xlfn.DISPIMG("ID_829524599EDF4C97BB743BE263401099",1)</f>
         <v>=DISPIMG("ID_829524599EDF4C97BB743BE263401099",1)</v>
       </c>
     </row>
-    <row r="19" ht="36.95" spans="2:3">
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="str">
+    <row r="27" ht="36.95" spans="2:3">
+      <c r="B27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="str">
         <f>_xlfn.DISPIMG("ID_EAA5ED30BB904DF7ADD283F1072EEB2E",1)</f>
         <v>=DISPIMG("ID_EAA5ED30BB904DF7ADD283F1072EEB2E",1)</v>
       </c>
     </row>
-    <row r="20" ht="34" spans="1:3">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="str">
+    <row r="28" ht="34" spans="1:3">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="str">
         <f>_xlfn.DISPIMG("ID_94DF3013D80E49B088588A1885D59B8C",1)</f>
         <v>=DISPIMG("ID_94DF3013D80E49B088588A1885D59B8C",1)</v>
       </c>
     </row>
-    <row r="21" ht="40.5" spans="1:3">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="str">
+    <row r="29" ht="40.5" spans="1:3">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="str">
         <f>_xlfn.DISPIMG("ID_65A470F6201841E4AC6EB3E439B3DE8F",1)</f>
         <v>=DISPIMG("ID_65A470F6201841E4AC6EB3E439B3DE8F",1)</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" ht="53.2" spans="1:3">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="str">
+    <row r="30" spans="2:2">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" ht="53.2" spans="1:3">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="str">
         <f>_xlfn.DISPIMG("ID_6AF9D00EF54847F295D2769F73F03CD9",1)</f>
         <v>=DISPIMG("ID_6AF9D00EF54847F295D2769F73F03CD9",1)</v>
       </c>
     </row>
-    <row r="24" ht="57" spans="2:3">
-      <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="str">
+    <row r="32" ht="57" spans="2:3">
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="str">
         <f>_xlfn.DISPIMG("ID_17547F0031534D04B8D257F624649E7F",1)</f>
         <v>=DISPIMG("ID_17547F0031534D04B8D257F624649E7F",1)</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" ht="43.5" spans="1:3">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="str">
+    <row r="33" spans="2:2">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" ht="43.5" spans="1:3">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="str">
         <f>_xlfn.DISPIMG("ID_B8CBBEF57B76493EB65CFF82F5AA27E0",1)</f>
         <v>=DISPIMG("ID_B8CBBEF57B76493EB65CFF82F5AA27E0",1)</v>
       </c>
     </row>
-    <row r="27" ht="43.2" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="str">
+    <row r="35" ht="43.2" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="str">
         <f>_xlfn.DISPIMG("ID_AE4897C440B346B5A29B850EE7A20C60",1)</f>
         <v>=DISPIMG("ID_AE4897C440B346B5A29B850EE7A20C60",1)</v>
       </c>
     </row>
-    <row r="28" ht="48.45" spans="1:3">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="str">
+    <row r="36" ht="48.45" spans="1:3">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="str">
         <f>_xlfn.DISPIMG("ID_0AB699CC6C87423D8171BBB9F8C68688",1)</f>
         <v>=DISPIMG("ID_0AB699CC6C87423D8171BBB9F8C68688",1)</v>
       </c>
     </row>
-    <row r="29" ht="43.2" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="str">
+    <row r="37" ht="43.2" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="str">
         <f>_xlfn.DISPIMG("ID_EBF762B7B69E4E2FA4DF25B0418D0B0F",1)</f>
         <v>=DISPIMG("ID_EBF762B7B69E4E2FA4DF25B0418D0B0F",1)</v>
       </c>
     </row>
-    <row r="30" ht="51.75" spans="1:3">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" t="str">
+    <row r="38" ht="51.75" spans="1:3">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="str">
         <f>_xlfn.DISPIMG("ID_AA2DFB748661451D94459913926AEF0F",1)</f>
         <v>=DISPIMG("ID_AA2DFB748661451D94459913926AEF0F",1)</v>
       </c>
     </row>
-    <row r="31" ht="43.2" spans="1:3">
-      <c r="A31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="str">
+    <row r="39" ht="43.2" spans="1:3">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="str">
         <f>_xlfn.DISPIMG("ID_865B280A48D644FE8A8BA40EF8B33FFC",1)</f>
         <v>=DISPIMG("ID_865B280A48D644FE8A8BA40EF8B33FFC",1)</v>
       </c>
     </row>
-    <row r="32" ht="43.2" spans="1:3">
-      <c r="A32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" t="str">
+    <row r="40" ht="43.2" spans="1:3">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="str">
         <f>_xlfn.DISPIMG("ID_A0309D59FCD14CA7B1A937D92D96DDF3",1)</f>
         <v>=DISPIMG("ID_A0309D59FCD14CA7B1A937D92D96DDF3",1)</v>
       </c>
     </row>
-    <row r="33" ht="43.2" spans="1:3">
-      <c r="A33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" t="str">
+    <row r="41" ht="43.2" spans="1:3">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="str">
         <f>_xlfn.DISPIMG("ID_4139FBDDD6F44DA29F4386D273AC1204",1)</f>
         <v>=DISPIMG("ID_4139FBDDD6F44DA29F4386D273AC1204",1)</v>
       </c>
     </row>
-    <row r="34" ht="34.1" spans="1:3">
-      <c r="A34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" t="str">
+    <row r="42" ht="34.1" spans="1:3">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="str">
         <f>_xlfn.DISPIMG("ID_DEC7CB250DC945BB8CBD3D2B62BC1EB0",1)</f>
         <v>=DISPIMG("ID_DEC7CB250DC945BB8CBD3D2B62BC1EB0",1)</v>
       </c>
     </row>
-    <row r="35" ht="33.6" spans="1:3">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" t="str">
+    <row r="43" ht="33.6" spans="1:3">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="str">
         <f>_xlfn.DISPIMG("ID_FF9382D66A284D3B9BD80508F7541C11",1)</f>
         <v>=DISPIMG("ID_FF9382D66A284D3B9BD80508F7541C11",1)</v>
       </c>
     </row>
-    <row r="37" ht="43.2" spans="1:3">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" t="str">
+    <row r="45" ht="43.2" spans="1:3">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="str">
         <f>_xlfn.DISPIMG("ID_D94F0DB8909647DBBB28EDAE3EB72332",1)</f>
         <v>=DISPIMG("ID_D94F0DB8909647DBBB28EDAE3EB72332",1)</v>
       </c>
     </row>
-    <row r="38" ht="57.6" spans="1:3">
-      <c r="A38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" t="str">
+    <row r="46" ht="57.6" spans="1:3">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="str">
         <f>_xlfn.DISPIMG("ID_34C819E688AB46B5B2B487DE9F0621D0",1)</f>
         <v>=DISPIMG("ID_34C819E688AB46B5B2B487DE9F0621D0",1)</v>
       </c>
     </row>
-    <row r="39" ht="43.2" spans="2:3">
-      <c r="B39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" t="str">
+    <row r="47" ht="43.2" spans="2:3">
+      <c r="B47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="str">
         <f>_xlfn.DISPIMG("ID_D115C62B28AC4266B6AA082857E52062",1)</f>
         <v>=DISPIMG("ID_D115C62B28AC4266B6AA082857E52062",1)</v>
       </c>
     </row>
-    <row r="40" ht="59.25" spans="2:3">
-      <c r="B40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" t="str">
+    <row r="48" ht="59.25" spans="2:3">
+      <c r="B48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" t="str">
         <f>_xlfn.DISPIMG("ID_9F30B13D3A0F4130AE0F116CFE693F95",1)</f>
         <v>=DISPIMG("ID_9F30B13D3A0F4130AE0F116CFE693F95",1)</v>
       </c>
     </row>
-    <row r="42" ht="82.8" spans="2:3">
-      <c r="B42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" t="str">
+    <row r="50" ht="82.8" spans="2:3">
+      <c r="B50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" t="str">
         <f>_xlfn.DISPIMG("ID_D643DEC9553641DDB7B4FB80E6DFF700",1)</f>
         <v>=DISPIMG("ID_D643DEC9553641DDB7B4FB80E6DFF700",1)</v>
       </c>
     </row>
-    <row r="43" ht="85" spans="1:3">
-      <c r="A43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" t="str">
+    <row r="51" ht="85" spans="1:3">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="str">
         <f>_xlfn.DISPIMG("ID_24EEA67180314072B6CC844BA90CC7EE",1)</f>
         <v>=DISPIMG("ID_24EEA67180314072B6CC844BA90CC7EE",1)</v>
       </c>
     </row>
-    <row r="44" ht="62" spans="1:3">
-      <c r="A44" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" t="str">
+    <row r="52" ht="62" spans="1:3">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" t="str">
         <f>_xlfn.DISPIMG("ID_41DC15838E2D4A6CBD30E6E99CA7C6F0",1)</f>
         <v>=DISPIMG("ID_41DC15838E2D4A6CBD30E6E99CA7C6F0",1)</v>
       </c>
     </row>
-    <row r="45" ht="65.45" spans="2:3">
-      <c r="B45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" t="str">
+    <row r="53" ht="65.45" spans="2:3">
+      <c r="B53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" t="str">
         <f>_xlfn.DISPIMG("ID_7667A57E86454C8882052BC191914E1B",1)</f>
         <v>=DISPIMG("ID_7667A57E86454C8882052BC191914E1B",1)</v>
       </c>
     </row>
-    <row r="46" ht="75" spans="1:3">
-      <c r="A46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" t="str">
+    <row r="54" ht="75" spans="1:3">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="str">
         <f>_xlfn.DISPIMG("ID_016B945204454020A160E6BC45103344",1)</f>
         <v>=DISPIMG("ID_016B945204454020A160E6BC45103344",1)</v>
       </c>
     </row>
-    <row r="47" ht="45.5" spans="1:3">
-      <c r="A47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" t="str">
+    <row r="55" ht="45.5" spans="1:3">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" t="str">
         <f>_xlfn.DISPIMG("ID_3990C40384384B10B6745C2BA6338B4D",1)</f>
         <v>=DISPIMG("ID_3990C40384384B10B6745C2BA6338B4D",1)</v>
       </c>
     </row>
-    <row r="48" ht="43.25" spans="1:3">
-      <c r="A48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" t="str">
+    <row r="56" ht="43.25" spans="1:3">
+      <c r="A56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" t="str">
         <f>_xlfn.DISPIMG("ID_770A2E6E2CDF4230ABE6FD76A4FBACBD",1)</f>
         <v>=DISPIMG("ID_770A2E6E2CDF4230ABE6FD76A4FBACBD",1)</v>
       </c>
     </row>
-    <row r="49" ht="41.5" spans="1:3">
-      <c r="A49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" t="str">
+    <row r="57" ht="41.5" spans="1:3">
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" t="str">
         <f>_xlfn.DISPIMG("ID_3FD2FAE87D204CBA8FDE335CF9E25EC6",1)</f>
         <v>=DISPIMG("ID_3FD2FAE87D204CBA8FDE335CF9E25EC6",1)</v>
       </c>
     </row>
-    <row r="50" ht="72" spans="1:3">
-      <c r="A50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" t="str">
+    <row r="58" ht="72" spans="1:3">
+      <c r="A58" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" t="str">
         <f>_xlfn.DISPIMG("ID_D90C5F6E84744643BD98A4A53D62718D",1)</f>
         <v>=DISPIMG("ID_D90C5F6E84744643BD98A4A53D62718D",1)</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" ht="69.1" spans="1:3">
-      <c r="A52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" t="str">
+    <row r="59" spans="2:2">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" ht="69.1" spans="1:3">
+      <c r="A60" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" t="str">
         <f>_xlfn.DISPIMG("ID_458ED637CF4E45659D65B95FC7FFC109",1)</f>
         <v>=DISPIMG("ID_458ED637CF4E45659D65B95FC7FFC109",1)</v>
       </c>
     </row>
-    <row r="53" ht="57.45" spans="1:3">
-      <c r="A53" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" t="str">
+    <row r="61" ht="57.45" spans="1:3">
+      <c r="A61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" t="str">
         <f>_xlfn.DISPIMG("ID_374792D46A174E5A89550F8C7462AD6D",1)</f>
         <v>=DISPIMG("ID_374792D46A174E5A89550F8C7462AD6D",1)</v>
       </c>
     </row>
-    <row r="54" ht="43.2" spans="1:3">
-      <c r="A54" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" t="str">
+    <row r="62" ht="43.2" spans="1:3">
+      <c r="A62" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" t="str">
         <f>_xlfn.DISPIMG("ID_69793A4FA5C04505B39ACF810D79C1A4",1)</f>
         <v>=DISPIMG("ID_69793A4FA5C04505B39ACF810D79C1A4",1)</v>
       </c>
     </row>
-    <row r="55" ht="43.2" spans="1:3">
-      <c r="A55" t="s">
-        <v>86</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" t="str">
+    <row r="63" ht="43.2" spans="1:3">
+      <c r="A63" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" t="str">
         <f>_xlfn.DISPIMG("ID_56278848FE184650BD8FC266E593871E",1)</f>
         <v>=DISPIMG("ID_56278848FE184650BD8FC266E593871E",1)</v>
       </c>
     </row>
-    <row r="56" ht="75" spans="1:3">
-      <c r="A56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" t="str">
+    <row r="64" ht="75" spans="1:3">
+      <c r="A64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" t="str">
         <f>_xlfn.DISPIMG("ID_D3FC4682F9534AFDBD5A0F5AA7685D25",1)</f>
         <v>=DISPIMG("ID_D3FC4682F9534AFDBD5A0F5AA7685D25",1)</v>
       </c>
     </row>
-    <row r="57" ht="51.75" spans="1:3">
-      <c r="A57" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" t="str">
+    <row r="65" ht="51.75" spans="1:3">
+      <c r="A65" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" t="str">
         <f>_xlfn.DISPIMG("ID_190694FD91554C249E2F72BFD5B3A95C",1)</f>
         <v>=DISPIMG("ID_190694FD91554C249E2F72BFD5B3A95C",1)</v>
       </c>
     </row>
-    <row r="58" ht="36.75" spans="1:3">
-      <c r="A58" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" t="str">
+    <row r="66" ht="36.75" spans="1:3">
+      <c r="A66" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" t="str">
         <f>_xlfn.DISPIMG("ID_3B0C0820FED640F280C1FEF95DE6053C",1)</f>
         <v>=DISPIMG("ID_3B0C0820FED640F280C1FEF95DE6053C",1)</v>
       </c>
     </row>
-    <row r="59" ht="75" spans="1:3">
-      <c r="A59" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" t="str">
+    <row r="67" ht="75" spans="1:3">
+      <c r="A67" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" t="str">
         <f>_xlfn.DISPIMG("ID_F24158B1A2A24B0F946B85570FFCA01E",1)</f>
         <v>=DISPIMG("ID_F24158B1A2A24B0F946B85570FFCA01E",1)</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" ht="43.2" spans="1:3">
-      <c r="A61" t="s">
-        <v>96</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" t="str">
+    <row r="68" spans="2:2">
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" ht="43.2" spans="1:3">
+      <c r="A69" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" t="str">
         <f>_xlfn.DISPIMG("ID_F83F0793F870473194E1DD5C21327DD9",1)</f>
         <v>=DISPIMG("ID_F83F0793F870473194E1DD5C21327DD9",1)</v>
       </c>
     </row>
-    <row r="62" ht="43.2" spans="1:3">
-      <c r="A62" t="s">
-        <v>98</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C62" t="str">
+    <row r="70" ht="43.2" spans="1:3">
+      <c r="A70" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" t="str">
         <f>_xlfn.DISPIMG("ID_8B2046934FBF43DD9DDF606E62EB51B8",1)</f>
         <v>=DISPIMG("ID_8B2046934FBF43DD9DDF606E62EB51B8",1)</v>
       </c>
     </row>
-    <row r="64" ht="74.25" spans="1:3">
-      <c r="A64" t="s">
-        <v>100</v>
-      </c>
-      <c r="B64" t="s">
-        <v>101</v>
-      </c>
-      <c r="C64" t="str">
+    <row r="72" ht="74.25" spans="1:3">
+      <c r="A72" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" t="str">
         <f>_xlfn.DISPIMG("ID_6E9E4D12CCE7422E891E7218DEE175A5",1)</f>
         <v>=DISPIMG("ID_6E9E4D12CCE7422E891E7218DEE175A5",1)</v>
       </c>
     </row>
-    <row r="65" ht="55.35" spans="1:3">
-      <c r="A65" t="s">
-        <v>102</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" t="str">
+    <row r="73" ht="55.35" spans="1:3">
+      <c r="A73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" t="str">
         <f>_xlfn.DISPIMG("ID_7C400AB5FF5248508153A05BAEB15590",1)</f>
         <v>=DISPIMG("ID_7C400AB5FF5248508153A05BAEB15590",1)</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" ht="45.6" spans="1:3">
-      <c r="A67" t="s">
-        <v>104</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C67" t="str">
+    <row r="74" spans="2:2">
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" ht="45.6" spans="1:3">
+      <c r="A75" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" t="str">
         <f>_xlfn.DISPIMG("ID_A4EC05477782407EBE5FE4850F2FF09B",1)</f>
         <v>=DISPIMG("ID_A4EC05477782407EBE5FE4850F2FF09B",1)</v>
       </c>
     </row>
-    <row r="68" ht="57.75" spans="1:3">
-      <c r="A68" t="s">
-        <v>106</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" t="str">
+    <row r="76" ht="57.75" spans="1:3">
+      <c r="A76" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" t="str">
         <f>_xlfn.DISPIMG("ID_1FF474BCD7F542E3B4C96873737C194D",1)</f>
         <v>=DISPIMG("ID_1FF474BCD7F542E3B4C96873737C194D",1)</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" ht="49.5" spans="1:3">
-      <c r="A70" t="s">
-        <v>108</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C70" t="str">
+    <row r="77" spans="2:2">
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" ht="49.5" spans="1:3">
+      <c r="A78" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" t="str">
         <f>_xlfn.DISPIMG("ID_4CE22950848B4218B5852F3FDBB09CD0",1)</f>
         <v>=DISPIMG("ID_4CE22950848B4218B5852F3FDBB09CD0",1)</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" ht="60" spans="1:3">
-      <c r="A72" t="s">
-        <v>110</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C72" t="str">
+    <row r="79" spans="2:2">
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" ht="60" spans="1:3">
+      <c r="A80" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" t="str">
         <f>_xlfn.DISPIMG("ID_59B6021A7D87460DB8E14008A1FFD8B5",1)</f>
         <v>=DISPIMG("ID_59B6021A7D87460DB8E14008A1FFD8B5",1)</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="2"/>
-    </row>
-    <row r="74" ht="55.5" spans="1:3">
-      <c r="A74" t="s">
-        <v>112</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" t="str">
+    <row r="81" spans="2:2">
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" ht="55.5" spans="1:3">
+      <c r="A82" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" t="str">
         <f>_xlfn.DISPIMG("ID_EA02BB275DF242D091A57B157E75EFED",1)</f>
         <v>=DISPIMG("ID_EA02BB275DF242D091A57B157E75EFED",1)</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="2"/>
-    </row>
-    <row r="76" ht="40.25" spans="1:3">
-      <c r="A76" t="s">
-        <v>114</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C76" t="str">
+    <row r="83" spans="2:2">
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" ht="40.25" spans="1:3">
+      <c r="A84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" t="str">
         <f>_xlfn.DISPIMG("ID_E7BAF9679D4543DA8400E2A31177D95E",1)</f>
         <v>=DISPIMG("ID_E7BAF9679D4543DA8400E2A31177D95E",1)</v>
       </c>
     </row>
-    <row r="78" ht="75" spans="1:3">
-      <c r="A78" t="s">
-        <v>116</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C78" t="str">
+    <row r="86" ht="75" spans="1:3">
+      <c r="A86" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" t="str">
         <f>_xlfn.DISPIMG("ID_DB0DB7EAC831447E8127E03D525DBC71",1)</f>
         <v>=DISPIMG("ID_DB0DB7EAC831447E8127E03D525DBC71",1)</v>
       </c>
     </row>
-    <row r="79" ht="57.3" spans="1:3">
-      <c r="A79" t="s">
-        <v>118</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C79" t="str">
+    <row r="87" ht="57.3" spans="1:3">
+      <c r="A87" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87" t="str">
         <f>_xlfn.DISPIMG("ID_24E7D4A667AB4355841A5D53EA456781",1)</f>
         <v>=DISPIMG("ID_24E7D4A667AB4355841A5D53EA456781",1)</v>
       </c>
     </row>
-    <row r="80" ht="67.5" spans="1:3">
-      <c r="A80" t="s">
-        <v>120</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C80" t="str">
+    <row r="88" ht="67.5" spans="1:3">
+      <c r="A88" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" t="str">
         <f>_xlfn.DISPIMG("ID_E3684A825DB444C4A58C84456213940C",1)</f>
         <v>=DISPIMG("ID_E3684A825DB444C4A58C84456213940C",1)</v>
       </c>
     </row>
-    <row r="81" ht="60.65" spans="1:3">
-      <c r="A81" t="s">
-        <v>122</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" t="str">
+    <row r="89" ht="60.65" spans="1:3">
+      <c r="A89" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" t="str">
         <f>_xlfn.DISPIMG("ID_88BAC56BB5774A549663A40B4B5156E8",1)</f>
         <v>=DISPIMG("ID_88BAC56BB5774A549663A40B4B5156E8",1)</v>
       </c>
     </row>
-    <row r="83" ht="43.2" spans="1:3">
-      <c r="A83" t="s">
-        <v>124</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C83" t="str">
+    <row r="91" ht="43.2" spans="1:3">
+      <c r="A91" t="s">
+        <v>133</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" t="str">
         <f>_xlfn.DISPIMG("ID_1D53CF384E7A465FA833A88ED90CAF08",1)</f>
         <v>=DISPIMG("ID_1D53CF384E7A465FA833A88ED90CAF08",1)</v>
       </c>
     </row>
-    <row r="84" ht="49.6" spans="1:3">
-      <c r="A84" t="s">
-        <v>126</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C84" t="str">
+    <row r="92" ht="49.6" spans="1:3">
+      <c r="A92" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" t="str">
         <f>_xlfn.DISPIMG("ID_A2BCA97CED3B4E08ADBB3EC87BA871ED",1)</f>
         <v>=DISPIMG("ID_A2BCA97CED3B4E08ADBB3EC87BA871ED",1)</v>
       </c>
     </row>
-    <row r="85" ht="43.2" spans="1:3">
-      <c r="A85" t="s">
-        <v>128</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C85" t="str">
+    <row r="93" ht="43.2" spans="1:3">
+      <c r="A93" t="s">
+        <v>137</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" t="str">
         <f>_xlfn.DISPIMG("ID_9621ADCC2B5B4920A85908034E68D169",1)</f>
         <v>=DISPIMG("ID_9621ADCC2B5B4920A85908034E68D169",1)</v>
       </c>
     </row>
-    <row r="86" ht="43.2" spans="1:3">
-      <c r="A86" t="s">
-        <v>130</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C86" t="str">
+    <row r="94" ht="43.2" spans="1:3">
+      <c r="A94" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" t="str">
         <f>_xlfn.DISPIMG("ID_CF25BC6AED2F43A1B0C6A31A78BB3B3A",1)</f>
         <v>=DISPIMG("ID_CF25BC6AED2F43A1B0C6A31A78BB3B3A",1)</v>
       </c>
     </row>
-    <row r="87" ht="57.6" spans="1:3">
-      <c r="A87" t="s">
-        <v>132</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C87" t="str">
+    <row r="95" ht="57.6" spans="1:3">
+      <c r="A95" t="s">
+        <v>141</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" t="str">
         <f>_xlfn.DISPIMG("ID_3DE16B52CD81487CA89BC1F1D813D62C",1)</f>
         <v>=DISPIMG("ID_3DE16B52CD81487CA89BC1F1D813D62C",1)</v>
       </c>
     </row>
-    <row r="88" ht="57.6" spans="1:3">
-      <c r="A88" t="s">
-        <v>134</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C88" t="str">
+    <row r="96" ht="57.6" spans="1:3">
+      <c r="A96" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" t="str">
         <f>_xlfn.DISPIMG("ID_B6951C49546A4F22B1E2671F30D5BDB6",1)</f>
         <v>=DISPIMG("ID_B6951C49546A4F22B1E2671F30D5BDB6",1)</v>
       </c>
     </row>
-    <row r="89" ht="57.6" spans="1:3">
-      <c r="A89" t="s">
-        <v>136</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C89" t="str">
+    <row r="97" ht="57.6" spans="1:3">
+      <c r="A97" t="s">
+        <v>145</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C97" t="str">
         <f>_xlfn.DISPIMG("ID_D8970940F3AC40B89172A999CA515403",1)</f>
         <v>=DISPIMG("ID_D8970940F3AC40B89172A999CA515403",1)</v>
       </c>
     </row>
-    <row r="90" ht="57.6" spans="1:3">
-      <c r="A90" t="s">
-        <v>138</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C90" t="str">
+    <row r="98" ht="57.6" spans="1:3">
+      <c r="A98" t="s">
+        <v>147</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C98" t="str">
         <f>_xlfn.DISPIMG("ID_28E7D91F6C394542A96022461C79BA15",1)</f>
         <v>=DISPIMG("ID_28E7D91F6C394542A96022461C79BA15",1)</v>
       </c>
     </row>
-    <row r="91" ht="57.6" spans="1:3">
-      <c r="A91" t="s">
-        <v>140</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C91" t="str">
+    <row r="99" ht="57.6" spans="1:3">
+      <c r="A99" t="s">
+        <v>149</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C99" t="str">
         <f>_xlfn.DISPIMG("ID_F3C2B2D08FE94AC8AB1E32DF56EB1C2D",1)</f>
         <v>=DISPIMG("ID_F3C2B2D08FE94AC8AB1E32DF56EB1C2D",1)</v>
       </c>
     </row>
-    <row r="92" ht="71.15" spans="1:3">
-      <c r="A92" t="s">
-        <v>142</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C92" t="str">
+    <row r="100" ht="71.15" spans="1:3">
+      <c r="A100" t="s">
+        <v>151</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C100" t="str">
         <f>_xlfn.DISPIMG("ID_B69479F8B3B7401C9A495FA8F053AC84",1)</f>
         <v>=DISPIMG("ID_B69479F8B3B7401C9A495FA8F053AC84",1)</v>
       </c>
     </row>
-    <row r="93" ht="75" spans="1:3">
-      <c r="A93" t="s">
-        <v>144</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C93" t="str">
+    <row r="101" ht="75" spans="1:3">
+      <c r="A101" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" t="str">
         <f>_xlfn.DISPIMG("ID_23F1F9DC6BE644CCA5C1DDAE02ADE9FC",1)</f>
         <v>=DISPIMG("ID_23F1F9DC6BE644CCA5C1DDAE02ADE9FC",1)</v>
       </c>
     </row>
-    <row r="94" ht="75" spans="1:3">
-      <c r="A94" t="s">
-        <v>146</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C94" t="str">
+    <row r="102" ht="75" spans="1:3">
+      <c r="A102" t="s">
+        <v>155</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C102" t="str">
         <f>_xlfn.DISPIMG("ID_311C7DCA20124247949F960E6AF83633",1)</f>
         <v>=DISPIMG("ID_311C7DCA20124247949F960E6AF83633",1)</v>
       </c>
     </row>
-    <row r="95" ht="75" spans="1:3">
-      <c r="A95" t="s">
-        <v>148</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C95" t="str">
+    <row r="103" ht="75" spans="1:3">
+      <c r="A103" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C103" t="str">
         <f>_xlfn.DISPIMG("ID_48594AD68DD84B2099837F0E4E5DD0E5",1)</f>
         <v>=DISPIMG("ID_48594AD68DD84B2099837F0E4E5DD0E5",1)</v>
       </c>
     </row>
-    <row r="96" ht="57.6" spans="1:3">
-      <c r="A96" t="s">
-        <v>150</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C96" t="str">
+    <row r="104" ht="57.6" spans="1:3">
+      <c r="A104" t="s">
+        <v>159</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C104" t="str">
         <f>_xlfn.DISPIMG("ID_391D7E36C0B5474BB072331A515A799A",1)</f>
         <v>=DISPIMG("ID_391D7E36C0B5474BB072331A515A799A",1)</v>
       </c>
     </row>
-    <row r="97" ht="57.6" spans="1:3">
-      <c r="A97" t="s">
-        <v>152</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C97" t="str">
+    <row r="105" ht="57.6" spans="1:3">
+      <c r="A105" t="s">
+        <v>161</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" t="str">
         <f>_xlfn.DISPIMG("ID_F0AEAB59FA05435A8E3C466C679C848E",1)</f>
         <v>=DISPIMG("ID_F0AEAB59FA05435A8E3C466C679C848E",1)</v>
       </c>
     </row>
-    <row r="99" ht="42.75" spans="1:3">
-      <c r="A99" t="s">
-        <v>154</v>
-      </c>
-      <c r="B99" t="s">
-        <v>155</v>
-      </c>
-      <c r="C99" t="str">
+    <row r="107" ht="42.75" spans="1:3">
+      <c r="A107" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" t="s">
+        <v>164</v>
+      </c>
+      <c r="C107" t="str">
         <f>_xlfn.DISPIMG("ID_B54125181D09494B8DB5D37F528D7C71",1)</f>
         <v>=DISPIMG("ID_B54125181D09494B8DB5D37F528D7C71",1)</v>
       </c>
     </row>
-    <row r="100" ht="43.5" spans="1:3">
-      <c r="A100" t="s">
-        <v>156</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C100" t="str">
+    <row r="108" ht="43.5" spans="1:3">
+      <c r="A108" t="s">
+        <v>165</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C108" t="str">
         <f>_xlfn.DISPIMG("ID_9B6FF47063D44198944D18CAFD4C2662",1)</f>
         <v>=DISPIMG("ID_9B6FF47063D44198944D18CAFD4C2662",1)</v>
       </c>
     </row>
-    <row r="101" ht="51" spans="1:3">
-      <c r="A101" t="s">
-        <v>158</v>
-      </c>
-      <c r="B101" t="s">
-        <v>159</v>
-      </c>
-      <c r="C101" t="str">
+    <row r="109" ht="51" spans="1:3">
+      <c r="A109" t="s">
+        <v>167</v>
+      </c>
+      <c r="B109" t="s">
+        <v>168</v>
+      </c>
+      <c r="C109" t="str">
         <f>_xlfn.DISPIMG("ID_2E5D38CC78DA428FBDFECBA21FAACA8B",1)</f>
         <v>=DISPIMG("ID_2E5D38CC78DA428FBDFECBA21FAACA8B",1)</v>
       </c>
     </row>
-    <row r="102" ht="49.5" spans="1:3">
-      <c r="A102" t="s">
-        <v>160</v>
-      </c>
-      <c r="B102" t="s">
-        <v>161</v>
-      </c>
-      <c r="C102" t="str">
+    <row r="110" ht="49.5" spans="1:3">
+      <c r="A110" t="s">
+        <v>169</v>
+      </c>
+      <c r="B110" t="s">
+        <v>170</v>
+      </c>
+      <c r="C110" t="str">
         <f>_xlfn.DISPIMG("ID_748F131178774794AB6A82E13D193305",1)</f>
         <v>=DISPIMG("ID_748F131178774794AB6A82E13D193305",1)</v>
       </c>
     </row>
-    <row r="103" ht="51" spans="1:3">
-      <c r="A103" t="s">
-        <v>162</v>
-      </c>
-      <c r="B103" t="s">
-        <v>163</v>
-      </c>
-      <c r="C103" t="str">
+    <row r="111" ht="51" spans="1:3">
+      <c r="A111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111" t="s">
+        <v>172</v>
+      </c>
+      <c r="C111" t="str">
         <f>_xlfn.DISPIMG("ID_1C1620702E1F4D2E8F22B5DE2AF2CDB2",1)</f>
         <v>=DISPIMG("ID_1C1620702E1F4D2E8F22B5DE2AF2CDB2",1)</v>
       </c>
     </row>
-    <row r="104" ht="56.25" spans="1:3">
-      <c r="A104" t="s">
-        <v>164</v>
-      </c>
-      <c r="B104" t="s">
-        <v>165</v>
-      </c>
-      <c r="C104" t="str">
+    <row r="112" ht="56.25" spans="1:3">
+      <c r="A112" t="s">
+        <v>173</v>
+      </c>
+      <c r="B112" t="s">
+        <v>174</v>
+      </c>
+      <c r="C112" t="str">
         <f>_xlfn.DISPIMG("ID_10E910CE278B404AB7A02E0B679797DF",1)</f>
         <v>=DISPIMG("ID_10E910CE278B404AB7A02E0B679797DF",1)</v>
       </c>
     </row>
-    <row r="105" ht="63.75" spans="1:3">
-      <c r="A105" t="s">
-        <v>166</v>
-      </c>
-      <c r="B105" t="s">
-        <v>167</v>
-      </c>
-      <c r="C105" t="str">
+    <row r="113" ht="63.75" spans="1:3">
+      <c r="A113" t="s">
+        <v>175</v>
+      </c>
+      <c r="B113" t="s">
+        <v>176</v>
+      </c>
+      <c r="C113" t="str">
         <f>_xlfn.DISPIMG("ID_986DBA3438C1441BAF9DE62354265708",1)</f>
         <v>=DISPIMG("ID_986DBA3438C1441BAF9DE62354265708",1)</v>
       </c>
     </row>
-    <row r="106" ht="47.25" spans="1:3">
-      <c r="A106" t="s">
-        <v>168</v>
-      </c>
-      <c r="B106" t="s">
-        <v>169</v>
-      </c>
-      <c r="C106" t="str">
+    <row r="114" ht="47.25" spans="1:3">
+      <c r="A114" t="s">
+        <v>177</v>
+      </c>
+      <c r="B114" t="s">
+        <v>178</v>
+      </c>
+      <c r="C114" t="str">
         <f>_xlfn.DISPIMG("ID_0DE526D44FB9482EA92FA3F4AE9B1248",1)</f>
         <v>=DISPIMG("ID_0DE526D44FB9482EA92FA3F4AE9B1248",1)</v>
       </c>
     </row>
-    <row r="107" ht="40.25" spans="1:3">
-      <c r="A107" t="s">
-        <v>170</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C107" t="str">
+    <row r="115" ht="44.25" spans="1:3">
+      <c r="A115" t="s">
+        <v>179</v>
+      </c>
+      <c r="B115" t="s">
+        <v>180</v>
+      </c>
+      <c r="C115" t="str">
+        <f>_xlfn.DISPIMG("ID_4B504AD84AAD4F01BBC17D605CDDD852",1)</f>
+        <v>=DISPIMG("ID_4B504AD84AAD4F01BBC17D605CDDD852",1)</v>
+      </c>
+    </row>
+    <row r="116" ht="40.25" spans="1:3">
+      <c r="A116" t="s">
+        <v>181</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C116" t="str">
         <f>_xlfn.DISPIMG("ID_78AEC9A9BD164A57B9E0DA043C5DA320",1)</f>
         <v>=DISPIMG("ID_78AEC9A9BD164A57B9E0DA043C5DA320",1)</v>
       </c>
     </row>
-    <row r="108" ht="51" spans="1:3">
-      <c r="A108" t="s">
-        <v>172</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C108" t="str">
+    <row r="117" ht="51" spans="1:3">
+      <c r="A117" t="s">
+        <v>183</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C117" t="str">
         <f>_xlfn.DISPIMG("ID_DADA1D4D162C45BEA35731746238B350",1)</f>
         <v>=DISPIMG("ID_DADA1D4D162C45BEA35731746238B350",1)</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="2"/>
-    </row>
-    <row r="110" ht="46.75" spans="1:3">
-      <c r="A110" t="s">
-        <v>174</v>
-      </c>
-      <c r="B110" t="s">
-        <v>175</v>
-      </c>
-      <c r="C110" t="str">
+    <row r="118" spans="2:2">
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" ht="46.75" spans="1:3">
+      <c r="A119" t="s">
+        <v>185</v>
+      </c>
+      <c r="B119" t="s">
+        <v>186</v>
+      </c>
+      <c r="C119" t="str">
         <f>_xlfn.DISPIMG("ID_C3C7153D3C5546ECAABE343A9D67B050",1)</f>
         <v>=DISPIMG("ID_C3C7153D3C5546ECAABE343A9D67B050",1)</v>
       </c>
     </row>
-    <row r="111" ht="45.7" spans="1:3">
-      <c r="A111" t="s">
-        <v>176</v>
-      </c>
-      <c r="B111" t="s">
-        <v>177</v>
-      </c>
-      <c r="C111" t="str">
+    <row r="120" ht="45.7" spans="1:3">
+      <c r="A120" t="s">
+        <v>187</v>
+      </c>
+      <c r="B120" t="s">
+        <v>188</v>
+      </c>
+      <c r="C120" t="str">
         <f>_xlfn.DISPIMG("ID_ED4C3446C57D4EC192B4E2B201C79557",1)</f>
         <v>=DISPIMG("ID_ED4C3446C57D4EC192B4E2B201C79557",1)</v>
       </c>
     </row>
-    <row r="112" ht="66.75" spans="1:3">
-      <c r="A112" t="s">
-        <v>178</v>
-      </c>
-      <c r="B112" t="s">
-        <v>179</v>
-      </c>
-      <c r="C112" t="str">
+    <row r="121" ht="66.75" spans="1:3">
+      <c r="A121" t="s">
+        <v>189</v>
+      </c>
+      <c r="B121" t="s">
+        <v>190</v>
+      </c>
+      <c r="C121" t="str">
         <f>_xlfn.DISPIMG("ID_FA14C601293B49BEB509E9A9593E6DEA",1)</f>
         <v>=DISPIMG("ID_FA14C601293B49BEB509E9A9593E6DEA",1)</v>
       </c>
     </row>
-    <row r="113" ht="52.55" spans="1:3">
-      <c r="A113" t="s">
-        <v>180</v>
-      </c>
-      <c r="B113" t="s">
-        <v>181</v>
-      </c>
-      <c r="C113" t="str">
+    <row r="122" ht="52.55" spans="1:3">
+      <c r="A122" t="s">
+        <v>191</v>
+      </c>
+      <c r="B122" t="s">
+        <v>192</v>
+      </c>
+      <c r="C122" t="str">
         <f>_xlfn.DISPIMG("ID_2FAA249904BF4AE2AC3BF4FFD29CCB3E",1)</f>
         <v>=DISPIMG("ID_2FAA249904BF4AE2AC3BF4FFD29CCB3E",1)</v>
       </c>
     </row>
-    <row r="114" ht="54" spans="1:3">
-      <c r="A114" t="s">
-        <v>182</v>
-      </c>
-      <c r="B114" t="s">
-        <v>183</v>
-      </c>
-      <c r="C114" t="str">
+    <row r="123" ht="54" spans="1:3">
+      <c r="A123" t="s">
+        <v>193</v>
+      </c>
+      <c r="B123" t="s">
+        <v>194</v>
+      </c>
+      <c r="C123" t="str">
         <f>_xlfn.DISPIMG("ID_1AFA3D03DC674D5A8778E53B7202098F",1)</f>
         <v>=DISPIMG("ID_1AFA3D03DC674D5A8778E53B7202098F",1)</v>
       </c>
     </row>
-    <row r="115" ht="46.5" spans="1:3">
-      <c r="A115" t="s">
-        <v>184</v>
-      </c>
-      <c r="B115" t="s">
-        <v>185</v>
-      </c>
-      <c r="C115" t="str">
+    <row r="124" ht="46.5" spans="1:3">
+      <c r="A124" t="s">
+        <v>195</v>
+      </c>
+      <c r="B124" t="s">
+        <v>196</v>
+      </c>
+      <c r="C124" t="str">
         <f>_xlfn.DISPIMG("ID_F30A30D5C5014CE39745290E9AA3D532",1)</f>
         <v>=DISPIMG("ID_F30A30D5C5014CE39745290E9AA3D532",1)</v>
       </c>
     </row>
-    <row r="116" ht="51.75" spans="2:3">
-      <c r="B116" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C116" t="str">
+    <row r="125" ht="51.75" spans="2:3">
+      <c r="B125" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C125" t="str">
         <f>_xlfn.DISPIMG("ID_22933007A79F41679D43DAE49F7530E1",1)</f>
         <v>=DISPIMG("ID_22933007A79F41679D43DAE49F7530E1",1)</v>
       </c>
     </row>
-    <row r="117" ht="40.6" spans="1:3">
-      <c r="A117" t="s">
-        <v>187</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C117" t="str">
+    <row r="126" ht="40.6" spans="1:3">
+      <c r="A126" t="s">
+        <v>198</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C126" t="str">
         <f>_xlfn.DISPIMG("ID_66F4E0059F58441EB6FE6885D049EDD6",1)</f>
         <v>=DISPIMG("ID_66F4E0059F58441EB6FE6885D049EDD6",1)</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="2"/>
-    </row>
-    <row r="119" ht="52.5" spans="2:3">
-      <c r="B119" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C119" t="str">
+    <row r="127" spans="2:2">
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" ht="52.5" spans="2:3">
+      <c r="B128" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C128" t="str">
         <f>_xlfn.DISPIMG("ID_E8877933CD6A48AE8029758CA1954657",1)</f>
         <v>=DISPIMG("ID_E8877933CD6A48AE8029758CA1954657",1)</v>
       </c>
     </row>
-    <row r="120" ht="55.5" spans="1:3">
-      <c r="A120" t="s">
-        <v>190</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C120" t="str">
+    <row r="129" ht="55.5" spans="1:3">
+      <c r="A129" t="s">
+        <v>201</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C129" t="str">
         <f>_xlfn.DISPIMG("ID_DDB2AAD25DE242EDADEF3E20DA9E604F",1)</f>
         <v>=DISPIMG("ID_DDB2AAD25DE242EDADEF3E20DA9E604F",1)</v>
       </c>
     </row>
-    <row r="121" ht="35.45" spans="2:3">
-      <c r="B121" t="s">
-        <v>192</v>
-      </c>
-      <c r="C121" t="str">
+    <row r="130" ht="35.45" spans="2:3">
+      <c r="B130" t="s">
+        <v>203</v>
+      </c>
+      <c r="C130" t="str">
         <f>_xlfn.DISPIMG("ID_8A3F222FA5F24EB587F41EC84F65640E",1)</f>
         <v>=DISPIMG("ID_8A3F222FA5F24EB587F41EC84F65640E",1)</v>
       </c>
     </row>
-    <row r="122" ht="54.75" spans="1:3">
-      <c r="A122" t="s">
-        <v>193</v>
-      </c>
-      <c r="B122" t="s">
-        <v>194</v>
-      </c>
-      <c r="C122" t="str">
+    <row r="131" ht="54.75" spans="1:3">
+      <c r="A131" t="s">
+        <v>204</v>
+      </c>
+      <c r="B131" t="s">
+        <v>205</v>
+      </c>
+      <c r="C131" t="str">
         <f>_xlfn.DISPIMG("ID_53C3465B758344988A12E016B6E8F124",1)</f>
         <v>=DISPIMG("ID_53C3465B758344988A12E016B6E8F124",1)</v>
       </c>
     </row>
-    <row r="123" ht="53.15" spans="1:3">
-      <c r="A123" t="s">
-        <v>195</v>
-      </c>
-      <c r="B123" t="s">
-        <v>196</v>
-      </c>
-      <c r="C123" t="str">
+    <row r="132" ht="53.15" spans="1:3">
+      <c r="A132" t="s">
+        <v>206</v>
+      </c>
+      <c r="B132" t="s">
+        <v>207</v>
+      </c>
+      <c r="C132" t="str">
         <f>_xlfn.DISPIMG("ID_A23702AEF2A34C2FA26F124F260408D5",1)</f>
         <v>=DISPIMG("ID_A23702AEF2A34C2FA26F124F260408D5",1)</v>
       </c>
     </row>
-    <row r="124" ht="48.25" spans="1:3">
-      <c r="A124" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C124" t="str">
+    <row r="133" ht="48.25" spans="1:3">
+      <c r="A133" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C133" t="str">
         <f>_xlfn.DISPIMG("ID_5FE2B6D717B84202A34C44ADA99D8606",1)</f>
         <v>=DISPIMG("ID_5FE2B6D717B84202A34C44ADA99D8606",1)</v>
       </c>
     </row>
-    <row r="125" ht="48.75" spans="1:3">
-      <c r="A125" t="s">
-        <v>199</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C125" t="str">
+    <row r="134" ht="48.75" spans="1:3">
+      <c r="A134" t="s">
+        <v>210</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C134" t="str">
         <f>_xlfn.DISPIMG("ID_DE16622908324B5C845BF53EE8FA0EE9",1)</f>
         <v>=DISPIMG("ID_DE16622908324B5C845BF53EE8FA0EE9",1)</v>
       </c>
     </row>
-    <row r="126" ht="38.65" spans="1:3">
-      <c r="A126" t="s">
-        <v>201</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C126" t="str">
+    <row r="135" ht="38.65" spans="1:3">
+      <c r="A135" t="s">
+        <v>212</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C135" t="str">
         <f>_xlfn.DISPIMG("ID_6D77EC53A91642839B81ACF0C0E45A48",1)</f>
         <v>=DISPIMG("ID_6D77EC53A91642839B81ACF0C0E45A48",1)</v>
       </c>
     </row>
-    <row r="127" ht="54" spans="1:3">
-      <c r="A127" t="s">
-        <v>203</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C127" t="str">
+    <row r="136" ht="54" spans="1:3">
+      <c r="A136" t="s">
+        <v>214</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C136" t="str">
         <f>_xlfn.DISPIMG("ID_A5B26B88572849BF8B98C54E98A5033D",1)</f>
         <v>=DISPIMG("ID_A5B26B88572849BF8B98C54E98A5033D",1)</v>
       </c>
     </row>
-    <row r="128" ht="54.75" spans="1:3">
-      <c r="A128" t="s">
-        <v>205</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C128" t="str">
+    <row r="137" ht="54.75" spans="1:3">
+      <c r="A137" t="s">
+        <v>216</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C137" t="str">
         <f>_xlfn.DISPIMG("ID_A3DD8E2FF8964B9C8850FD61A7C26128",1)</f>
         <v>=DISPIMG("ID_A3DD8E2FF8964B9C8850FD61A7C26128",1)</v>
       </c>
     </row>
-    <row r="129" ht="41.4" spans="2:3">
-      <c r="B129" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C129" t="str">
+    <row r="138" ht="41.4" spans="2:3">
+      <c r="B138" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C138" t="str">
         <f>_xlfn.DISPIMG("ID_F949643B242C4191846E2555F344B0B4",1)</f>
         <v>=DISPIMG("ID_F949643B242C4191846E2555F344B0B4",1)</v>
       </c>
     </row>
-    <row r="130" ht="46.75" spans="2:3">
-      <c r="B130" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C130" t="str">
+    <row r="139" ht="46.75" spans="2:3">
+      <c r="B139" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C139" t="str">
         <f>_xlfn.DISPIMG("ID_9D738A3F24C24A8195141EB18B14F2AE",1)</f>
         <v>=DISPIMG("ID_9D738A3F24C24A8195141EB18B14F2AE",1)</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="2"/>
-    </row>
-    <row r="132" ht="24.3" spans="1:3">
-      <c r="A132" t="s">
-        <v>209</v>
-      </c>
-      <c r="B132" t="s">
-        <v>210</v>
-      </c>
-      <c r="C132" t="str">
+    <row r="140" spans="2:2">
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" ht="24.3" spans="1:3">
+      <c r="A141" t="s">
+        <v>220</v>
+      </c>
+      <c r="B141" t="s">
+        <v>221</v>
+      </c>
+      <c r="C141" t="str">
         <f>_xlfn.DISPIMG("ID_3FA7868F9A6A43BF94F4F173E98EA809",1)</f>
         <v>=DISPIMG("ID_3FA7868F9A6A43BF94F4F173E98EA809",1)</v>
       </c>
     </row>
-    <row r="133" ht="26.75" spans="1:3">
-      <c r="A133" t="s">
-        <v>211</v>
-      </c>
-      <c r="B133" t="s">
-        <v>212</v>
-      </c>
-      <c r="C133" t="str">
+    <row r="142" ht="26.75" spans="1:3">
+      <c r="A142" t="s">
+        <v>222</v>
+      </c>
+      <c r="B142" t="s">
+        <v>223</v>
+      </c>
+      <c r="C142" t="str">
         <f>_xlfn.DISPIMG("ID_77123EE3B3C34EDB93F93BC615D36D7B",1)</f>
         <v>=DISPIMG("ID_77123EE3B3C34EDB93F93BC615D36D7B",1)</v>
       </c>
     </row>
-    <row r="134" ht="24.1" spans="1:3">
-      <c r="A134" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B134" t="s">
-        <v>214</v>
-      </c>
-      <c r="C134" t="str">
+    <row r="143" ht="24.1" spans="1:3">
+      <c r="A143" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B143" t="s">
+        <v>225</v>
+      </c>
+      <c r="C143" t="str">
         <f>_xlfn.DISPIMG("ID_243736512BDB483A96DF390A4F5647E9",1)</f>
         <v>=DISPIMG("ID_243736512BDB483A96DF390A4F5647E9",1)</v>
       </c>
     </row>
-    <row r="135" ht="27.2" spans="1:3">
-      <c r="A135" t="s">
-        <v>215</v>
-      </c>
-      <c r="B135" t="s">
-        <v>216</v>
-      </c>
-      <c r="C135" t="str">
+    <row r="144" ht="27.2" spans="1:3">
+      <c r="A144" t="s">
+        <v>226</v>
+      </c>
+      <c r="B144" t="s">
+        <v>227</v>
+      </c>
+      <c r="C144" t="str">
         <f>_xlfn.DISPIMG("ID_4288D26C7A86449591822D317F14C9A9",1)</f>
         <v>=DISPIMG("ID_4288D26C7A86449591822D317F14C9A9",1)</v>
       </c>
     </row>
-    <row r="137" ht="38.5" spans="1:3">
-      <c r="A137" t="s">
-        <v>217</v>
-      </c>
-      <c r="B137" t="s">
-        <v>218</v>
-      </c>
-      <c r="C137" t="str">
+    <row r="146" ht="38.5" spans="1:3">
+      <c r="A146" t="s">
+        <v>228</v>
+      </c>
+      <c r="B146" t="s">
+        <v>229</v>
+      </c>
+      <c r="C146" t="str">
         <f>_xlfn.DISPIMG("ID_99C647C189AD4535B6B2F67EE8C1011F",1)</f>
         <v>=DISPIMG("ID_99C647C189AD4535B6B2F67EE8C1011F",1)</v>
       </c>
     </row>
-    <row r="138" ht="37.5" spans="1:3">
-      <c r="A138" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B138" t="s">
-        <v>220</v>
-      </c>
-      <c r="C138" t="str">
+    <row r="147" ht="37.5" spans="1:3">
+      <c r="A147" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B147" t="s">
+        <v>231</v>
+      </c>
+      <c r="C147" t="str">
         <f>_xlfn.DISPIMG("ID_7E1B92CB79BB4CBDB44BE975FC4F18F6",1)</f>
         <v>=DISPIMG("ID_7E1B92CB79BB4CBDB44BE975FC4F18F6",1)</v>
       </c>
     </row>
-    <row r="139" ht="28.8" spans="1:3">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C139" t="str">
+    <row r="148" ht="28.8" spans="1:3">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C148" t="str">
         <f>_xlfn.DISPIMG("ID_292A425AA21B444F80B74593B048F053",1)</f>
         <v>=DISPIMG("ID_292A425AA21B444F80B74593B048F053",1)</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-    </row>
-    <row r="141" ht="24" spans="1:3">
-      <c r="A141" t="s">
-        <v>222</v>
-      </c>
-      <c r="B141" t="s">
-        <v>223</v>
-      </c>
-      <c r="C141" t="str">
+    <row r="149" spans="1:2">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" ht="37.5" spans="1:3">
+      <c r="A150" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C150" t="str">
+        <f>_xlfn.DISPIMG("ID_6A93E5240CB04D8997B3F7B73CA1ABF9",1)</f>
+        <v>=DISPIMG("ID_6A93E5240CB04D8997B3F7B73CA1ABF9",1)</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" ht="24" spans="1:3">
+      <c r="A152" t="s">
+        <v>235</v>
+      </c>
+      <c r="B152" t="s">
+        <v>236</v>
+      </c>
+      <c r="C152" t="str">
         <f>_xlfn.DISPIMG("ID_AE433C0368614DA8A6CFB28364FB3F92",1)</f>
         <v>=DISPIMG("ID_AE433C0368614DA8A6CFB28364FB3F92",1)</v>
       </c>
     </row>
-    <row r="142" ht="27.65" spans="1:3">
-      <c r="A142" t="s">
-        <v>224</v>
-      </c>
-      <c r="B142" t="s">
-        <v>225</v>
-      </c>
-      <c r="C142" t="str">
+    <row r="153" ht="27.65" spans="1:3">
+      <c r="A153" t="s">
+        <v>237</v>
+      </c>
+      <c r="B153" t="s">
+        <v>238</v>
+      </c>
+      <c r="C153" t="str">
         <f>_xlfn.DISPIMG("ID_12C40AEE324A44C2B34E864C00A53736",1)</f>
         <v>=DISPIMG("ID_12C40AEE324A44C2B34E864C00A53736",1)</v>
       </c>
     </row>
-    <row r="144" ht="31.25" spans="1:3">
-      <c r="A144" t="s">
-        <v>226</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C144" t="str">
+    <row r="155" ht="31.25" spans="1:3">
+      <c r="A155" t="s">
+        <v>239</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C155" t="str">
         <f>_xlfn.DISPIMG("ID_6FBA0D7C30224E079A14E388B7A80A26",1)</f>
         <v>=DISPIMG("ID_6FBA0D7C30224E079A14E388B7A80A26",1)</v>
       </c>
     </row>
-    <row r="145" ht="32.3" spans="1:3">
-      <c r="A145" t="s">
-        <v>228</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C145" t="str">
+    <row r="156" ht="32.3" spans="1:3">
+      <c r="A156" t="s">
+        <v>241</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C156" t="str">
         <f>_xlfn.DISPIMG("ID_7A818E3013914853A9EFDEAE9BF6E772",1)</f>
         <v>=DISPIMG("ID_7A818E3013914853A9EFDEAE9BF6E772",1)</v>
       </c>
     </row>
-    <row r="146" ht="40.55" spans="1:3">
-      <c r="A146" t="s">
-        <v>230</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C146" t="str">
+    <row r="157" ht="40.55" spans="1:3">
+      <c r="A157" t="s">
+        <v>243</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C157" t="str">
         <f>_xlfn.DISPIMG("ID_35576D90A4CC457E8EE0FBEFB585AAA1",1)</f>
         <v>=DISPIMG("ID_35576D90A4CC457E8EE0FBEFB585AAA1",1)</v>
       </c>
     </row>
-    <row r="147" ht="38.45" spans="1:3">
-      <c r="A147" t="s">
-        <v>232</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C147" t="str">
+    <row r="158" ht="38.45" spans="1:3">
+      <c r="A158" t="s">
+        <v>245</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C158" t="str">
         <f>_xlfn.DISPIMG("ID_2450844B1E604A0DB88E8A1DC84FB60D",1)</f>
         <v>=DISPIMG("ID_2450844B1E604A0DB88E8A1DC84FB60D",1)</v>
       </c>
     </row>
-    <row r="148" ht="29.65" spans="1:3">
-      <c r="A148" t="s">
-        <v>234</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C148" t="str">
+    <row r="159" ht="29.65" spans="1:3">
+      <c r="A159" t="s">
+        <v>247</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C159" t="str">
         <f>_xlfn.DISPIMG("ID_9EB8D6673CDD4F89B9D9C1788830AB97",1)</f>
         <v>=DISPIMG("ID_9EB8D6673CDD4F89B9D9C1788830AB97",1)</v>
       </c>
     </row>
-    <row r="149" ht="36.9" spans="1:3">
-      <c r="A149" t="s">
-        <v>236</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C149" t="str">
+    <row r="160" ht="36.9" spans="1:3">
+      <c r="A160" t="s">
+        <v>249</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C160" t="str">
         <f>_xlfn.DISPIMG("ID_D44602CEC63A45A1BFBFFC2A86D3929E",1)</f>
         <v>=DISPIMG("ID_D44602CEC63A45A1BFBFFC2A86D3929E",1)</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="2"/>
-    </row>
-    <row r="151" ht="57.75" spans="1:3">
-      <c r="A151" t="s">
-        <v>238</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C151" t="str">
+    <row r="161" spans="2:2">
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" ht="57.75" spans="1:3">
+      <c r="A162" t="s">
+        <v>251</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C162" t="str">
         <f>_xlfn.DISPIMG("ID_001EB6649E074AEDA1E631DC1B8B9F87",1)</f>
         <v>=DISPIMG("ID_001EB6649E074AEDA1E631DC1B8B9F87",1)</v>
       </c>
     </row>
-    <row r="152" ht="54.8" spans="1:3">
-      <c r="A152" t="s">
-        <v>240</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C152" t="str">
+    <row r="163" ht="53.25" spans="1:3">
+      <c r="A163" t="s">
+        <v>253</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C163" t="str">
         <f>_xlfn.DISPIMG("ID_45A90FAAFB0140418241F61FAF883B8E",1)</f>
         <v>=DISPIMG("ID_45A90FAAFB0140418241F61FAF883B8E",1)</v>
       </c>
     </row>
-    <row r="153" ht="52.05" spans="1:3">
-      <c r="A153" t="s">
-        <v>242</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C153" t="str">
+    <row r="164" ht="52.5" spans="1:3">
+      <c r="A164" t="s">
+        <v>255</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C164" t="str">
+        <f>_xlfn.DISPIMG("ID_3C205509353D45FD9F7D4464A55D37CC",1)</f>
+        <v>=DISPIMG("ID_3C205509353D45FD9F7D4464A55D37CC",1)</v>
+      </c>
+    </row>
+    <row r="165" ht="50.25" spans="1:3">
+      <c r="A165" t="s">
+        <v>257</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C165" t="str">
         <f>_xlfn.DISPIMG("ID_74B6DE2FD5F047A49E492821FDAACABB",1)</f>
         <v>=DISPIMG("ID_74B6DE2FD5F047A49E492821FDAACABB",1)</v>
       </c>
     </row>
-    <row r="154" ht="50.1" spans="1:3">
-      <c r="A154" t="s">
-        <v>244</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C154" t="str">
+    <row r="166" ht="50.1" spans="1:3">
+      <c r="A166" t="s">
+        <v>259</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C166" t="str">
         <f>_xlfn.DISPIMG("ID_C8B7AA6B43F142EBA95ECDEE9049A391",1)</f>
         <v>=DISPIMG("ID_C8B7AA6B43F142EBA95ECDEE9049A391",1)</v>
       </c>
     </row>
-    <row r="155" ht="57.6" spans="1:3">
-      <c r="A155" t="s">
-        <v>246</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C155" t="str">
+    <row r="167" ht="57.6" spans="1:3">
+      <c r="A167" t="s">
+        <v>261</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C167" t="str">
         <f>_xlfn.DISPIMG("ID_56804EAEFB72440891DF124DFD33B589",1)</f>
         <v>=DISPIMG("ID_56804EAEFB72440891DF124DFD33B589",1)</v>
       </c>
     </row>
-    <row r="156" ht="48.35" spans="1:3">
-      <c r="A156" t="s">
-        <v>248</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C156" t="str">
+    <row r="168" ht="48.35" spans="1:3">
+      <c r="A168" t="s">
+        <v>263</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C168" t="str">
         <f>_xlfn.DISPIMG("ID_0543505CEB224B09B82CBABBC6595654",1)</f>
         <v>=DISPIMG("ID_0543505CEB224B09B82CBABBC6595654",1)</v>
       </c>
     </row>
-    <row r="157" ht="49.55" spans="1:3">
-      <c r="A157" t="s">
-        <v>250</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C157" t="str">
+    <row r="169" ht="49.55" spans="1:3">
+      <c r="A169" t="s">
+        <v>265</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C169" t="str">
         <f>_xlfn.DISPIMG("ID_F2F45869962B4490ABD03C30EC0C1584",1)</f>
         <v>=DISPIMG("ID_F2F45869962B4490ABD03C30EC0C1584",1)</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
-      <c r="B158" s="2"/>
-    </row>
-    <row r="159" ht="51" spans="1:3">
-      <c r="A159" t="s">
-        <v>252</v>
-      </c>
-      <c r="B159" t="s">
-        <v>253</v>
-      </c>
-      <c r="C159" t="str">
+    <row r="170" spans="2:2">
+      <c r="B170" s="2"/>
+    </row>
+    <row r="171" ht="51" spans="1:3">
+      <c r="A171" t="s">
+        <v>267</v>
+      </c>
+      <c r="B171" t="s">
+        <v>268</v>
+      </c>
+      <c r="C171" t="str">
         <f>_xlfn.DISPIMG("ID_C3F436A1EC5742BFB78E8C7F9625BC69",1)</f>
         <v>=DISPIMG("ID_C3F436A1EC5742BFB78E8C7F9625BC69",1)</v>
       </c>
     </row>
-    <row r="161" ht="60.75" spans="1:3">
-      <c r="A161" t="s">
-        <v>254</v>
-      </c>
-      <c r="B161" t="s">
-        <v>255</v>
-      </c>
-      <c r="C161" t="str">
+    <row r="173" ht="60.75" spans="1:3">
+      <c r="A173" t="s">
+        <v>269</v>
+      </c>
+      <c r="B173" t="s">
+        <v>270</v>
+      </c>
+      <c r="C173" t="str">
         <f>_xlfn.DISPIMG("ID_4D85187A9A02416CBACCAAF102A3C801",1)</f>
         <v>=DISPIMG("ID_4D85187A9A02416CBACCAAF102A3C801",1)</v>
       </c>
     </row>
-    <row r="162" ht="42.7" spans="2:3">
-      <c r="B162" t="s">
-        <v>256</v>
-      </c>
-      <c r="C162" t="str">
+    <row r="174" ht="42.7" spans="2:3">
+      <c r="B174" t="s">
+        <v>271</v>
+      </c>
+      <c r="C174" t="str">
         <f>_xlfn.DISPIMG("ID_ACE9D7218F464E9A8BF19EC29BCDBB0E",1)</f>
         <v>=DISPIMG("ID_ACE9D7218F464E9A8BF19EC29BCDBB0E",1)</v>
       </c>
     </row>
-    <row r="163" ht="37" spans="1:3">
-      <c r="A163" t="s">
-        <v>257</v>
-      </c>
-      <c r="B163" t="s">
-        <v>258</v>
-      </c>
-      <c r="C163" t="str">
+    <row r="175" ht="37" spans="1:3">
+      <c r="A175" t="s">
+        <v>272</v>
+      </c>
+      <c r="B175" t="s">
+        <v>273</v>
+      </c>
+      <c r="C175" t="str">
         <f>_xlfn.DISPIMG("ID_C97FBDC856B64BDCA66F8D4472DFADE3",1)</f>
         <v>=DISPIMG("ID_C97FBDC856B64BDCA66F8D4472DFADE3",1)</v>
       </c>
     </row>
-    <row r="164" ht="44.55" spans="1:3">
-      <c r="A164" t="s">
-        <v>259</v>
-      </c>
-      <c r="B164" t="s">
-        <v>260</v>
-      </c>
-      <c r="C164" t="str">
+    <row r="176" ht="44.55" spans="1:3">
+      <c r="A176" t="s">
+        <v>274</v>
+      </c>
+      <c r="B176" t="s">
+        <v>275</v>
+      </c>
+      <c r="C176" t="str">
         <f>_xlfn.DISPIMG("ID_C7E147945B1F4B95A134760252CC3C1B",1)</f>
         <v>=DISPIMG("ID_C7E147945B1F4B95A134760252CC3C1B",1)</v>
       </c>
     </row>
-    <row r="165" ht="38.7" spans="1:3">
-      <c r="A165" t="s">
-        <v>261</v>
-      </c>
-      <c r="B165" t="s">
-        <v>262</v>
-      </c>
-      <c r="C165" t="str">
+    <row r="177" ht="38.7" spans="1:3">
+      <c r="A177" t="s">
+        <v>276</v>
+      </c>
+      <c r="B177" t="s">
+        <v>277</v>
+      </c>
+      <c r="C177" t="str">
         <f>_xlfn.DISPIMG("ID_B1FEDA88166741298690BCDDFDFA712A",1)</f>
         <v>=DISPIMG("ID_B1FEDA88166741298690BCDDFDFA712A",1)</v>
       </c>
     </row>
-    <row r="167" ht="48" spans="1:3">
-      <c r="A167" t="s">
-        <v>263</v>
-      </c>
-      <c r="B167" t="s">
-        <v>264</v>
-      </c>
-      <c r="C167" t="str">
+    <row r="179" ht="48" spans="1:3">
+      <c r="A179" t="s">
+        <v>278</v>
+      </c>
+      <c r="B179" t="s">
+        <v>279</v>
+      </c>
+      <c r="C179" t="str">
         <f>_xlfn.DISPIMG("ID_92A1827F52AB481BA921C8ADBCDE3193",1)</f>
         <v>=DISPIMG("ID_92A1827F52AB481BA921C8ADBCDE3193",1)</v>
       </c>
     </row>
-    <row r="168" ht="53" spans="2:3">
-      <c r="B168" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C168" t="str">
+    <row r="180" ht="53" spans="2:3">
+      <c r="B180" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C180" t="str">
         <f>_xlfn.DISPIMG("ID_B6DD3F78EDDD44DA851F1C36846E5094",1)</f>
         <v>=DISPIMG("ID_B6DD3F78EDDD44DA851F1C36846E5094",1)</v>
       </c>
     </row>
-    <row r="169" ht="54.3" spans="1:3">
-      <c r="A169" t="s">
-        <v>266</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C169" t="str">
+    <row r="181" ht="54.3" spans="1:3">
+      <c r="A181" t="s">
+        <v>281</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C181" t="str">
         <f>_xlfn.DISPIMG("ID_9662ED28460A47CCA461E29E7078438E",1)</f>
         <v>=DISPIMG("ID_9662ED28460A47CCA461E29E7078438E",1)</v>
       </c>
     </row>
-    <row r="170" ht="39.85" spans="1:3">
-      <c r="A170" t="s">
-        <v>268</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C170" t="str">
+    <row r="182" ht="39.85" spans="1:3">
+      <c r="A182" t="s">
+        <v>283</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C182" t="str">
         <f>_xlfn.DISPIMG("ID_E588568C964B4212B16EBBE8E05C441A",1)</f>
         <v>=DISPIMG("ID_E588568C964B4212B16EBBE8E05C441A",1)</v>
       </c>
     </row>
-    <row r="171" ht="45.3" spans="1:3">
-      <c r="A171" t="s">
-        <v>270</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C171" t="str">
+    <row r="183" ht="45.3" spans="1:3">
+      <c r="A183" t="s">
+        <v>285</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C183" t="str">
         <f>_xlfn.DISPIMG("ID_0BA784BE913A4014BA5CEBFACA0139F1",1)</f>
         <v>=DISPIMG("ID_0BA784BE913A4014BA5CEBFACA0139F1",1)</v>
       </c>
     </row>
-    <row r="172" ht="40.05" spans="1:3">
-      <c r="A172" t="s">
-        <v>272</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C172" t="str">
+    <row r="184" ht="40.05" spans="1:3">
+      <c r="A184" t="s">
+        <v>287</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C184" t="str">
         <f>_xlfn.DISPIMG("ID_B30135380C484DB3A49F060902582BCB",1)</f>
         <v>=DISPIMG("ID_B30135380C484DB3A49F060902582BCB",1)</v>
       </c>
     </row>
-    <row r="173" ht="35.9" spans="1:3">
-      <c r="A173" t="s">
-        <v>274</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C173" t="str">
+    <row r="185" ht="35.9" spans="1:3">
+      <c r="A185" t="s">
+        <v>289</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C185" t="str">
         <f>_xlfn.DISPIMG("ID_6C24A420478C4801BF8B93E850426379",1)</f>
         <v>=DISPIMG("ID_6C24A420478C4801BF8B93E850426379",1)</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
-      <c r="B174" s="2"/>
-    </row>
-    <row r="175" ht="71.45" spans="1:3">
-      <c r="A175" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B175" t="s">
-        <v>276</v>
-      </c>
-      <c r="C175" t="str">
+    <row r="186" spans="2:2">
+      <c r="B186" s="2"/>
+    </row>
+    <row r="187" ht="71.35" spans="1:3">
+      <c r="A187" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B187" t="s">
+        <v>291</v>
+      </c>
+      <c r="C187" t="str">
         <f>_xlfn.DISPIMG("ID_0344F8B15CD941A387CDAD6DAD5F42DE",1)</f>
         <v>=DISPIMG("ID_0344F8B15CD941A387CDAD6DAD5F42DE",1)</v>
       </c>
     </row>
-    <row r="176" ht="57.6" spans="1:3">
-      <c r="A176" t="s">
-        <v>277</v>
-      </c>
-      <c r="B176" t="s">
-        <v>278</v>
-      </c>
-      <c r="C176" t="str">
+    <row r="188" ht="74.25" spans="1:3">
+      <c r="A188" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C188" t="str">
+        <f>_xlfn.DISPIMG("ID_EDC0268086A14D8E86F356F1F50AE0D8",1)</f>
+        <v>=DISPIMG("ID_EDC0268086A14D8E86F356F1F50AE0D8",1)</v>
+      </c>
+    </row>
+    <row r="189" ht="67.5" spans="1:3">
+      <c r="A189" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B189" t="s">
+        <v>295</v>
+      </c>
+      <c r="C189" t="str">
+        <f>_xlfn.DISPIMG("ID_D36A6D52594D43DB88A22DF5790F566E",1)</f>
+        <v>=DISPIMG("ID_D36A6D52594D43DB88A22DF5790F566E",1)</v>
+      </c>
+    </row>
+    <row r="190" ht="55.8" spans="1:3">
+      <c r="A190" t="s">
+        <v>296</v>
+      </c>
+      <c r="B190" t="s">
+        <v>297</v>
+      </c>
+      <c r="C190" t="str">
         <f>_xlfn.DISPIMG("ID_F064BA48D72140DFBF170BF3007E5CFA",1)</f>
         <v>=DISPIMG("ID_F064BA48D72140DFBF170BF3007E5CFA",1)</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A175" r:id="rId1" display="2243815-18-9" tooltip="https://commonchemistry.cas.org/detail?cas_rn=2243815-18-9"/>
+    <hyperlink ref="A187" r:id="rId1" display="2243815-18-9" tooltip="https://commonchemistry.cas.org/detail?cas_rn=2243815-18-9"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/未管制品种增补目录.xlsx
+++ b/未管制品种增补目录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4610,11 +4610,388 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="160" name="ID_6E101A675E2B470499AC30A32BA5CA96"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId159"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="14888845"/>
+          <a:ext cx="952500" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="161" name="ID_8E767C9F8EBD4B3ABDE6F8B5711ACE85"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId160"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="15793720"/>
+          <a:ext cx="1009650" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="162" name="ID_2F2395AD3EEC4150B75D06D507A6E912"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId161"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="16575405"/>
+          <a:ext cx="1000125" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="163" name="ID_A49C0F01425647AB8879C0F67E7C5CEF"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId162"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="17382490"/>
+          <a:ext cx="962025" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="164" name="ID_33DB2659169D4CB1839459612FC54880"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId163"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="18268950"/>
+          <a:ext cx="1133475" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="165" name="ID_897C8A6C32894498B68ADDB51A5AB4FD"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId164"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="19084925"/>
+          <a:ext cx="914400" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="166" name="ID_23E1315788F840E4B6CEF2A43CEDA9C2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId165"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="19961225"/>
+          <a:ext cx="885825" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="167" name="ID_28E9503E18FD49F4AD7AD597BCB7B50A"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId166"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="20808950"/>
+          <a:ext cx="914400" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="168" name="ID_07B5F28D25D646BE9D1517C8D737CEA5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId167"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="21666200"/>
+          <a:ext cx="933450" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="169" name="ID_4CCCD0B5F9AE4E4FA09E7FF050D71276"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId168"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="22609175"/>
+          <a:ext cx="942975" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="170" name="ID_C9AB2906C33E4F3DA3FEA08196A4456E"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId169"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="23466425"/>
+          <a:ext cx="809625" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="171" name="ID_E90FDB84112D4B54ABA53987B8B38549"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId170"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="24361775"/>
+          <a:ext cx="962025" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="172" name="ID_4BB20DBAE68D44C2BA4C9E579E1670E1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId171"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="85939630"/>
+          <a:ext cx="695325" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="321">
   <si>
     <t>CAS号</t>
   </si>
@@ -4625,6 +5002,12 @@
     <t>结构式</t>
   </si>
   <si>
+    <t>64778-72-9</t>
+  </si>
+  <si>
+    <t>Isoproscaline</t>
+  </si>
+  <si>
     <t>64584-34-5</t>
   </si>
   <si>
@@ -4649,10 +5032,46 @@
     <t>1-(4-bromofuro[2,3-f][1]benzofuran-8-yl)propan-2-amine</t>
   </si>
   <si>
-    <t>64778-72-9</t>
-  </si>
-  <si>
-    <t>Isoproscaline</t>
+    <t>132367-76-1</t>
+  </si>
+  <si>
+    <t>5-Iodo-2-aminoindane</t>
+  </si>
+  <si>
+    <t>5,6-benzofuranyl-2-aminoindane</t>
+  </si>
+  <si>
+    <t>205652-94-4</t>
+  </si>
+  <si>
+    <t>N-Ethyl-5-trifluoromethyl-2-aminoindane</t>
+  </si>
+  <si>
+    <t>136468-19-4</t>
+  </si>
+  <si>
+    <t>5-Methoxy-6-methyl-2-aminoindane</t>
+  </si>
+  <si>
+    <t>(6aR,9R)-N,N-Diethyl-7-methyl-4-Benzoyl-4,6,6a,7,8,9-hexahydroindolo[4,3-fg]quinoline-9-carboxamide</t>
+  </si>
+  <si>
+    <t>(6aR,9R)-4-(Cyclopropanecarbonyl)-N,N-diethyl-7-prop-2-enyl-,6,6a,,8,9-hexahydroindolo[4,3-fg]quinoline-9-carboxamide</t>
+  </si>
+  <si>
+    <t>1218-40-2</t>
+  </si>
+  <si>
+    <t>5-Methoxy-N,N-diethyltryptamine</t>
+  </si>
+  <si>
+    <t>1-t-Butyloxycarbonyl-N,N-Dimethyltryptamine</t>
+  </si>
+  <si>
+    <t>tert-butyl 3-(2-(diallylamino)ethyl)-5-methoxy-1H-indole-1-carboxylate</t>
+  </si>
+  <si>
+    <t>tert-butyl 3-(2-(isopropyl(methyl)amino)ethyl)-5-methoxy-1H-indole-1-carboxylate</t>
   </si>
   <si>
     <t>61-52-9</t>
@@ -4685,46 +5104,67 @@
     <t>4-Acetoxyethylmethyltryptamine</t>
   </si>
   <si>
-    <t>1218-40-2</t>
-  </si>
-  <si>
-    <t>5-Methoxy-N,N-diethyltryptamine</t>
-  </si>
-  <si>
-    <t>1-t-Butyloxycarbonyl-N,N-Dimethyltryptamine</t>
-  </si>
-  <si>
-    <t>tert-butyl 3-(2-(diallylamino)ethyl)-5-methoxy-1H-indole-1-carboxylate</t>
-  </si>
-  <si>
-    <t>tert-butyl 3-(2-(isopropyl(methyl)amino)ethyl)-5-methoxy-1H-indole-1-carboxylate</t>
-  </si>
-  <si>
-    <t>132367-76-1</t>
-  </si>
-  <si>
-    <t>5-Iodo-2-aminoindane</t>
-  </si>
-  <si>
-    <t>5,6-benzofuranyl-2-aminoindane</t>
-  </si>
-  <si>
-    <t>205652-94-4</t>
-  </si>
-  <si>
-    <t>N-Ethyl-5-trifluoromethyl-2-aminoindane</t>
-  </si>
-  <si>
-    <t>136468-19-4</t>
-  </si>
-  <si>
-    <t>5-Methoxy-6-methyl-2-aminoindane</t>
-  </si>
-  <si>
-    <t>(6aR,9R)-N,N-Diethyl-7-methyl-4-Benzoyl-4,6,6a,7,8,9-hexahydroindolo[4,3-fg]quinoline-9-carboxamide</t>
-  </si>
-  <si>
-    <t>(6aR,9R)-4-(Cyclopropanecarbonyl)-N,N-diethyl-7-prop-2-enyl-,6,6a,,8,9-hexahydroindolo[4,3-fg]quinoline-9-carboxamide</t>
+    <t>1135424-15-5</t>
+  </si>
+  <si>
+    <t>[3-[2-(diethylamino)ethyl]-1H-indol-4-yl] acetate</t>
+  </si>
+  <si>
+    <t>1024612-25-6</t>
+  </si>
+  <si>
+    <t>[3-[2-[methyl(propan-2-yl)amino]ethyl]-1H-indol-4-yl] acetate</t>
+  </si>
+  <si>
+    <t>[3-[2-[ethyl(propan-2-yl)amino]ethyl]-1H-indol-4-yl] acetate</t>
+  </si>
+  <si>
+    <t>936015-60-0</t>
+  </si>
+  <si>
+    <t>[3-[2-[di(propan-2-yl)amino]ethyl]-1H-indol-4-yl] acetate</t>
+  </si>
+  <si>
+    <t>1445751-75-6</t>
+  </si>
+  <si>
+    <t>[3-[2-(dipropylamino)ethyl]-1H-indol-4-yl] acetate</t>
+  </si>
+  <si>
+    <t>77872-41-4</t>
+  </si>
+  <si>
+    <t>3-[2-[ethyl(methyl)amino]ethyl]-1H-indol-4-ol</t>
+  </si>
+  <si>
+    <t>22204-89-3</t>
+  </si>
+  <si>
+    <t>3-[2-(diethylamino)ethyl]-1H-indol-4-o</t>
+  </si>
+  <si>
+    <t>132328-45-1</t>
+  </si>
+  <si>
+    <t>3-[2-[di(propan-2-yl)amino]ethyl]-1H-indol-4-ol</t>
+  </si>
+  <si>
+    <t>63065-88-3</t>
+  </si>
+  <si>
+    <t>2595431-59-5</t>
+  </si>
+  <si>
+    <t>3-{2-[ethyl(propyl)amino]ethyl}-1H-indol-4-ol</t>
+  </si>
+  <si>
+    <t>763035-03-6</t>
+  </si>
+  <si>
+    <t>3-[2-[methyl(propyl)amino]ethyl]-1H-indol-4-ol</t>
+  </si>
+  <si>
+    <t>3-[2-[bis(prop-2-enyl)amino]ethyl]-1H-indol-4-ol</t>
   </si>
   <si>
     <t>63916-05-2</t>
@@ -5214,6 +5654,12 @@
   </si>
   <si>
     <t>Methyl 4-{[1-(2-chlorophenyl)-2-oxocyclohexyl]amino}pentanoate</t>
+  </si>
+  <si>
+    <t>147085-68-5</t>
+  </si>
+  <si>
+    <t>(4aR,9aS)-N-methyl-1,2,3,4,9,9a-hexahydrofluoren-4a-amine</t>
   </si>
   <si>
     <t>[1-(2-methoxyphenyl)-2-phenylethyl]dimethylamine</t>
@@ -6121,15 +6567,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6673,12 +7116,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
+      <selection pane="bottomLeft" activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -6699,7 +7142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="57.65" spans="1:3">
+    <row r="2" ht="46.35" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6707,1891 +7150,2041 @@
         <v>4</v>
       </c>
       <c r="C2" t="str">
+        <f>_xlfn.DISPIMG("ID_782B6C025B7D4844A0081FFB1342521E",1)</f>
+        <v>=DISPIMG("ID_782B6C025B7D4844A0081FFB1342521E",1)</v>
+      </c>
+    </row>
+    <row r="3" ht="57.65" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="str">
         <f>_xlfn.DISPIMG("ID_919D5C4AF7AC4D1DB0C2CC1440299C02",1)</f>
         <v>=DISPIMG("ID_919D5C4AF7AC4D1DB0C2CC1440299C02",1)</v>
       </c>
     </row>
-    <row r="3" ht="56.25" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="str">
+    <row r="4" ht="56.25" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="str">
         <f>_xlfn.DISPIMG("ID_F999A8BB69204158A3B25B6A2183C4A8",1)</f>
         <v>=DISPIMG("ID_F999A8BB69204158A3B25B6A2183C4A8",1)</v>
       </c>
     </row>
-    <row r="4" ht="48.9" spans="1:3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="str">
+    <row r="5" ht="48.9" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="str">
         <f>_xlfn.DISPIMG("ID_4DA07298DBA0429BB6149D35BB154850",1)</f>
         <v>=DISPIMG("ID_4DA07298DBA0429BB6149D35BB154850",1)</v>
       </c>
     </row>
-    <row r="5" ht="46.4" spans="1:3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="str">
+    <row r="6" ht="46.4" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="str">
         <f>_xlfn.DISPIMG("ID_B0F14A0C1A724BC48198B5A9DF965859",1)</f>
         <v>=DISPIMG("ID_B0F14A0C1A724BC48198B5A9DF965859",1)</v>
       </c>
     </row>
-    <row r="6" ht="46.35" spans="1:3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="str">
-        <f>_xlfn.DISPIMG("ID_782B6C025B7D4844A0081FFB1342521E",1)</f>
-        <v>=DISPIMG("ID_782B6C025B7D4844A0081FFB1342521E",1)</v>
-      </c>
-    </row>
-    <row r="8" ht="68.45" spans="1:3">
+    <row r="8" ht="24.75" spans="1:3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="str">
+        <f>_xlfn.DISPIMG("ID_FB9BF2C126EC4735922341E9B7FC32D3",1)</f>
+        <v>=DISPIMG("ID_FB9BF2C126EC4735922341E9B7FC32D3",1)</v>
+      </c>
+    </row>
+    <row r="9" ht="22.55" spans="2:3">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.DISPIMG("ID_651E18D8D7794B2082298D11DA089F86",1)</f>
+        <v>=DISPIMG("ID_651E18D8D7794B2082298D11DA089F86",1)</v>
+      </c>
+    </row>
+    <row r="10" ht="32.65" spans="1:3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.DISPIMG("ID_3B2421D9C20A425CABFF5AAC7C485475",1)</f>
+        <v>=DISPIMG("ID_3B2421D9C20A425CABFF5AAC7C485475",1)</v>
+      </c>
+    </row>
+    <row r="11" ht="33.25" spans="1:3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.DISPIMG("ID_8A91BCA10E264186850B7542A5E12CB6",1)</f>
+        <v>=DISPIMG("ID_8A91BCA10E264186850B7542A5E12CB6",1)</v>
+      </c>
+    </row>
+    <row r="13" ht="70.95" spans="2:3">
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="str">
+        <f>_xlfn.DISPIMG("ID_99FF9BC1225D48BAA28ACEF45C40F27C",1)</f>
+        <v>=DISPIMG("ID_99FF9BC1225D48BAA28ACEF45C40F27C",1)</v>
+      </c>
+    </row>
+    <row r="14" ht="75" spans="2:3">
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="str">
+        <f>_xlfn.DISPIMG("ID_4233065AECC5457D8C64338DE423FE7D",1)</f>
+        <v>=DISPIMG("ID_4233065AECC5457D8C64338DE423FE7D",1)</v>
+      </c>
+    </row>
+    <row r="16" ht="57.45" spans="1:3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="str">
+        <f>_xlfn.DISPIMG("ID_3F05F1EA15C94DF0887F94E4B848FA04",1)</f>
+        <v>=DISPIMG("ID_3F05F1EA15C94DF0887F94E4B848FA04",1)</v>
+      </c>
+    </row>
+    <row r="17" ht="69" spans="2:3">
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="str">
+        <f>_xlfn.DISPIMG("ID_9D145259DCE042748B71D306FF8C7703",1)</f>
+        <v>=DISPIMG("ID_9D145259DCE042748B71D306FF8C7703",1)</v>
+      </c>
+    </row>
+    <row r="18" ht="70.2" spans="2:3">
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="str">
+        <f>_xlfn.DISPIMG("ID_8B18468424014624A038341641CAD865",1)</f>
+        <v>=DISPIMG("ID_8B18468424014624A038341641CAD865",1)</v>
+      </c>
+    </row>
+    <row r="19" ht="61.45" spans="2:3">
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="str">
+        <f>_xlfn.DISPIMG("ID_4DEA0262091D48E5A59E1B8295D4E438",1)</f>
+        <v>=DISPIMG("ID_4DEA0262091D48E5A59E1B8295D4E438",1)</v>
+      </c>
+    </row>
+    <row r="20" ht="68.45" spans="1:3">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="str">
         <f>_xlfn.DISPIMG("ID_EB424C29CAAE4E87BC5F32F39D2E59C5",1)</f>
         <v>=DISPIMG("ID_EB424C29CAAE4E87BC5F32F39D2E59C5",1)</v>
       </c>
     </row>
-    <row r="9" ht="72.9" spans="1:3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="str">
+    <row r="21" ht="72.9" spans="1:3">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="str">
         <f>_xlfn.DISPIMG("ID_C6102E0477F04118AC89A0C1E21EA7D5",1)</f>
         <v>=DISPIMG("ID_C6102E0477F04118AC89A0C1E21EA7D5",1)</v>
       </c>
     </row>
-    <row r="10" ht="64.95" spans="1:3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="str">
+    <row r="22" ht="64.95" spans="1:3">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="str">
         <f>_xlfn.DISPIMG("ID_2278C36EBF964F2BBB1C381DA8A1D14E",1)</f>
         <v>=DISPIMG("ID_2278C36EBF964F2BBB1C381DA8A1D14E",1)</v>
       </c>
     </row>
-    <row r="11" ht="75" spans="1:3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="str">
+    <row r="23" ht="75" spans="1:3">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="str">
         <f>_xlfn.DISPIMG("ID_A1695CA7E80543268231E73B274C83DF",1)</f>
         <v>=DISPIMG("ID_A1695CA7E80543268231E73B274C83DF",1)</v>
       </c>
     </row>
-    <row r="12" ht="60.65" spans="1:3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="str">
+    <row r="24" ht="60.65" spans="1:3">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="str">
         <f>_xlfn.DISPIMG("ID_0C6F5EF6A2C742B7BD82DE5C1158B3F9",1)</f>
         <v>=DISPIMG("ID_0C6F5EF6A2C742B7BD82DE5C1158B3F9",1)</v>
       </c>
     </row>
-    <row r="13" ht="57.45" spans="1:3">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="str">
-        <f>_xlfn.DISPIMG("ID_3F05F1EA15C94DF0887F94E4B848FA04",1)</f>
-        <v>=DISPIMG("ID_3F05F1EA15C94DF0887F94E4B848FA04",1)</v>
-      </c>
-    </row>
-    <row r="14" ht="69" spans="2:3">
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="str">
-        <f>_xlfn.DISPIMG("ID_9D145259DCE042748B71D306FF8C7703",1)</f>
-        <v>=DISPIMG("ID_9D145259DCE042748B71D306FF8C7703",1)</v>
-      </c>
-    </row>
-    <row r="15" ht="70.2" spans="2:3">
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="str">
-        <f>_xlfn.DISPIMG("ID_8B18468424014624A038341641CAD865",1)</f>
-        <v>=DISPIMG("ID_8B18468424014624A038341641CAD865",1)</v>
-      </c>
-    </row>
-    <row r="16" ht="61.45" spans="2:3">
-      <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="str">
-        <f>_xlfn.DISPIMG("ID_4DEA0262091D48E5A59E1B8295D4E438",1)</f>
-        <v>=DISPIMG("ID_4DEA0262091D48E5A59E1B8295D4E438",1)</v>
-      </c>
-    </row>
-    <row r="18" ht="24.75" spans="1:3">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="str">
-        <f>_xlfn.DISPIMG("ID_FB9BF2C126EC4735922341E9B7FC32D3",1)</f>
-        <v>=DISPIMG("ID_FB9BF2C126EC4735922341E9B7FC32D3",1)</v>
-      </c>
-    </row>
-    <row r="19" ht="22.55" spans="2:3">
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="str">
-        <f>_xlfn.DISPIMG("ID_651E18D8D7794B2082298D11DA089F86",1)</f>
-        <v>=DISPIMG("ID_651E18D8D7794B2082298D11DA089F86",1)</v>
-      </c>
-    </row>
-    <row r="20" ht="32.65" spans="1:3">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="str">
-        <f>_xlfn.DISPIMG("ID_3B2421D9C20A425CABFF5AAC7C485475",1)</f>
-        <v>=DISPIMG("ID_3B2421D9C20A425CABFF5AAC7C485475",1)</v>
-      </c>
-    </row>
-    <row r="21" ht="33.25" spans="1:3">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="str">
-        <f>_xlfn.DISPIMG("ID_8A91BCA10E264186850B7542A5E12CB6",1)</f>
-        <v>=DISPIMG("ID_8A91BCA10E264186850B7542A5E12CB6",1)</v>
-      </c>
-    </row>
-    <row r="23" ht="70.95" spans="2:3">
-      <c r="B23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="str">
-        <f>_xlfn.DISPIMG("ID_99FF9BC1225D48BAA28ACEF45C40F27C",1)</f>
-        <v>=DISPIMG("ID_99FF9BC1225D48BAA28ACEF45C40F27C",1)</v>
-      </c>
-    </row>
-    <row r="24" ht="75" spans="2:3">
-      <c r="B24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="str">
-        <f>_xlfn.DISPIMG("ID_4233065AECC5457D8C64338DE423FE7D",1)</f>
-        <v>=DISPIMG("ID_4233065AECC5457D8C64338DE423FE7D",1)</v>
-      </c>
-    </row>
-    <row r="26" ht="43.9" spans="1:3">
+    <row r="25" ht="71.25" spans="1:3">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="str">
+        <f>_xlfn.DISPIMG("ID_6E101A675E2B470499AC30A32BA5CA96",1)</f>
+        <v>=DISPIMG("ID_6E101A675E2B470499AC30A32BA5CA96",1)</v>
+      </c>
+    </row>
+    <row r="26" ht="61.55" spans="1:3">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C26" t="str">
+        <f>_xlfn.DISPIMG("ID_8E767C9F8EBD4B3ABDE6F8B5711ACE85",1)</f>
+        <v>=DISPIMG("ID_8E767C9F8EBD4B3ABDE6F8B5711ACE85",1)</v>
+      </c>
+    </row>
+    <row r="27" ht="63.55" spans="2:3">
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="str">
+        <f>_xlfn.DISPIMG("ID_2F2395AD3EEC4150B75D06D507A6E912",1)</f>
+        <v>=DISPIMG("ID_2F2395AD3EEC4150B75D06D507A6E912",1)</v>
+      </c>
+    </row>
+    <row r="28" ht="69.8" spans="1:3">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="str">
+        <f>_xlfn.DISPIMG("ID_A49C0F01425647AB8879C0F67E7C5CEF",1)</f>
+        <v>=DISPIMG("ID_A49C0F01425647AB8879C0F67E7C5CEF",1)</v>
+      </c>
+    </row>
+    <row r="29" ht="64.25" spans="1:3">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="str">
+        <f>_xlfn.DISPIMG("ID_33DB2659169D4CB1839459612FC54880",1)</f>
+        <v>=DISPIMG("ID_33DB2659169D4CB1839459612FC54880",1)</v>
+      </c>
+    </row>
+    <row r="30" ht="69" spans="1:3">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="str">
+        <f>_xlfn.DISPIMG("ID_897C8A6C32894498B68ADDB51A5AB4FD",1)</f>
+        <v>=DISPIMG("ID_897C8A6C32894498B68ADDB51A5AB4FD",1)</v>
+      </c>
+    </row>
+    <row r="31" ht="66.75" spans="1:3">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="str">
+        <f>_xlfn.DISPIMG("ID_23E1315788F840E4B6CEF2A43CEDA9C2",1)</f>
+        <v>=DISPIMG("ID_23E1315788F840E4B6CEF2A43CEDA9C2",1)</v>
+      </c>
+    </row>
+    <row r="32" ht="67.5" spans="1:3">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="str">
+        <f>_xlfn.DISPIMG("ID_28E9503E18FD49F4AD7AD597BCB7B50A",1)</f>
+        <v>=DISPIMG("ID_28E9503E18FD49F4AD7AD597BCB7B50A",1)</v>
+      </c>
+    </row>
+    <row r="33" ht="74.25" spans="1:3">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="str">
+        <f>_xlfn.DISPIMG("ID_07B5F28D25D646BE9D1517C8D737CEA5",1)</f>
+        <v>=DISPIMG("ID_07B5F28D25D646BE9D1517C8D737CEA5",1)</v>
+      </c>
+    </row>
+    <row r="34" ht="67.5" spans="1:3">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="str">
+        <f>_xlfn.DISPIMG("ID_4CCCD0B5F9AE4E4FA09E7FF050D71276",1)</f>
+        <v>=DISPIMG("ID_4CCCD0B5F9AE4E4FA09E7FF050D71276",1)</v>
+      </c>
+    </row>
+    <row r="35" ht="70.5" spans="1:3">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="str">
+        <f>_xlfn.DISPIMG("ID_C9AB2906C33E4F3DA3FEA08196A4456E",1)</f>
+        <v>=DISPIMG("ID_C9AB2906C33E4F3DA3FEA08196A4456E",1)</v>
+      </c>
+    </row>
+    <row r="36" ht="75" spans="2:3">
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="str">
+        <f>_xlfn.DISPIMG("ID_E90FDB84112D4B54ABA53987B8B38549",1)</f>
+        <v>=DISPIMG("ID_E90FDB84112D4B54ABA53987B8B38549",1)</v>
+      </c>
+    </row>
+    <row r="38" ht="43.9" spans="1:3">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="str">
         <f>_xlfn.DISPIMG("ID_829524599EDF4C97BB743BE263401099",1)</f>
         <v>=DISPIMG("ID_829524599EDF4C97BB743BE263401099",1)</v>
       </c>
     </row>
-    <row r="27" ht="36.95" spans="2:3">
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="str">
+    <row r="39" ht="36.95" spans="2:3">
+      <c r="B39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="str">
         <f>_xlfn.DISPIMG("ID_EAA5ED30BB904DF7ADD283F1072EEB2E",1)</f>
         <v>=DISPIMG("ID_EAA5ED30BB904DF7ADD283F1072EEB2E",1)</v>
       </c>
     </row>
-    <row r="28" ht="34" spans="1:3">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" t="str">
+    <row r="40" ht="34" spans="1:3">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="str">
         <f>_xlfn.DISPIMG("ID_94DF3013D80E49B088588A1885D59B8C",1)</f>
         <v>=DISPIMG("ID_94DF3013D80E49B088588A1885D59B8C",1)</v>
       </c>
     </row>
-    <row r="29" ht="40.5" spans="1:3">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="str">
+    <row r="41" ht="40.5" spans="1:3">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="str">
         <f>_xlfn.DISPIMG("ID_65A470F6201841E4AC6EB3E439B3DE8F",1)</f>
         <v>=DISPIMG("ID_65A470F6201841E4AC6EB3E439B3DE8F",1)</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" ht="53.2" spans="1:3">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" t="str">
+    <row r="42" spans="2:2">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" ht="53.2" spans="1:3">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="str">
         <f>_xlfn.DISPIMG("ID_6AF9D00EF54847F295D2769F73F03CD9",1)</f>
         <v>=DISPIMG("ID_6AF9D00EF54847F295D2769F73F03CD9",1)</v>
       </c>
     </row>
-    <row r="32" ht="57" spans="2:3">
-      <c r="B32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" t="str">
+    <row r="44" ht="57" spans="2:3">
+      <c r="B44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="str">
         <f>_xlfn.DISPIMG("ID_17547F0031534D04B8D257F624649E7F",1)</f>
         <v>=DISPIMG("ID_17547F0031534D04B8D257F624649E7F",1)</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" ht="43.5" spans="1:3">
-      <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" t="str">
+    <row r="45" spans="2:2">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" ht="43.5" spans="1:3">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="str">
         <f>_xlfn.DISPIMG("ID_B8CBBEF57B76493EB65CFF82F5AA27E0",1)</f>
         <v>=DISPIMG("ID_B8CBBEF57B76493EB65CFF82F5AA27E0",1)</v>
       </c>
     </row>
-    <row r="35" ht="43.2" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="str">
+    <row r="47" ht="43.2" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="str">
         <f>_xlfn.DISPIMG("ID_AE4897C440B346B5A29B850EE7A20C60",1)</f>
         <v>=DISPIMG("ID_AE4897C440B346B5A29B850EE7A20C60",1)</v>
       </c>
     </row>
-    <row r="36" ht="48.45" spans="1:3">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" t="str">
+    <row r="48" ht="48.45" spans="1:3">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="str">
         <f>_xlfn.DISPIMG("ID_0AB699CC6C87423D8171BBB9F8C68688",1)</f>
         <v>=DISPIMG("ID_0AB699CC6C87423D8171BBB9F8C68688",1)</v>
       </c>
     </row>
-    <row r="37" ht="43.2" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" t="str">
+    <row r="49" ht="43.2" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" t="str">
         <f>_xlfn.DISPIMG("ID_EBF762B7B69E4E2FA4DF25B0418D0B0F",1)</f>
         <v>=DISPIMG("ID_EBF762B7B69E4E2FA4DF25B0418D0B0F",1)</v>
       </c>
     </row>
-    <row r="38" ht="51.75" spans="1:3">
-      <c r="A38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" t="str">
+    <row r="50" ht="51.75" spans="1:3">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" t="str">
         <f>_xlfn.DISPIMG("ID_AA2DFB748661451D94459913926AEF0F",1)</f>
         <v>=DISPIMG("ID_AA2DFB748661451D94459913926AEF0F",1)</v>
       </c>
     </row>
-    <row r="39" ht="43.2" spans="1:3">
-      <c r="A39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" t="str">
+    <row r="51" ht="43.2" spans="1:3">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" t="str">
         <f>_xlfn.DISPIMG("ID_865B280A48D644FE8A8BA40EF8B33FFC",1)</f>
         <v>=DISPIMG("ID_865B280A48D644FE8A8BA40EF8B33FFC",1)</v>
       </c>
     </row>
-    <row r="40" ht="43.2" spans="1:3">
-      <c r="A40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" t="str">
+    <row r="52" ht="43.2" spans="1:3">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" t="str">
         <f>_xlfn.DISPIMG("ID_A0309D59FCD14CA7B1A937D92D96DDF3",1)</f>
         <v>=DISPIMG("ID_A0309D59FCD14CA7B1A937D92D96DDF3",1)</v>
       </c>
     </row>
-    <row r="41" ht="43.2" spans="1:3">
-      <c r="A41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" t="str">
+    <row r="53" ht="43.2" spans="1:3">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" t="str">
         <f>_xlfn.DISPIMG("ID_4139FBDDD6F44DA29F4386D273AC1204",1)</f>
         <v>=DISPIMG("ID_4139FBDDD6F44DA29F4386D273AC1204",1)</v>
       </c>
     </row>
-    <row r="42" ht="34.1" spans="1:3">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" t="str">
+    <row r="54" ht="34.1" spans="1:3">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" t="str">
         <f>_xlfn.DISPIMG("ID_DEC7CB250DC945BB8CBD3D2B62BC1EB0",1)</f>
         <v>=DISPIMG("ID_DEC7CB250DC945BB8CBD3D2B62BC1EB0",1)</v>
       </c>
     </row>
-    <row r="43" ht="33.6" spans="1:3">
-      <c r="A43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" t="str">
+    <row r="55" ht="33.6" spans="1:3">
+      <c r="A55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" t="str">
         <f>_xlfn.DISPIMG("ID_FF9382D66A284D3B9BD80508F7541C11",1)</f>
         <v>=DISPIMG("ID_FF9382D66A284D3B9BD80508F7541C11",1)</v>
       </c>
     </row>
-    <row r="45" ht="43.2" spans="1:3">
-      <c r="A45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" t="str">
+    <row r="57" ht="43.2" spans="1:3">
+      <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" t="str">
         <f>_xlfn.DISPIMG("ID_D94F0DB8909647DBBB28EDAE3EB72332",1)</f>
         <v>=DISPIMG("ID_D94F0DB8909647DBBB28EDAE3EB72332",1)</v>
       </c>
     </row>
-    <row r="46" ht="57.6" spans="1:3">
-      <c r="A46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" t="str">
+    <row r="58" ht="57.6" spans="1:3">
+      <c r="A58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" t="str">
         <f>_xlfn.DISPIMG("ID_34C819E688AB46B5B2B487DE9F0621D0",1)</f>
         <v>=DISPIMG("ID_34C819E688AB46B5B2B487DE9F0621D0",1)</v>
       </c>
     </row>
-    <row r="47" ht="43.2" spans="2:3">
-      <c r="B47" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" t="str">
+    <row r="59" ht="43.2" spans="2:3">
+      <c r="B59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" t="str">
         <f>_xlfn.DISPIMG("ID_D115C62B28AC4266B6AA082857E52062",1)</f>
         <v>=DISPIMG("ID_D115C62B28AC4266B6AA082857E52062",1)</v>
       </c>
     </row>
-    <row r="48" ht="59.25" spans="2:3">
-      <c r="B48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" t="str">
+    <row r="60" ht="59.25" spans="2:3">
+      <c r="B60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" t="str">
         <f>_xlfn.DISPIMG("ID_9F30B13D3A0F4130AE0F116CFE693F95",1)</f>
         <v>=DISPIMG("ID_9F30B13D3A0F4130AE0F116CFE693F95",1)</v>
       </c>
     </row>
-    <row r="50" ht="82.8" spans="2:3">
-      <c r="B50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" t="str">
+    <row r="62" ht="82.8" spans="2:3">
+      <c r="B62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" t="str">
         <f>_xlfn.DISPIMG("ID_D643DEC9553641DDB7B4FB80E6DFF700",1)</f>
         <v>=DISPIMG("ID_D643DEC9553641DDB7B4FB80E6DFF700",1)</v>
       </c>
     </row>
-    <row r="51" ht="85" spans="1:3">
-      <c r="A51" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" t="str">
+    <row r="63" ht="85" spans="1:3">
+      <c r="A63" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" t="str">
         <f>_xlfn.DISPIMG("ID_24EEA67180314072B6CC844BA90CC7EE",1)</f>
         <v>=DISPIMG("ID_24EEA67180314072B6CC844BA90CC7EE",1)</v>
       </c>
     </row>
-    <row r="52" ht="62" spans="1:3">
-      <c r="A52" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" t="str">
+    <row r="64" ht="62" spans="1:3">
+      <c r="A64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" t="str">
         <f>_xlfn.DISPIMG("ID_41DC15838E2D4A6CBD30E6E99CA7C6F0",1)</f>
         <v>=DISPIMG("ID_41DC15838E2D4A6CBD30E6E99CA7C6F0",1)</v>
       </c>
     </row>
-    <row r="53" ht="65.45" spans="2:3">
-      <c r="B53" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" t="str">
+    <row r="65" ht="65.45" spans="2:3">
+      <c r="B65" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" t="str">
         <f>_xlfn.DISPIMG("ID_7667A57E86454C8882052BC191914E1B",1)</f>
         <v>=DISPIMG("ID_7667A57E86454C8882052BC191914E1B",1)</v>
       </c>
     </row>
-    <row r="54" ht="75" spans="1:3">
-      <c r="A54" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" t="str">
+    <row r="66" ht="75" spans="1:3">
+      <c r="A66" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" t="str">
         <f>_xlfn.DISPIMG("ID_016B945204454020A160E6BC45103344",1)</f>
         <v>=DISPIMG("ID_016B945204454020A160E6BC45103344",1)</v>
       </c>
     </row>
-    <row r="55" ht="45.5" spans="1:3">
-      <c r="A55" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" t="str">
+    <row r="67" ht="45.5" spans="1:3">
+      <c r="A67" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" t="str">
         <f>_xlfn.DISPIMG("ID_3990C40384384B10B6745C2BA6338B4D",1)</f>
         <v>=DISPIMG("ID_3990C40384384B10B6745C2BA6338B4D",1)</v>
       </c>
     </row>
-    <row r="56" ht="43.25" spans="1:3">
-      <c r="A56" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" t="str">
+    <row r="68" ht="43.25" spans="1:3">
+      <c r="A68" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" t="str">
         <f>_xlfn.DISPIMG("ID_770A2E6E2CDF4230ABE6FD76A4FBACBD",1)</f>
         <v>=DISPIMG("ID_770A2E6E2CDF4230ABE6FD76A4FBACBD",1)</v>
       </c>
     </row>
-    <row r="57" ht="41.5" spans="1:3">
-      <c r="A57" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" t="str">
+    <row r="69" ht="41.5" spans="1:3">
+      <c r="A69" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" t="str">
         <f>_xlfn.DISPIMG("ID_3FD2FAE87D204CBA8FDE335CF9E25EC6",1)</f>
         <v>=DISPIMG("ID_3FD2FAE87D204CBA8FDE335CF9E25EC6",1)</v>
       </c>
     </row>
-    <row r="58" ht="72" spans="1:3">
-      <c r="A58" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" t="str">
+    <row r="70" ht="72" spans="1:3">
+      <c r="A70" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" t="str">
         <f>_xlfn.DISPIMG("ID_D90C5F6E84744643BD98A4A53D62718D",1)</f>
         <v>=DISPIMG("ID_D90C5F6E84744643BD98A4A53D62718D",1)</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" ht="69.1" spans="1:3">
-      <c r="A60" t="s">
-        <v>89</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" t="str">
+    <row r="71" spans="2:2">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" ht="69.1" spans="1:3">
+      <c r="A72" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" t="str">
         <f>_xlfn.DISPIMG("ID_458ED637CF4E45659D65B95FC7FFC109",1)</f>
         <v>=DISPIMG("ID_458ED637CF4E45659D65B95FC7FFC109",1)</v>
       </c>
     </row>
-    <row r="61" ht="57.45" spans="1:3">
-      <c r="A61" t="s">
-        <v>91</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" t="str">
+    <row r="73" ht="57.45" spans="1:3">
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" t="str">
         <f>_xlfn.DISPIMG("ID_374792D46A174E5A89550F8C7462AD6D",1)</f>
         <v>=DISPIMG("ID_374792D46A174E5A89550F8C7462AD6D",1)</v>
       </c>
     </row>
-    <row r="62" ht="43.2" spans="1:3">
-      <c r="A62" t="s">
-        <v>93</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" t="str">
+    <row r="74" ht="43.2" spans="1:3">
+      <c r="A74" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" t="str">
         <f>_xlfn.DISPIMG("ID_69793A4FA5C04505B39ACF810D79C1A4",1)</f>
         <v>=DISPIMG("ID_69793A4FA5C04505B39ACF810D79C1A4",1)</v>
       </c>
     </row>
-    <row r="63" ht="43.2" spans="1:3">
-      <c r="A63" t="s">
-        <v>95</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C63" t="str">
+    <row r="75" ht="43.2" spans="1:3">
+      <c r="A75" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" t="str">
         <f>_xlfn.DISPIMG("ID_56278848FE184650BD8FC266E593871E",1)</f>
         <v>=DISPIMG("ID_56278848FE184650BD8FC266E593871E",1)</v>
       </c>
     </row>
-    <row r="64" ht="75" spans="1:3">
-      <c r="A64" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" t="str">
+    <row r="76" ht="75" spans="1:3">
+      <c r="A76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" t="str">
         <f>_xlfn.DISPIMG("ID_D3FC4682F9534AFDBD5A0F5AA7685D25",1)</f>
         <v>=DISPIMG("ID_D3FC4682F9534AFDBD5A0F5AA7685D25",1)</v>
       </c>
     </row>
-    <row r="65" ht="51.75" spans="1:3">
-      <c r="A65" t="s">
-        <v>99</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" t="str">
+    <row r="77" ht="51.75" spans="1:3">
+      <c r="A77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" t="str">
         <f>_xlfn.DISPIMG("ID_190694FD91554C249E2F72BFD5B3A95C",1)</f>
         <v>=DISPIMG("ID_190694FD91554C249E2F72BFD5B3A95C",1)</v>
       </c>
     </row>
-    <row r="66" ht="36.75" spans="1:3">
-      <c r="A66" t="s">
-        <v>101</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C66" t="str">
+    <row r="78" ht="36.75" spans="1:3">
+      <c r="A78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" t="str">
         <f>_xlfn.DISPIMG("ID_3B0C0820FED640F280C1FEF95DE6053C",1)</f>
         <v>=DISPIMG("ID_3B0C0820FED640F280C1FEF95DE6053C",1)</v>
       </c>
     </row>
-    <row r="67" ht="75" spans="1:3">
-      <c r="A67" t="s">
-        <v>103</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67" t="str">
+    <row r="79" ht="75" spans="1:3">
+      <c r="A79" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" t="str">
         <f>_xlfn.DISPIMG("ID_F24158B1A2A24B0F946B85570FFCA01E",1)</f>
         <v>=DISPIMG("ID_F24158B1A2A24B0F946B85570FFCA01E",1)</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" ht="43.2" spans="1:3">
-      <c r="A69" t="s">
-        <v>105</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C69" t="str">
+    <row r="80" spans="2:2">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" ht="43.2" spans="1:3">
+      <c r="A81" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" t="str">
         <f>_xlfn.DISPIMG("ID_F83F0793F870473194E1DD5C21327DD9",1)</f>
         <v>=DISPIMG("ID_F83F0793F870473194E1DD5C21327DD9",1)</v>
       </c>
     </row>
-    <row r="70" ht="43.2" spans="1:3">
-      <c r="A70" t="s">
-        <v>107</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" t="str">
+    <row r="82" ht="43.2" spans="1:3">
+      <c r="A82" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" t="str">
         <f>_xlfn.DISPIMG("ID_8B2046934FBF43DD9DDF606E62EB51B8",1)</f>
         <v>=DISPIMG("ID_8B2046934FBF43DD9DDF606E62EB51B8",1)</v>
       </c>
     </row>
-    <row r="72" ht="74.25" spans="1:3">
-      <c r="A72" t="s">
-        <v>109</v>
-      </c>
-      <c r="B72" t="s">
-        <v>110</v>
-      </c>
-      <c r="C72" t="str">
+    <row r="84" ht="74.25" spans="1:3">
+      <c r="A84" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" t="str">
         <f>_xlfn.DISPIMG("ID_6E9E4D12CCE7422E891E7218DEE175A5",1)</f>
         <v>=DISPIMG("ID_6E9E4D12CCE7422E891E7218DEE175A5",1)</v>
       </c>
     </row>
-    <row r="73" ht="55.35" spans="1:3">
-      <c r="A73" t="s">
-        <v>111</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C73" t="str">
+    <row r="85" ht="55.35" spans="1:3">
+      <c r="A85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" t="str">
         <f>_xlfn.DISPIMG("ID_7C400AB5FF5248508153A05BAEB15590",1)</f>
         <v>=DISPIMG("ID_7C400AB5FF5248508153A05BAEB15590",1)</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="2"/>
-    </row>
-    <row r="75" ht="45.6" spans="1:3">
-      <c r="A75" t="s">
-        <v>113</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C75" t="str">
+    <row r="86" spans="2:2">
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" ht="45.6" spans="1:3">
+      <c r="A87" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" t="str">
         <f>_xlfn.DISPIMG("ID_A4EC05477782407EBE5FE4850F2FF09B",1)</f>
         <v>=DISPIMG("ID_A4EC05477782407EBE5FE4850F2FF09B",1)</v>
       </c>
     </row>
-    <row r="76" ht="57.75" spans="1:3">
-      <c r="A76" t="s">
-        <v>115</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C76" t="str">
+    <row r="88" ht="57.75" spans="1:3">
+      <c r="A88" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" t="str">
         <f>_xlfn.DISPIMG("ID_1FF474BCD7F542E3B4C96873737C194D",1)</f>
         <v>=DISPIMG("ID_1FF474BCD7F542E3B4C96873737C194D",1)</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="2"/>
-    </row>
-    <row r="78" ht="49.5" spans="1:3">
-      <c r="A78" t="s">
-        <v>117</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" t="str">
+    <row r="89" spans="2:2">
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" ht="49.5" spans="1:3">
+      <c r="A90" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C90" t="str">
         <f>_xlfn.DISPIMG("ID_4CE22950848B4218B5852F3FDBB09CD0",1)</f>
         <v>=DISPIMG("ID_4CE22950848B4218B5852F3FDBB09CD0",1)</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="2"/>
-    </row>
-    <row r="80" ht="60" spans="1:3">
-      <c r="A80" t="s">
-        <v>119</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C80" t="str">
+    <row r="91" spans="2:2">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" ht="60" spans="1:3">
+      <c r="A92" t="s">
+        <v>140</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" t="str">
         <f>_xlfn.DISPIMG("ID_59B6021A7D87460DB8E14008A1FFD8B5",1)</f>
         <v>=DISPIMG("ID_59B6021A7D87460DB8E14008A1FFD8B5",1)</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="2"/>
-    </row>
-    <row r="82" ht="55.5" spans="1:3">
-      <c r="A82" t="s">
-        <v>121</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C82" t="str">
+    <row r="93" spans="2:2">
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" ht="55.5" spans="1:3">
+      <c r="A94" t="s">
+        <v>142</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C94" t="str">
         <f>_xlfn.DISPIMG("ID_EA02BB275DF242D091A57B157E75EFED",1)</f>
         <v>=DISPIMG("ID_EA02BB275DF242D091A57B157E75EFED",1)</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" ht="40.25" spans="1:3">
-      <c r="A84" t="s">
-        <v>123</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C84" t="str">
+    <row r="95" spans="2:2">
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" ht="40.25" spans="1:3">
+      <c r="A96" t="s">
+        <v>144</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" t="str">
         <f>_xlfn.DISPIMG("ID_E7BAF9679D4543DA8400E2A31177D95E",1)</f>
         <v>=DISPIMG("ID_E7BAF9679D4543DA8400E2A31177D95E",1)</v>
       </c>
     </row>
-    <row r="86" ht="75" spans="1:3">
-      <c r="A86" t="s">
-        <v>125</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C86" t="str">
+    <row r="98" ht="75" spans="1:3">
+      <c r="A98" t="s">
+        <v>146</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C98" t="str">
         <f>_xlfn.DISPIMG("ID_DB0DB7EAC831447E8127E03D525DBC71",1)</f>
         <v>=DISPIMG("ID_DB0DB7EAC831447E8127E03D525DBC71",1)</v>
       </c>
     </row>
-    <row r="87" ht="57.3" spans="1:3">
-      <c r="A87" t="s">
-        <v>127</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C87" t="str">
+    <row r="99" ht="57.3" spans="1:3">
+      <c r="A99" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99" t="str">
         <f>_xlfn.DISPIMG("ID_24E7D4A667AB4355841A5D53EA456781",1)</f>
         <v>=DISPIMG("ID_24E7D4A667AB4355841A5D53EA456781",1)</v>
       </c>
     </row>
-    <row r="88" ht="67.5" spans="1:3">
-      <c r="A88" t="s">
-        <v>129</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C88" t="str">
+    <row r="100" ht="67.5" spans="1:3">
+      <c r="A100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C100" t="str">
         <f>_xlfn.DISPIMG("ID_E3684A825DB444C4A58C84456213940C",1)</f>
         <v>=DISPIMG("ID_E3684A825DB444C4A58C84456213940C",1)</v>
       </c>
     </row>
-    <row r="89" ht="60.65" spans="1:3">
-      <c r="A89" t="s">
-        <v>131</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C89" t="str">
+    <row r="101" ht="60.65" spans="1:3">
+      <c r="A101" t="s">
+        <v>152</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" t="str">
         <f>_xlfn.DISPIMG("ID_88BAC56BB5774A549663A40B4B5156E8",1)</f>
         <v>=DISPIMG("ID_88BAC56BB5774A549663A40B4B5156E8",1)</v>
       </c>
     </row>
-    <row r="91" ht="43.2" spans="1:3">
-      <c r="A91" t="s">
-        <v>133</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C91" t="str">
+    <row r="103" ht="43.2" spans="1:3">
+      <c r="A103" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C103" t="str">
         <f>_xlfn.DISPIMG("ID_1D53CF384E7A465FA833A88ED90CAF08",1)</f>
         <v>=DISPIMG("ID_1D53CF384E7A465FA833A88ED90CAF08",1)</v>
       </c>
     </row>
-    <row r="92" ht="49.6" spans="1:3">
-      <c r="A92" t="s">
-        <v>135</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C92" t="str">
+    <row r="104" ht="49.6" spans="1:3">
+      <c r="A104" t="s">
+        <v>156</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" t="str">
         <f>_xlfn.DISPIMG("ID_A2BCA97CED3B4E08ADBB3EC87BA871ED",1)</f>
         <v>=DISPIMG("ID_A2BCA97CED3B4E08ADBB3EC87BA871ED",1)</v>
       </c>
     </row>
-    <row r="93" ht="43.2" spans="1:3">
-      <c r="A93" t="s">
-        <v>137</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C93" t="str">
+    <row r="105" ht="43.2" spans="1:3">
+      <c r="A105" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C105" t="str">
         <f>_xlfn.DISPIMG("ID_9621ADCC2B5B4920A85908034E68D169",1)</f>
         <v>=DISPIMG("ID_9621ADCC2B5B4920A85908034E68D169",1)</v>
       </c>
     </row>
-    <row r="94" ht="43.2" spans="1:3">
-      <c r="A94" t="s">
-        <v>139</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C94" t="str">
+    <row r="106" ht="43.2" spans="1:3">
+      <c r="A106" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C106" t="str">
         <f>_xlfn.DISPIMG("ID_CF25BC6AED2F43A1B0C6A31A78BB3B3A",1)</f>
         <v>=DISPIMG("ID_CF25BC6AED2F43A1B0C6A31A78BB3B3A",1)</v>
       </c>
     </row>
-    <row r="95" ht="57.6" spans="1:3">
-      <c r="A95" t="s">
-        <v>141</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C95" t="str">
+    <row r="107" ht="57.6" spans="1:3">
+      <c r="A107" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C107" t="str">
         <f>_xlfn.DISPIMG("ID_3DE16B52CD81487CA89BC1F1D813D62C",1)</f>
         <v>=DISPIMG("ID_3DE16B52CD81487CA89BC1F1D813D62C",1)</v>
       </c>
     </row>
-    <row r="96" ht="57.6" spans="1:3">
-      <c r="A96" t="s">
-        <v>143</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C96" t="str">
+    <row r="108" ht="57.6" spans="1:3">
+      <c r="A108" t="s">
+        <v>164</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C108" t="str">
         <f>_xlfn.DISPIMG("ID_B6951C49546A4F22B1E2671F30D5BDB6",1)</f>
         <v>=DISPIMG("ID_B6951C49546A4F22B1E2671F30D5BDB6",1)</v>
       </c>
     </row>
-    <row r="97" ht="57.6" spans="1:3">
-      <c r="A97" t="s">
-        <v>145</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C97" t="str">
+    <row r="109" ht="57.6" spans="1:3">
+      <c r="A109" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C109" t="str">
         <f>_xlfn.DISPIMG("ID_D8970940F3AC40B89172A999CA515403",1)</f>
         <v>=DISPIMG("ID_D8970940F3AC40B89172A999CA515403",1)</v>
       </c>
     </row>
-    <row r="98" ht="57.6" spans="1:3">
-      <c r="A98" t="s">
-        <v>147</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C98" t="str">
+    <row r="110" ht="57.6" spans="1:3">
+      <c r="A110" t="s">
+        <v>168</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" t="str">
         <f>_xlfn.DISPIMG("ID_28E7D91F6C394542A96022461C79BA15",1)</f>
         <v>=DISPIMG("ID_28E7D91F6C394542A96022461C79BA15",1)</v>
       </c>
     </row>
-    <row r="99" ht="57.6" spans="1:3">
-      <c r="A99" t="s">
-        <v>149</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C99" t="str">
+    <row r="111" ht="57.6" spans="1:3">
+      <c r="A111" t="s">
+        <v>170</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C111" t="str">
         <f>_xlfn.DISPIMG("ID_F3C2B2D08FE94AC8AB1E32DF56EB1C2D",1)</f>
         <v>=DISPIMG("ID_F3C2B2D08FE94AC8AB1E32DF56EB1C2D",1)</v>
       </c>
     </row>
-    <row r="100" ht="71.15" spans="1:3">
-      <c r="A100" t="s">
-        <v>151</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C100" t="str">
+    <row r="112" ht="71.15" spans="1:3">
+      <c r="A112" t="s">
+        <v>172</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C112" t="str">
         <f>_xlfn.DISPIMG("ID_B69479F8B3B7401C9A495FA8F053AC84",1)</f>
         <v>=DISPIMG("ID_B69479F8B3B7401C9A495FA8F053AC84",1)</v>
       </c>
     </row>
-    <row r="101" ht="75" spans="1:3">
-      <c r="A101" t="s">
-        <v>153</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C101" t="str">
+    <row r="113" ht="75" spans="1:3">
+      <c r="A113" t="s">
+        <v>174</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C113" t="str">
         <f>_xlfn.DISPIMG("ID_23F1F9DC6BE644CCA5C1DDAE02ADE9FC",1)</f>
         <v>=DISPIMG("ID_23F1F9DC6BE644CCA5C1DDAE02ADE9FC",1)</v>
       </c>
     </row>
-    <row r="102" ht="75" spans="1:3">
-      <c r="A102" t="s">
-        <v>155</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C102" t="str">
+    <row r="114" ht="75" spans="1:3">
+      <c r="A114" t="s">
+        <v>176</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C114" t="str">
         <f>_xlfn.DISPIMG("ID_311C7DCA20124247949F960E6AF83633",1)</f>
         <v>=DISPIMG("ID_311C7DCA20124247949F960E6AF83633",1)</v>
       </c>
     </row>
-    <row r="103" ht="75" spans="1:3">
-      <c r="A103" t="s">
-        <v>157</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C103" t="str">
+    <row r="115" ht="75" spans="1:3">
+      <c r="A115" t="s">
+        <v>178</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C115" t="str">
         <f>_xlfn.DISPIMG("ID_48594AD68DD84B2099837F0E4E5DD0E5",1)</f>
         <v>=DISPIMG("ID_48594AD68DD84B2099837F0E4E5DD0E5",1)</v>
       </c>
     </row>
-    <row r="104" ht="57.6" spans="1:3">
-      <c r="A104" t="s">
-        <v>159</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C104" t="str">
+    <row r="116" ht="57.6" spans="1:3">
+      <c r="A116" t="s">
+        <v>180</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C116" t="str">
         <f>_xlfn.DISPIMG("ID_391D7E36C0B5474BB072331A515A799A",1)</f>
         <v>=DISPIMG("ID_391D7E36C0B5474BB072331A515A799A",1)</v>
       </c>
     </row>
-    <row r="105" ht="57.6" spans="1:3">
-      <c r="A105" t="s">
-        <v>161</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C105" t="str">
+    <row r="117" ht="57.6" spans="1:3">
+      <c r="A117" t="s">
+        <v>182</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C117" t="str">
         <f>_xlfn.DISPIMG("ID_F0AEAB59FA05435A8E3C466C679C848E",1)</f>
         <v>=DISPIMG("ID_F0AEAB59FA05435A8E3C466C679C848E",1)</v>
       </c>
     </row>
-    <row r="107" ht="42.75" spans="1:3">
-      <c r="A107" t="s">
-        <v>163</v>
-      </c>
-      <c r="B107" t="s">
-        <v>164</v>
-      </c>
-      <c r="C107" t="str">
+    <row r="119" ht="42.75" spans="1:3">
+      <c r="A119" t="s">
+        <v>184</v>
+      </c>
+      <c r="B119" t="s">
+        <v>185</v>
+      </c>
+      <c r="C119" t="str">
         <f>_xlfn.DISPIMG("ID_B54125181D09494B8DB5D37F528D7C71",1)</f>
         <v>=DISPIMG("ID_B54125181D09494B8DB5D37F528D7C71",1)</v>
       </c>
     </row>
-    <row r="108" ht="43.5" spans="1:3">
-      <c r="A108" t="s">
-        <v>165</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C108" t="str">
+    <row r="120" ht="43.5" spans="1:3">
+      <c r="A120" t="s">
+        <v>186</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C120" t="str">
         <f>_xlfn.DISPIMG("ID_9B6FF47063D44198944D18CAFD4C2662",1)</f>
         <v>=DISPIMG("ID_9B6FF47063D44198944D18CAFD4C2662",1)</v>
       </c>
     </row>
-    <row r="109" ht="51" spans="1:3">
-      <c r="A109" t="s">
-        <v>167</v>
-      </c>
-      <c r="B109" t="s">
-        <v>168</v>
-      </c>
-      <c r="C109" t="str">
+    <row r="121" ht="51" spans="1:3">
+      <c r="A121" t="s">
+        <v>188</v>
+      </c>
+      <c r="B121" t="s">
+        <v>189</v>
+      </c>
+      <c r="C121" t="str">
         <f>_xlfn.DISPIMG("ID_2E5D38CC78DA428FBDFECBA21FAACA8B",1)</f>
         <v>=DISPIMG("ID_2E5D38CC78DA428FBDFECBA21FAACA8B",1)</v>
       </c>
     </row>
-    <row r="110" ht="49.5" spans="1:3">
-      <c r="A110" t="s">
-        <v>169</v>
-      </c>
-      <c r="B110" t="s">
-        <v>170</v>
-      </c>
-      <c r="C110" t="str">
+    <row r="122" ht="49.5" spans="1:3">
+      <c r="A122" t="s">
+        <v>190</v>
+      </c>
+      <c r="B122" t="s">
+        <v>191</v>
+      </c>
+      <c r="C122" t="str">
         <f>_xlfn.DISPIMG("ID_748F131178774794AB6A82E13D193305",1)</f>
         <v>=DISPIMG("ID_748F131178774794AB6A82E13D193305",1)</v>
       </c>
     </row>
-    <row r="111" ht="51" spans="1:3">
-      <c r="A111" t="s">
-        <v>171</v>
-      </c>
-      <c r="B111" t="s">
-        <v>172</v>
-      </c>
-      <c r="C111" t="str">
+    <row r="123" ht="51" spans="1:3">
+      <c r="A123" t="s">
+        <v>192</v>
+      </c>
+      <c r="B123" t="s">
+        <v>193</v>
+      </c>
+      <c r="C123" t="str">
         <f>_xlfn.DISPIMG("ID_1C1620702E1F4D2E8F22B5DE2AF2CDB2",1)</f>
         <v>=DISPIMG("ID_1C1620702E1F4D2E8F22B5DE2AF2CDB2",1)</v>
       </c>
     </row>
-    <row r="112" ht="56.25" spans="1:3">
-      <c r="A112" t="s">
-        <v>173</v>
-      </c>
-      <c r="B112" t="s">
-        <v>174</v>
-      </c>
-      <c r="C112" t="str">
+    <row r="124" ht="56.25" spans="1:3">
+      <c r="A124" t="s">
+        <v>194</v>
+      </c>
+      <c r="B124" t="s">
+        <v>195</v>
+      </c>
+      <c r="C124" t="str">
         <f>_xlfn.DISPIMG("ID_10E910CE278B404AB7A02E0B679797DF",1)</f>
         <v>=DISPIMG("ID_10E910CE278B404AB7A02E0B679797DF",1)</v>
       </c>
     </row>
-    <row r="113" ht="63.75" spans="1:3">
-      <c r="A113" t="s">
-        <v>175</v>
-      </c>
-      <c r="B113" t="s">
-        <v>176</v>
-      </c>
-      <c r="C113" t="str">
+    <row r="125" ht="63.75" spans="1:3">
+      <c r="A125" t="s">
+        <v>196</v>
+      </c>
+      <c r="B125" t="s">
+        <v>197</v>
+      </c>
+      <c r="C125" t="str">
         <f>_xlfn.DISPIMG("ID_986DBA3438C1441BAF9DE62354265708",1)</f>
         <v>=DISPIMG("ID_986DBA3438C1441BAF9DE62354265708",1)</v>
       </c>
     </row>
-    <row r="114" ht="47.25" spans="1:3">
-      <c r="A114" t="s">
-        <v>177</v>
-      </c>
-      <c r="B114" t="s">
-        <v>178</v>
-      </c>
-      <c r="C114" t="str">
+    <row r="126" ht="47.25" spans="1:3">
+      <c r="A126" t="s">
+        <v>198</v>
+      </c>
+      <c r="B126" t="s">
+        <v>199</v>
+      </c>
+      <c r="C126" t="str">
         <f>_xlfn.DISPIMG("ID_0DE526D44FB9482EA92FA3F4AE9B1248",1)</f>
         <v>=DISPIMG("ID_0DE526D44FB9482EA92FA3F4AE9B1248",1)</v>
       </c>
     </row>
-    <row r="115" ht="44.25" spans="1:3">
-      <c r="A115" t="s">
-        <v>179</v>
-      </c>
-      <c r="B115" t="s">
-        <v>180</v>
-      </c>
-      <c r="C115" t="str">
+    <row r="127" ht="44.25" spans="1:3">
+      <c r="A127" t="s">
+        <v>200</v>
+      </c>
+      <c r="B127" t="s">
+        <v>201</v>
+      </c>
+      <c r="C127" t="str">
         <f>_xlfn.DISPIMG("ID_4B504AD84AAD4F01BBC17D605CDDD852",1)</f>
         <v>=DISPIMG("ID_4B504AD84AAD4F01BBC17D605CDDD852",1)</v>
       </c>
     </row>
-    <row r="116" ht="40.25" spans="1:3">
-      <c r="A116" t="s">
-        <v>181</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C116" t="str">
+    <row r="128" ht="40.25" spans="1:3">
+      <c r="A128" t="s">
+        <v>202</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C128" t="str">
         <f>_xlfn.DISPIMG("ID_78AEC9A9BD164A57B9E0DA043C5DA320",1)</f>
         <v>=DISPIMG("ID_78AEC9A9BD164A57B9E0DA043C5DA320",1)</v>
       </c>
     </row>
-    <row r="117" ht="51" spans="1:3">
-      <c r="A117" t="s">
-        <v>183</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C117" t="str">
+    <row r="129" ht="51" spans="1:3">
+      <c r="A129" t="s">
+        <v>204</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C129" t="str">
         <f>_xlfn.DISPIMG("ID_DADA1D4D162C45BEA35731746238B350",1)</f>
         <v>=DISPIMG("ID_DADA1D4D162C45BEA35731746238B350",1)</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="2"/>
-    </row>
-    <row r="119" ht="46.75" spans="1:3">
-      <c r="A119" t="s">
-        <v>185</v>
-      </c>
-      <c r="B119" t="s">
-        <v>186</v>
-      </c>
-      <c r="C119" t="str">
+    <row r="130" spans="2:2">
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" ht="46.75" spans="1:3">
+      <c r="A131" t="s">
+        <v>206</v>
+      </c>
+      <c r="B131" t="s">
+        <v>207</v>
+      </c>
+      <c r="C131" t="str">
         <f>_xlfn.DISPIMG("ID_C3C7153D3C5546ECAABE343A9D67B050",1)</f>
         <v>=DISPIMG("ID_C3C7153D3C5546ECAABE343A9D67B050",1)</v>
       </c>
     </row>
-    <row r="120" ht="45.7" spans="1:3">
-      <c r="A120" t="s">
-        <v>187</v>
-      </c>
-      <c r="B120" t="s">
-        <v>188</v>
-      </c>
-      <c r="C120" t="str">
+    <row r="132" ht="45.7" spans="1:3">
+      <c r="A132" t="s">
+        <v>208</v>
+      </c>
+      <c r="B132" t="s">
+        <v>209</v>
+      </c>
+      <c r="C132" t="str">
         <f>_xlfn.DISPIMG("ID_ED4C3446C57D4EC192B4E2B201C79557",1)</f>
         <v>=DISPIMG("ID_ED4C3446C57D4EC192B4E2B201C79557",1)</v>
       </c>
     </row>
-    <row r="121" ht="66.75" spans="1:3">
-      <c r="A121" t="s">
-        <v>189</v>
-      </c>
-      <c r="B121" t="s">
-        <v>190</v>
-      </c>
-      <c r="C121" t="str">
+    <row r="133" ht="66.75" spans="1:3">
+      <c r="A133" t="s">
+        <v>210</v>
+      </c>
+      <c r="B133" t="s">
+        <v>211</v>
+      </c>
+      <c r="C133" t="str">
         <f>_xlfn.DISPIMG("ID_FA14C601293B49BEB509E9A9593E6DEA",1)</f>
         <v>=DISPIMG("ID_FA14C601293B49BEB509E9A9593E6DEA",1)</v>
       </c>
     </row>
-    <row r="122" ht="52.55" spans="1:3">
-      <c r="A122" t="s">
-        <v>191</v>
-      </c>
-      <c r="B122" t="s">
-        <v>192</v>
-      </c>
-      <c r="C122" t="str">
+    <row r="134" ht="52.55" spans="1:3">
+      <c r="A134" t="s">
+        <v>212</v>
+      </c>
+      <c r="B134" t="s">
+        <v>213</v>
+      </c>
+      <c r="C134" t="str">
         <f>_xlfn.DISPIMG("ID_2FAA249904BF4AE2AC3BF4FFD29CCB3E",1)</f>
         <v>=DISPIMG("ID_2FAA249904BF4AE2AC3BF4FFD29CCB3E",1)</v>
       </c>
     </row>
-    <row r="123" ht="54" spans="1:3">
-      <c r="A123" t="s">
-        <v>193</v>
-      </c>
-      <c r="B123" t="s">
-        <v>194</v>
-      </c>
-      <c r="C123" t="str">
+    <row r="135" ht="54" spans="1:3">
+      <c r="A135" t="s">
+        <v>214</v>
+      </c>
+      <c r="B135" t="s">
+        <v>215</v>
+      </c>
+      <c r="C135" t="str">
         <f>_xlfn.DISPIMG("ID_1AFA3D03DC674D5A8778E53B7202098F",1)</f>
         <v>=DISPIMG("ID_1AFA3D03DC674D5A8778E53B7202098F",1)</v>
       </c>
     </row>
-    <row r="124" ht="46.5" spans="1:3">
-      <c r="A124" t="s">
-        <v>195</v>
-      </c>
-      <c r="B124" t="s">
-        <v>196</v>
-      </c>
-      <c r="C124" t="str">
+    <row r="136" ht="46.5" spans="1:3">
+      <c r="A136" t="s">
+        <v>216</v>
+      </c>
+      <c r="B136" t="s">
+        <v>217</v>
+      </c>
+      <c r="C136" t="str">
         <f>_xlfn.DISPIMG("ID_F30A30D5C5014CE39745290E9AA3D532",1)</f>
         <v>=DISPIMG("ID_F30A30D5C5014CE39745290E9AA3D532",1)</v>
       </c>
     </row>
-    <row r="125" ht="51.75" spans="2:3">
-      <c r="B125" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C125" t="str">
+    <row r="137" ht="51.75" spans="2:3">
+      <c r="B137" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C137" t="str">
         <f>_xlfn.DISPIMG("ID_22933007A79F41679D43DAE49F7530E1",1)</f>
         <v>=DISPIMG("ID_22933007A79F41679D43DAE49F7530E1",1)</v>
       </c>
     </row>
-    <row r="126" ht="40.6" spans="1:3">
-      <c r="A126" t="s">
-        <v>198</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C126" t="str">
+    <row r="138" ht="40.6" spans="1:3">
+      <c r="A138" t="s">
+        <v>219</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C138" t="str">
         <f>_xlfn.DISPIMG("ID_66F4E0059F58441EB6FE6885D049EDD6",1)</f>
         <v>=DISPIMG("ID_66F4E0059F58441EB6FE6885D049EDD6",1)</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="2"/>
-    </row>
-    <row r="128" ht="52.5" spans="2:3">
-      <c r="B128" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C128" t="str">
+    <row r="139" ht="40.5" spans="1:3">
+      <c r="A139" t="s">
+        <v>221</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C139" t="str">
+        <f>_xlfn.DISPIMG("ID_4BB20DBAE68D44C2BA4C9E579E1670E1",1)</f>
+        <v>=DISPIMG("ID_4BB20DBAE68D44C2BA4C9E579E1670E1",1)</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" ht="52.5" spans="2:3">
+      <c r="B141" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C141" t="str">
         <f>_xlfn.DISPIMG("ID_E8877933CD6A48AE8029758CA1954657",1)</f>
         <v>=DISPIMG("ID_E8877933CD6A48AE8029758CA1954657",1)</v>
       </c>
     </row>
-    <row r="129" ht="55.5" spans="1:3">
-      <c r="A129" t="s">
-        <v>201</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C129" t="str">
+    <row r="142" ht="55.5" spans="1:3">
+      <c r="A142" t="s">
+        <v>224</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C142" t="str">
         <f>_xlfn.DISPIMG("ID_DDB2AAD25DE242EDADEF3E20DA9E604F",1)</f>
         <v>=DISPIMG("ID_DDB2AAD25DE242EDADEF3E20DA9E604F",1)</v>
       </c>
     </row>
-    <row r="130" ht="35.45" spans="2:3">
-      <c r="B130" t="s">
-        <v>203</v>
-      </c>
-      <c r="C130" t="str">
+    <row r="143" ht="35.45" spans="2:3">
+      <c r="B143" t="s">
+        <v>226</v>
+      </c>
+      <c r="C143" t="str">
         <f>_xlfn.DISPIMG("ID_8A3F222FA5F24EB587F41EC84F65640E",1)</f>
         <v>=DISPIMG("ID_8A3F222FA5F24EB587F41EC84F65640E",1)</v>
       </c>
     </row>
-    <row r="131" ht="54.75" spans="1:3">
-      <c r="A131" t="s">
-        <v>204</v>
-      </c>
-      <c r="B131" t="s">
-        <v>205</v>
-      </c>
-      <c r="C131" t="str">
+    <row r="144" ht="54.75" spans="1:3">
+      <c r="A144" t="s">
+        <v>227</v>
+      </c>
+      <c r="B144" t="s">
+        <v>228</v>
+      </c>
+      <c r="C144" t="str">
         <f>_xlfn.DISPIMG("ID_53C3465B758344988A12E016B6E8F124",1)</f>
         <v>=DISPIMG("ID_53C3465B758344988A12E016B6E8F124",1)</v>
       </c>
     </row>
-    <row r="132" ht="53.15" spans="1:3">
-      <c r="A132" t="s">
-        <v>206</v>
-      </c>
-      <c r="B132" t="s">
-        <v>207</v>
-      </c>
-      <c r="C132" t="str">
+    <row r="145" ht="53.15" spans="1:3">
+      <c r="A145" t="s">
+        <v>229</v>
+      </c>
+      <c r="B145" t="s">
+        <v>230</v>
+      </c>
+      <c r="C145" t="str">
         <f>_xlfn.DISPIMG("ID_A23702AEF2A34C2FA26F124F260408D5",1)</f>
         <v>=DISPIMG("ID_A23702AEF2A34C2FA26F124F260408D5",1)</v>
       </c>
     </row>
-    <row r="133" ht="48.25" spans="1:3">
-      <c r="A133" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C133" t="str">
+    <row r="146" ht="48.25" spans="1:3">
+      <c r="A146" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C146" t="str">
         <f>_xlfn.DISPIMG("ID_5FE2B6D717B84202A34C44ADA99D8606",1)</f>
         <v>=DISPIMG("ID_5FE2B6D717B84202A34C44ADA99D8606",1)</v>
       </c>
     </row>
-    <row r="134" ht="48.75" spans="1:3">
-      <c r="A134" t="s">
-        <v>210</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C134" t="str">
+    <row r="147" ht="48.75" spans="1:3">
+      <c r="A147" t="s">
+        <v>233</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C147" t="str">
         <f>_xlfn.DISPIMG("ID_DE16622908324B5C845BF53EE8FA0EE9",1)</f>
         <v>=DISPIMG("ID_DE16622908324B5C845BF53EE8FA0EE9",1)</v>
       </c>
     </row>
-    <row r="135" ht="38.65" spans="1:3">
-      <c r="A135" t="s">
-        <v>212</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C135" t="str">
+    <row r="148" ht="38.65" spans="1:3">
+      <c r="A148" t="s">
+        <v>235</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C148" t="str">
         <f>_xlfn.DISPIMG("ID_6D77EC53A91642839B81ACF0C0E45A48",1)</f>
         <v>=DISPIMG("ID_6D77EC53A91642839B81ACF0C0E45A48",1)</v>
       </c>
     </row>
-    <row r="136" ht="54" spans="1:3">
-      <c r="A136" t="s">
-        <v>214</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C136" t="str">
+    <row r="149" ht="54" spans="1:3">
+      <c r="A149" t="s">
+        <v>237</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C149" t="str">
         <f>_xlfn.DISPIMG("ID_A5B26B88572849BF8B98C54E98A5033D",1)</f>
         <v>=DISPIMG("ID_A5B26B88572849BF8B98C54E98A5033D",1)</v>
       </c>
     </row>
-    <row r="137" ht="54.75" spans="1:3">
-      <c r="A137" t="s">
-        <v>216</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C137" t="str">
+    <row r="150" ht="54.75" spans="1:3">
+      <c r="A150" t="s">
+        <v>239</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C150" t="str">
         <f>_xlfn.DISPIMG("ID_A3DD8E2FF8964B9C8850FD61A7C26128",1)</f>
         <v>=DISPIMG("ID_A3DD8E2FF8964B9C8850FD61A7C26128",1)</v>
       </c>
     </row>
-    <row r="138" ht="41.4" spans="2:3">
-      <c r="B138" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C138" t="str">
+    <row r="151" ht="41.4" spans="2:3">
+      <c r="B151" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C151" t="str">
         <f>_xlfn.DISPIMG("ID_F949643B242C4191846E2555F344B0B4",1)</f>
         <v>=DISPIMG("ID_F949643B242C4191846E2555F344B0B4",1)</v>
       </c>
     </row>
-    <row r="139" ht="46.75" spans="2:3">
-      <c r="B139" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C139" t="str">
+    <row r="152" ht="46.75" spans="2:3">
+      <c r="B152" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C152" t="str">
         <f>_xlfn.DISPIMG("ID_9D738A3F24C24A8195141EB18B14F2AE",1)</f>
         <v>=DISPIMG("ID_9D738A3F24C24A8195141EB18B14F2AE",1)</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="2"/>
-    </row>
-    <row r="141" ht="24.3" spans="1:3">
-      <c r="A141" t="s">
-        <v>220</v>
-      </c>
-      <c r="B141" t="s">
-        <v>221</v>
-      </c>
-      <c r="C141" t="str">
+    <row r="153" spans="2:2">
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" ht="24.3" spans="1:3">
+      <c r="A154" t="s">
+        <v>243</v>
+      </c>
+      <c r="B154" t="s">
+        <v>244</v>
+      </c>
+      <c r="C154" t="str">
         <f>_xlfn.DISPIMG("ID_3FA7868F9A6A43BF94F4F173E98EA809",1)</f>
         <v>=DISPIMG("ID_3FA7868F9A6A43BF94F4F173E98EA809",1)</v>
       </c>
     </row>
-    <row r="142" ht="26.75" spans="1:3">
-      <c r="A142" t="s">
-        <v>222</v>
-      </c>
-      <c r="B142" t="s">
-        <v>223</v>
-      </c>
-      <c r="C142" t="str">
+    <row r="155" ht="26.75" spans="1:3">
+      <c r="A155" t="s">
+        <v>245</v>
+      </c>
+      <c r="B155" t="s">
+        <v>246</v>
+      </c>
+      <c r="C155" t="str">
         <f>_xlfn.DISPIMG("ID_77123EE3B3C34EDB93F93BC615D36D7B",1)</f>
         <v>=DISPIMG("ID_77123EE3B3C34EDB93F93BC615D36D7B",1)</v>
       </c>
     </row>
-    <row r="143" ht="24.1" spans="1:3">
-      <c r="A143" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B143" t="s">
-        <v>225</v>
-      </c>
-      <c r="C143" t="str">
+    <row r="156" ht="24.1" spans="1:3">
+      <c r="A156" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B156" t="s">
+        <v>248</v>
+      </c>
+      <c r="C156" t="str">
         <f>_xlfn.DISPIMG("ID_243736512BDB483A96DF390A4F5647E9",1)</f>
         <v>=DISPIMG("ID_243736512BDB483A96DF390A4F5647E9",1)</v>
       </c>
     </row>
-    <row r="144" ht="27.2" spans="1:3">
-      <c r="A144" t="s">
-        <v>226</v>
-      </c>
-      <c r="B144" t="s">
-        <v>227</v>
-      </c>
-      <c r="C144" t="str">
+    <row r="157" ht="27.2" spans="1:3">
+      <c r="A157" t="s">
+        <v>249</v>
+      </c>
+      <c r="B157" t="s">
+        <v>250</v>
+      </c>
+      <c r="C157" t="str">
         <f>_xlfn.DISPIMG("ID_4288D26C7A86449591822D317F14C9A9",1)</f>
         <v>=DISPIMG("ID_4288D26C7A86449591822D317F14C9A9",1)</v>
       </c>
     </row>
-    <row r="146" ht="38.5" spans="1:3">
-      <c r="A146" t="s">
-        <v>228</v>
-      </c>
-      <c r="B146" t="s">
-        <v>229</v>
-      </c>
-      <c r="C146" t="str">
+    <row r="159" ht="38.5" spans="1:3">
+      <c r="A159" t="s">
+        <v>251</v>
+      </c>
+      <c r="B159" t="s">
+        <v>252</v>
+      </c>
+      <c r="C159" t="str">
         <f>_xlfn.DISPIMG("ID_99C647C189AD4535B6B2F67EE8C1011F",1)</f>
         <v>=DISPIMG("ID_99C647C189AD4535B6B2F67EE8C1011F",1)</v>
       </c>
     </row>
-    <row r="147" ht="37.5" spans="1:3">
-      <c r="A147" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B147" t="s">
-        <v>231</v>
-      </c>
-      <c r="C147" t="str">
+    <row r="160" ht="37.5" spans="1:3">
+      <c r="A160" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B160" t="s">
+        <v>254</v>
+      </c>
+      <c r="C160" t="str">
         <f>_xlfn.DISPIMG("ID_7E1B92CB79BB4CBDB44BE975FC4F18F6",1)</f>
         <v>=DISPIMG("ID_7E1B92CB79BB4CBDB44BE975FC4F18F6",1)</v>
       </c>
     </row>
-    <row r="148" ht="28.8" spans="1:3">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C148" t="str">
+    <row r="161" ht="28.8" spans="1:3">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C161" t="str">
         <f>_xlfn.DISPIMG("ID_292A425AA21B444F80B74593B048F053",1)</f>
         <v>=DISPIMG("ID_292A425AA21B444F80B74593B048F053",1)</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-    </row>
-    <row r="150" ht="37.5" spans="1:3">
-      <c r="A150" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C150" t="str">
+    <row r="162" spans="1:2">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163" ht="37.5" spans="1:3">
+      <c r="A163" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C163" t="str">
         <f>_xlfn.DISPIMG("ID_6A93E5240CB04D8997B3F7B73CA1ABF9",1)</f>
         <v>=DISPIMG("ID_6A93E5240CB04D8997B3F7B73CA1ABF9",1)</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-    </row>
-    <row r="152" ht="24" spans="1:3">
-      <c r="A152" t="s">
-        <v>235</v>
-      </c>
-      <c r="B152" t="s">
-        <v>236</v>
-      </c>
-      <c r="C152" t="str">
+    <row r="164" spans="1:2">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165" ht="24" spans="1:3">
+      <c r="A165" t="s">
+        <v>258</v>
+      </c>
+      <c r="B165" t="s">
+        <v>259</v>
+      </c>
+      <c r="C165" t="str">
         <f>_xlfn.DISPIMG("ID_AE433C0368614DA8A6CFB28364FB3F92",1)</f>
         <v>=DISPIMG("ID_AE433C0368614DA8A6CFB28364FB3F92",1)</v>
       </c>
     </row>
-    <row r="153" ht="27.65" spans="1:3">
-      <c r="A153" t="s">
-        <v>237</v>
-      </c>
-      <c r="B153" t="s">
-        <v>238</v>
-      </c>
-      <c r="C153" t="str">
+    <row r="166" ht="27.65" spans="1:3">
+      <c r="A166" t="s">
+        <v>260</v>
+      </c>
+      <c r="B166" t="s">
+        <v>261</v>
+      </c>
+      <c r="C166" t="str">
         <f>_xlfn.DISPIMG("ID_12C40AEE324A44C2B34E864C00A53736",1)</f>
         <v>=DISPIMG("ID_12C40AEE324A44C2B34E864C00A53736",1)</v>
       </c>
     </row>
-    <row r="155" ht="31.25" spans="1:3">
-      <c r="A155" t="s">
-        <v>239</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C155" t="str">
+    <row r="168" ht="31.25" spans="1:3">
+      <c r="A168" t="s">
+        <v>262</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C168" t="str">
         <f>_xlfn.DISPIMG("ID_6FBA0D7C30224E079A14E388B7A80A26",1)</f>
         <v>=DISPIMG("ID_6FBA0D7C30224E079A14E388B7A80A26",1)</v>
       </c>
     </row>
-    <row r="156" ht="32.3" spans="1:3">
-      <c r="A156" t="s">
-        <v>241</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C156" t="str">
+    <row r="169" ht="32.3" spans="1:3">
+      <c r="A169" t="s">
+        <v>264</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C169" t="str">
         <f>_xlfn.DISPIMG("ID_7A818E3013914853A9EFDEAE9BF6E772",1)</f>
         <v>=DISPIMG("ID_7A818E3013914853A9EFDEAE9BF6E772",1)</v>
       </c>
     </row>
-    <row r="157" ht="40.55" spans="1:3">
-      <c r="A157" t="s">
-        <v>243</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C157" t="str">
+    <row r="170" ht="40.55" spans="1:3">
+      <c r="A170" t="s">
+        <v>266</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C170" t="str">
         <f>_xlfn.DISPIMG("ID_35576D90A4CC457E8EE0FBEFB585AAA1",1)</f>
         <v>=DISPIMG("ID_35576D90A4CC457E8EE0FBEFB585AAA1",1)</v>
       </c>
     </row>
-    <row r="158" ht="38.45" spans="1:3">
-      <c r="A158" t="s">
-        <v>245</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C158" t="str">
+    <row r="171" ht="38.45" spans="1:3">
+      <c r="A171" t="s">
+        <v>268</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C171" t="str">
         <f>_xlfn.DISPIMG("ID_2450844B1E604A0DB88E8A1DC84FB60D",1)</f>
         <v>=DISPIMG("ID_2450844B1E604A0DB88E8A1DC84FB60D",1)</v>
       </c>
     </row>
-    <row r="159" ht="29.65" spans="1:3">
-      <c r="A159" t="s">
-        <v>247</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C159" t="str">
+    <row r="172" ht="29.65" spans="1:3">
+      <c r="A172" t="s">
+        <v>270</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C172" t="str">
         <f>_xlfn.DISPIMG("ID_9EB8D6673CDD4F89B9D9C1788830AB97",1)</f>
         <v>=DISPIMG("ID_9EB8D6673CDD4F89B9D9C1788830AB97",1)</v>
       </c>
     </row>
-    <row r="160" ht="36.9" spans="1:3">
-      <c r="A160" t="s">
-        <v>249</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C160" t="str">
+    <row r="173" ht="36.9" spans="1:3">
+      <c r="A173" t="s">
+        <v>272</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C173" t="str">
         <f>_xlfn.DISPIMG("ID_D44602CEC63A45A1BFBFFC2A86D3929E",1)</f>
         <v>=DISPIMG("ID_D44602CEC63A45A1BFBFFC2A86D3929E",1)</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="2"/>
-    </row>
-    <row r="162" ht="57.75" spans="1:3">
-      <c r="A162" t="s">
-        <v>251</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C162" t="str">
+    <row r="174" spans="2:2">
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175" ht="57.75" spans="1:3">
+      <c r="A175" t="s">
+        <v>274</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C175" t="str">
         <f>_xlfn.DISPIMG("ID_001EB6649E074AEDA1E631DC1B8B9F87",1)</f>
         <v>=DISPIMG("ID_001EB6649E074AEDA1E631DC1B8B9F87",1)</v>
       </c>
     </row>
-    <row r="163" ht="53.25" spans="1:3">
-      <c r="A163" t="s">
-        <v>253</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C163" t="str">
+    <row r="176" ht="53.25" spans="1:3">
+      <c r="A176" t="s">
+        <v>276</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C176" t="str">
         <f>_xlfn.DISPIMG("ID_45A90FAAFB0140418241F61FAF883B8E",1)</f>
         <v>=DISPIMG("ID_45A90FAAFB0140418241F61FAF883B8E",1)</v>
       </c>
     </row>
-    <row r="164" ht="52.5" spans="1:3">
-      <c r="A164" t="s">
-        <v>255</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C164" t="str">
+    <row r="177" ht="52.5" spans="1:3">
+      <c r="A177" t="s">
+        <v>278</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C177" t="str">
         <f>_xlfn.DISPIMG("ID_3C205509353D45FD9F7D4464A55D37CC",1)</f>
         <v>=DISPIMG("ID_3C205509353D45FD9F7D4464A55D37CC",1)</v>
       </c>
     </row>
-    <row r="165" ht="50.25" spans="1:3">
-      <c r="A165" t="s">
-        <v>257</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C165" t="str">
+    <row r="178" ht="50.25" spans="1:3">
+      <c r="A178" t="s">
+        <v>280</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C178" t="str">
         <f>_xlfn.DISPIMG("ID_74B6DE2FD5F047A49E492821FDAACABB",1)</f>
         <v>=DISPIMG("ID_74B6DE2FD5F047A49E492821FDAACABB",1)</v>
       </c>
     </row>
-    <row r="166" ht="50.1" spans="1:3">
-      <c r="A166" t="s">
-        <v>259</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C166" t="str">
+    <row r="179" ht="50.1" spans="1:3">
+      <c r="A179" t="s">
+        <v>282</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C179" t="str">
         <f>_xlfn.DISPIMG("ID_C8B7AA6B43F142EBA95ECDEE9049A391",1)</f>
         <v>=DISPIMG("ID_C8B7AA6B43F142EBA95ECDEE9049A391",1)</v>
       </c>
     </row>
-    <row r="167" ht="57.6" spans="1:3">
-      <c r="A167" t="s">
-        <v>261</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C167" t="str">
+    <row r="180" ht="57.6" spans="1:3">
+      <c r="A180" t="s">
+        <v>284</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C180" t="str">
         <f>_xlfn.DISPIMG("ID_56804EAEFB72440891DF124DFD33B589",1)</f>
         <v>=DISPIMG("ID_56804EAEFB72440891DF124DFD33B589",1)</v>
       </c>
     </row>
-    <row r="168" ht="48.35" spans="1:3">
-      <c r="A168" t="s">
-        <v>263</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C168" t="str">
+    <row r="181" ht="48.35" spans="1:3">
+      <c r="A181" t="s">
+        <v>286</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C181" t="str">
         <f>_xlfn.DISPIMG("ID_0543505CEB224B09B82CBABBC6595654",1)</f>
         <v>=DISPIMG("ID_0543505CEB224B09B82CBABBC6595654",1)</v>
       </c>
     </row>
-    <row r="169" ht="49.55" spans="1:3">
-      <c r="A169" t="s">
-        <v>265</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C169" t="str">
+    <row r="182" ht="49.55" spans="1:3">
+      <c r="A182" t="s">
+        <v>288</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C182" t="str">
         <f>_xlfn.DISPIMG("ID_F2F45869962B4490ABD03C30EC0C1584",1)</f>
         <v>=DISPIMG("ID_F2F45869962B4490ABD03C30EC0C1584",1)</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="2"/>
-    </row>
-    <row r="171" ht="51" spans="1:3">
-      <c r="A171" t="s">
-        <v>267</v>
-      </c>
-      <c r="B171" t="s">
-        <v>268</v>
-      </c>
-      <c r="C171" t="str">
+    <row r="183" spans="2:2">
+      <c r="B183" s="2"/>
+    </row>
+    <row r="184" ht="51" spans="1:3">
+      <c r="A184" t="s">
+        <v>290</v>
+      </c>
+      <c r="B184" t="s">
+        <v>291</v>
+      </c>
+      <c r="C184" t="str">
         <f>_xlfn.DISPIMG("ID_C3F436A1EC5742BFB78E8C7F9625BC69",1)</f>
         <v>=DISPIMG("ID_C3F436A1EC5742BFB78E8C7F9625BC69",1)</v>
       </c>
     </row>
-    <row r="173" ht="60.75" spans="1:3">
-      <c r="A173" t="s">
-        <v>269</v>
-      </c>
-      <c r="B173" t="s">
-        <v>270</v>
-      </c>
-      <c r="C173" t="str">
+    <row r="186" ht="60.75" spans="1:3">
+      <c r="A186" t="s">
+        <v>292</v>
+      </c>
+      <c r="B186" t="s">
+        <v>293</v>
+      </c>
+      <c r="C186" t="str">
         <f>_xlfn.DISPIMG("ID_4D85187A9A02416CBACCAAF102A3C801",1)</f>
         <v>=DISPIMG("ID_4D85187A9A02416CBACCAAF102A3C801",1)</v>
       </c>
     </row>
-    <row r="174" ht="42.7" spans="2:3">
-      <c r="B174" t="s">
-        <v>271</v>
-      </c>
-      <c r="C174" t="str">
+    <row r="187" ht="42.7" spans="2:3">
+      <c r="B187" t="s">
+        <v>294</v>
+      </c>
+      <c r="C187" t="str">
         <f>_xlfn.DISPIMG("ID_ACE9D7218F464E9A8BF19EC29BCDBB0E",1)</f>
         <v>=DISPIMG("ID_ACE9D7218F464E9A8BF19EC29BCDBB0E",1)</v>
       </c>
     </row>
-    <row r="175" ht="37" spans="1:3">
-      <c r="A175" t="s">
-        <v>272</v>
-      </c>
-      <c r="B175" t="s">
-        <v>273</v>
-      </c>
-      <c r="C175" t="str">
+    <row r="188" ht="37" spans="1:3">
+      <c r="A188" t="s">
+        <v>295</v>
+      </c>
+      <c r="B188" t="s">
+        <v>296</v>
+      </c>
+      <c r="C188" t="str">
         <f>_xlfn.DISPIMG("ID_C97FBDC856B64BDCA66F8D4472DFADE3",1)</f>
         <v>=DISPIMG("ID_C97FBDC856B64BDCA66F8D4472DFADE3",1)</v>
       </c>
     </row>
-    <row r="176" ht="44.55" spans="1:3">
-      <c r="A176" t="s">
-        <v>274</v>
-      </c>
-      <c r="B176" t="s">
-        <v>275</v>
-      </c>
-      <c r="C176" t="str">
+    <row r="189" ht="44.55" spans="1:3">
+      <c r="A189" t="s">
+        <v>297</v>
+      </c>
+      <c r="B189" t="s">
+        <v>298</v>
+      </c>
+      <c r="C189" t="str">
         <f>_xlfn.DISPIMG("ID_C7E147945B1F4B95A134760252CC3C1B",1)</f>
         <v>=DISPIMG("ID_C7E147945B1F4B95A134760252CC3C1B",1)</v>
       </c>
     </row>
-    <row r="177" ht="38.7" spans="1:3">
-      <c r="A177" t="s">
-        <v>276</v>
-      </c>
-      <c r="B177" t="s">
-        <v>277</v>
-      </c>
-      <c r="C177" t="str">
+    <row r="190" ht="38.7" spans="1:3">
+      <c r="A190" t="s">
+        <v>299</v>
+      </c>
+      <c r="B190" t="s">
+        <v>300</v>
+      </c>
+      <c r="C190" t="str">
         <f>_xlfn.DISPIMG("ID_B1FEDA88166741298690BCDDFDFA712A",1)</f>
         <v>=DISPIMG("ID_B1FEDA88166741298690BCDDFDFA712A",1)</v>
       </c>
     </row>
-    <row r="179" ht="48" spans="1:3">
-      <c r="A179" t="s">
-        <v>278</v>
-      </c>
-      <c r="B179" t="s">
-        <v>279</v>
-      </c>
-      <c r="C179" t="str">
+    <row r="192" ht="48" spans="1:3">
+      <c r="A192" t="s">
+        <v>301</v>
+      </c>
+      <c r="B192" t="s">
+        <v>302</v>
+      </c>
+      <c r="C192" t="str">
         <f>_xlfn.DISPIMG("ID_92A1827F52AB481BA921C8ADBCDE3193",1)</f>
         <v>=DISPIMG("ID_92A1827F52AB481BA921C8ADBCDE3193",1)</v>
       </c>
     </row>
-    <row r="180" ht="53" spans="2:3">
-      <c r="B180" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C180" t="str">
+    <row r="193" ht="53" spans="2:3">
+      <c r="B193" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C193" t="str">
         <f>_xlfn.DISPIMG("ID_B6DD3F78EDDD44DA851F1C36846E5094",1)</f>
         <v>=DISPIMG("ID_B6DD3F78EDDD44DA851F1C36846E5094",1)</v>
       </c>
     </row>
-    <row r="181" ht="54.3" spans="1:3">
-      <c r="A181" t="s">
-        <v>281</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C181" t="str">
+    <row r="194" ht="54.3" spans="1:3">
+      <c r="A194" t="s">
+        <v>304</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C194" t="str">
         <f>_xlfn.DISPIMG("ID_9662ED28460A47CCA461E29E7078438E",1)</f>
         <v>=DISPIMG("ID_9662ED28460A47CCA461E29E7078438E",1)</v>
       </c>
     </row>
-    <row r="182" ht="39.85" spans="1:3">
-      <c r="A182" t="s">
-        <v>283</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C182" t="str">
+    <row r="195" ht="39.85" spans="1:3">
+      <c r="A195" t="s">
+        <v>306</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C195" t="str">
         <f>_xlfn.DISPIMG("ID_E588568C964B4212B16EBBE8E05C441A",1)</f>
         <v>=DISPIMG("ID_E588568C964B4212B16EBBE8E05C441A",1)</v>
       </c>
     </row>
-    <row r="183" ht="45.3" spans="1:3">
-      <c r="A183" t="s">
-        <v>285</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C183" t="str">
+    <row r="196" ht="45.3" spans="1:3">
+      <c r="A196" t="s">
+        <v>308</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C196" t="str">
         <f>_xlfn.DISPIMG("ID_0BA784BE913A4014BA5CEBFACA0139F1",1)</f>
         <v>=DISPIMG("ID_0BA784BE913A4014BA5CEBFACA0139F1",1)</v>
       </c>
     </row>
-    <row r="184" ht="40.05" spans="1:3">
-      <c r="A184" t="s">
-        <v>287</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C184" t="str">
+    <row r="197" ht="40.05" spans="1:3">
+      <c r="A197" t="s">
+        <v>310</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C197" t="str">
         <f>_xlfn.DISPIMG("ID_B30135380C484DB3A49F060902582BCB",1)</f>
         <v>=DISPIMG("ID_B30135380C484DB3A49F060902582BCB",1)</v>
       </c>
     </row>
-    <row r="185" ht="35.9" spans="1:3">
-      <c r="A185" t="s">
-        <v>289</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C185" t="str">
+    <row r="198" ht="35.9" spans="1:3">
+      <c r="A198" t="s">
+        <v>312</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C198" t="str">
         <f>_xlfn.DISPIMG("ID_6C24A420478C4801BF8B93E850426379",1)</f>
         <v>=DISPIMG("ID_6C24A420478C4801BF8B93E850426379",1)</v>
       </c>
     </row>
-    <row r="186" spans="2:2">
-      <c r="B186" s="2"/>
-    </row>
-    <row r="187" ht="71.35" spans="1:3">
-      <c r="A187" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B187" t="s">
-        <v>291</v>
-      </c>
-      <c r="C187" t="str">
+    <row r="199" spans="2:2">
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" ht="71.35" spans="1:3">
+      <c r="A200" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B200" t="s">
+        <v>314</v>
+      </c>
+      <c r="C200" t="str">
         <f>_xlfn.DISPIMG("ID_0344F8B15CD941A387CDAD6DAD5F42DE",1)</f>
         <v>=DISPIMG("ID_0344F8B15CD941A387CDAD6DAD5F42DE",1)</v>
       </c>
     </row>
-    <row r="188" ht="74.25" spans="1:3">
-      <c r="A188" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C188" t="str">
+    <row r="201" ht="74.25" spans="1:3">
+      <c r="A201" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C201" t="str">
         <f>_xlfn.DISPIMG("ID_EDC0268086A14D8E86F356F1F50AE0D8",1)</f>
         <v>=DISPIMG("ID_EDC0268086A14D8E86F356F1F50AE0D8",1)</v>
       </c>
     </row>
-    <row r="189" ht="67.5" spans="1:3">
-      <c r="A189" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B189" t="s">
-        <v>295</v>
-      </c>
-      <c r="C189" t="str">
+    <row r="202" ht="67.5" spans="1:3">
+      <c r="A202" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B202" t="s">
+        <v>318</v>
+      </c>
+      <c r="C202" t="str">
         <f>_xlfn.DISPIMG("ID_D36A6D52594D43DB88A22DF5790F566E",1)</f>
         <v>=DISPIMG("ID_D36A6D52594D43DB88A22DF5790F566E",1)</v>
       </c>
     </row>
-    <row r="190" ht="55.8" spans="1:3">
-      <c r="A190" t="s">
-        <v>296</v>
-      </c>
-      <c r="B190" t="s">
-        <v>297</v>
-      </c>
-      <c r="C190" t="str">
+    <row r="203" ht="55.8" spans="1:3">
+      <c r="A203" t="s">
+        <v>319</v>
+      </c>
+      <c r="B203" t="s">
+        <v>320</v>
+      </c>
+      <c r="C203" t="str">
         <f>_xlfn.DISPIMG("ID_F064BA48D72140DFBF170BF3007E5CFA",1)</f>
         <v>=DISPIMG("ID_F064BA48D72140DFBF170BF3007E5CFA",1)</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A187" r:id="rId1" display="2243815-18-9" tooltip="https://commonchemistry.cas.org/detail?cas_rn=2243815-18-9"/>
+    <hyperlink ref="A200" r:id="rId1" display="2243815-18-9" tooltip="https://commonchemistry.cas.org/detail?cas_rn=2243815-18-9"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
